--- a/attendance-files/MR/MR-S (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-S (EFGH) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="156">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -89,6 +89,9 @@
     <t>Chinthala Jimitesh</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>2024PGP489</t>
   </si>
   <si>
@@ -105,9 +108,6 @@
   </si>
   <si>
     <t>Deeksha Darpan</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>2024PGP133</t>
@@ -974,17 +974,17 @@
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="20" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="19" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="20" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1226,9 +1226,10 @@
     <col customWidth="1" min="1" max="1" width="7.13"/>
     <col customWidth="1" min="2" max="2" width="19.63"/>
     <col customWidth="1" min="3" max="3" width="30.25"/>
-    <col customWidth="1" min="4" max="4" width="10.13"/>
+    <col customWidth="1" min="4" max="4" width="12.88"/>
     <col customWidth="1" min="5" max="6" width="12.75"/>
-    <col customWidth="1" min="7" max="26" width="10.75"/>
+    <col customWidth="1" min="7" max="15" width="4.38"/>
+    <col customWidth="1" min="16" max="26" width="5.38"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>
@@ -1623,7 +1624,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1634,12 +1635,24 @@
       <c r="I7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
+      <c r="J7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="P7" s="32"/>
       <c r="Q7" s="32"/>
       <c r="R7" s="32"/>
@@ -1669,11 +1682,11 @@
       </c>
       <c r="E8" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>20</v>
@@ -1684,24 +1697,36 @@
       <c r="I8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
+      <c r="J8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="33">
@@ -1709,21 +1734,21 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>20</v>
@@ -1734,24 +1759,36 @@
       <c r="I9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
+      <c r="J9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="33">
@@ -1759,21 +1796,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>20</v>
@@ -1784,24 +1821,36 @@
       <c r="I10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
+      <c r="J10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="33">
@@ -1809,24 +1858,24 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>20</v>
@@ -1834,24 +1883,36 @@
       <c r="I11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
+      <c r="J11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="33">
@@ -1869,11 +1930,11 @@
       </c>
       <c r="E12" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>20</v>
@@ -1884,24 +1945,36 @@
       <c r="I12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
+      <c r="J12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="33">
@@ -1919,39 +1992,51 @@
       </c>
       <c r="E13" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="40" t="s">
-        <v>29</v>
+      <c r="H13" s="41" t="s">
+        <v>23</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
+      <c r="J13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="33">
@@ -1969,39 +2054,51 @@
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="36">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>23</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
+      <c r="J14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="33">
@@ -2019,11 +2116,11 @@
       </c>
       <c r="E15" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>20</v>
@@ -2034,24 +2131,36 @@
       <c r="I15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
+      <c r="J15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="33">
@@ -2069,11 +2178,11 @@
       </c>
       <c r="E16" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>20</v>
@@ -2084,24 +2193,36 @@
       <c r="I16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
+      <c r="J16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="33">
@@ -2119,39 +2240,51 @@
       </c>
       <c r="E17" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="36">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>23</v>
       </c>
       <c r="I17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
+      <c r="J17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="33">
@@ -2173,7 +2306,7 @@
       </c>
       <c r="F18" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>20</v>
@@ -2184,24 +2317,36 @@
       <c r="I18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
+      <c r="J18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="33">
@@ -2219,11 +2364,11 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>20</v>
@@ -2234,24 +2379,36 @@
       <c r="I19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
+      <c r="J19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="33">
@@ -2269,39 +2426,51 @@
       </c>
       <c r="E20" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="40" t="s">
-        <v>29</v>
+      <c r="H20" s="41" t="s">
+        <v>23</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
+      <c r="J20" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="33">
@@ -2323,7 +2492,7 @@
       </c>
       <c r="F21" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>20</v>
@@ -2334,24 +2503,36 @@
       <c r="I21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
+      <c r="J21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="33">
@@ -2369,39 +2550,51 @@
       </c>
       <c r="E22" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="40" t="s">
-        <v>29</v>
+      <c r="H22" s="41" t="s">
+        <v>23</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
+      <c r="J22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="33">
@@ -2423,7 +2616,7 @@
       </c>
       <c r="F23" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>20</v>
@@ -2434,24 +2627,36 @@
       <c r="I23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
+      <c r="J23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="33">
@@ -2473,35 +2678,47 @@
       </c>
       <c r="F24" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="40" t="s">
-        <v>29</v>
+      <c r="H24" s="41" t="s">
+        <v>23</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
+      <c r="J24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="33">
@@ -2519,11 +2736,11 @@
       </c>
       <c r="E25" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>20</v>
@@ -2534,24 +2751,36 @@
       <c r="I25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
+      <c r="J25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="33">
@@ -2569,39 +2798,51 @@
       </c>
       <c r="E26" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="41" t="s">
-        <v>29</v>
+      <c r="H26" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
+      <c r="J26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="33">
@@ -2619,11 +2860,11 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>20</v>
@@ -2634,24 +2875,36 @@
       <c r="I27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
+      <c r="J27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="33">
@@ -2669,39 +2922,51 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
+        <v>5</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="33">
@@ -2723,7 +2988,7 @@
       </c>
       <c r="F29" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G29" s="30" t="s">
         <v>20</v>
@@ -2734,24 +2999,36 @@
       <c r="I29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
+      <c r="J29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="33">
@@ -2773,7 +3050,7 @@
       </c>
       <c r="F30" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>20</v>
@@ -2784,24 +3061,36 @@
       <c r="I30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
+      <c r="J30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="33">
@@ -2819,39 +3108,51 @@
       </c>
       <c r="E31" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="40" t="s">
-        <v>29</v>
+      <c r="H31" s="41" t="s">
+        <v>23</v>
       </c>
       <c r="I31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
+      <c r="J31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="33">
@@ -2873,7 +3174,7 @@
       </c>
       <c r="F32" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>20</v>
@@ -2884,24 +3185,36 @@
       <c r="I32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
+      <c r="J32" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="33">
@@ -2919,14 +3232,14 @@
       </c>
       <c r="E33" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>20</v>
@@ -2934,24 +3247,36 @@
       <c r="I33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
+      <c r="J33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="O33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="33">
@@ -2969,39 +3294,51 @@
       </c>
       <c r="E34" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="41" t="s">
-        <v>29</v>
+      <c r="H34" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="I34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
+      <c r="J34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="33">
@@ -3019,39 +3356,51 @@
       </c>
       <c r="E35" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F35" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="40" t="s">
-        <v>29</v>
+      <c r="H35" s="41" t="s">
+        <v>23</v>
       </c>
       <c r="I35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
+      <c r="J35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="O35" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="33">
@@ -3069,11 +3418,11 @@
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>20</v>
@@ -3084,24 +3433,36 @@
       <c r="I36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
+      <c r="J36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="33">
@@ -3119,39 +3480,51 @@
       </c>
       <c r="E37" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="40" t="s">
-        <v>29</v>
+      <c r="H37" s="41" t="s">
+        <v>23</v>
       </c>
       <c r="I37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
+      <c r="J37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="33">
@@ -3169,39 +3542,51 @@
       </c>
       <c r="E38" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38" s="36">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="41" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="I38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="38"/>
+      <c r="J38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="33">
@@ -3219,11 +3604,11 @@
       </c>
       <c r="E39" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>20</v>
@@ -3234,24 +3619,36 @@
       <c r="I39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="38"/>
-      <c r="AA39" s="38"/>
+      <c r="J39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="O39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="33">
@@ -3273,7 +3670,7 @@
       </c>
       <c r="F40" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G40" s="30" t="s">
         <v>20</v>
@@ -3284,24 +3681,36 @@
       <c r="I40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
+      <c r="J40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="33">
@@ -3323,7 +3732,7 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>20</v>
@@ -3331,27 +3740,39 @@
       <c r="H41" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="38"/>
-      <c r="Z41" s="38"/>
-      <c r="AA41" s="38"/>
+      <c r="I41" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="33">
@@ -3373,7 +3794,7 @@
       </c>
       <c r="F42" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>20</v>
@@ -3384,24 +3805,36 @@
       <c r="I42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="38"/>
-      <c r="AA42" s="38"/>
+      <c r="J42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="39"/>
+      <c r="AA42" s="39"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="33">
@@ -3419,11 +3852,11 @@
       </c>
       <c r="E43" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F43" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>20</v>
@@ -3434,24 +3867,36 @@
       <c r="I43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="38"/>
-      <c r="AA43" s="38"/>
+      <c r="J43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="O43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="39"/>
+      <c r="AA43" s="39"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="33">
@@ -3469,39 +3914,51 @@
       </c>
       <c r="E44" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H44" s="40" t="s">
-        <v>29</v>
+      <c r="H44" s="41" t="s">
+        <v>23</v>
       </c>
       <c r="I44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
-      <c r="AA44" s="38"/>
+      <c r="J44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="39"/>
+      <c r="Z44" s="39"/>
+      <c r="AA44" s="39"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="33">
@@ -3519,39 +3976,51 @@
       </c>
       <c r="E45" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G45" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="40" t="s">
-        <v>29</v>
+      <c r="H45" s="41" t="s">
+        <v>23</v>
       </c>
       <c r="I45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="38"/>
-      <c r="AA45" s="38"/>
+      <c r="J45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="39"/>
+      <c r="Z45" s="39"/>
+      <c r="AA45" s="39"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="33">
@@ -3569,11 +4038,11 @@
       </c>
       <c r="E46" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>20</v>
@@ -3584,24 +4053,36 @@
       <c r="I46" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="38"/>
-      <c r="X46" s="38"/>
-      <c r="Y46" s="38"/>
-      <c r="Z46" s="38"/>
-      <c r="AA46" s="38"/>
+      <c r="J46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="O46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="39"/>
+      <c r="Z46" s="39"/>
+      <c r="AA46" s="39"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="33">
@@ -3619,39 +4100,51 @@
       </c>
       <c r="E47" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="41" t="s">
-        <v>29</v>
+      <c r="H47" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="I47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="38"/>
-      <c r="Y47" s="38"/>
-      <c r="Z47" s="38"/>
-      <c r="AA47" s="38"/>
+      <c r="J47" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="O47" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39"/>
+      <c r="AA47" s="39"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="33">
@@ -3669,11 +4162,11 @@
       </c>
       <c r="E48" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>20</v>
@@ -3684,24 +4177,36 @@
       <c r="I48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
-      <c r="AA48" s="38"/>
+      <c r="J48" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="39"/>
+      <c r="Z48" s="39"/>
+      <c r="AA48" s="39"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="33">
@@ -3719,11 +4224,11 @@
       </c>
       <c r="E49" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G49" s="29" t="s">
         <v>20</v>
@@ -3734,24 +4239,36 @@
       <c r="I49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="38"/>
-      <c r="Z49" s="38"/>
-      <c r="AA49" s="38"/>
+      <c r="J49" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="39"/>
+      <c r="AA49" s="39"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="33">
@@ -3769,39 +4286,51 @@
       </c>
       <c r="E50" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="41" t="s">
-        <v>29</v>
+      <c r="H50" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="I50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
-      <c r="W50" s="38"/>
-      <c r="X50" s="38"/>
-      <c r="Y50" s="38"/>
-      <c r="Z50" s="38"/>
-      <c r="AA50" s="38"/>
+      <c r="J50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="39"/>
+      <c r="Z50" s="39"/>
+      <c r="AA50" s="39"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="33">
@@ -3819,11 +4348,11 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>20</v>
@@ -3834,24 +4363,36 @@
       <c r="I51" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
-      <c r="T51" s="38"/>
-      <c r="U51" s="38"/>
-      <c r="V51" s="38"/>
-      <c r="W51" s="38"/>
-      <c r="X51" s="38"/>
-      <c r="Y51" s="38"/>
-      <c r="Z51" s="38"/>
-      <c r="AA51" s="38"/>
+      <c r="J51" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39"/>
+      <c r="Z51" s="39"/>
+      <c r="AA51" s="39"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="33">
@@ -3873,7 +4414,7 @@
       </c>
       <c r="F52" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>20</v>
@@ -3884,24 +4425,36 @@
       <c r="I52" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="38"/>
-      <c r="W52" s="38"/>
-      <c r="X52" s="38"/>
-      <c r="Y52" s="38"/>
-      <c r="Z52" s="38"/>
-      <c r="AA52" s="38"/>
+      <c r="J52" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="39"/>
+      <c r="Y52" s="39"/>
+      <c r="Z52" s="39"/>
+      <c r="AA52" s="39"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="33">
@@ -3923,7 +4476,7 @@
       </c>
       <c r="F53" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>20</v>
@@ -3934,24 +4487,36 @@
       <c r="I53" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="38"/>
-      <c r="W53" s="38"/>
-      <c r="X53" s="38"/>
-      <c r="Y53" s="38"/>
-      <c r="Z53" s="38"/>
-      <c r="AA53" s="38"/>
+      <c r="J53" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="39"/>
+      <c r="Z53" s="39"/>
+      <c r="AA53" s="39"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="33">
@@ -3969,11 +4534,11 @@
       </c>
       <c r="E54" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>20</v>
@@ -3984,24 +4549,36 @@
       <c r="I54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="38"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
-      <c r="W54" s="38"/>
-      <c r="X54" s="38"/>
-      <c r="Y54" s="38"/>
-      <c r="Z54" s="38"/>
-      <c r="AA54" s="38"/>
+      <c r="J54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="39"/>
+      <c r="X54" s="39"/>
+      <c r="Y54" s="39"/>
+      <c r="Z54" s="39"/>
+      <c r="AA54" s="39"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="33">
@@ -4023,7 +4600,7 @@
       </c>
       <c r="F55" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>20</v>
@@ -4034,24 +4611,36 @@
       <c r="I55" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="38"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="38"/>
-      <c r="W55" s="38"/>
-      <c r="X55" s="38"/>
-      <c r="Y55" s="38"/>
-      <c r="Z55" s="38"/>
-      <c r="AA55" s="38"/>
+      <c r="J55" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39"/>
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="33">
@@ -4069,11 +4658,11 @@
       </c>
       <c r="E56" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>20</v>
@@ -4084,24 +4673,36 @@
       <c r="I56" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="38"/>
-      <c r="X56" s="38"/>
-      <c r="Y56" s="38"/>
-      <c r="Z56" s="38"/>
-      <c r="AA56" s="38"/>
+      <c r="J56" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="39"/>
+      <c r="Y56" s="39"/>
+      <c r="Z56" s="39"/>
+      <c r="AA56" s="39"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="33">
@@ -4123,35 +4724,47 @@
       </c>
       <c r="F57" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="41" t="s">
-        <v>29</v>
+      <c r="H57" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="I57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
-      <c r="T57" s="38"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="38"/>
-      <c r="W57" s="38"/>
-      <c r="X57" s="38"/>
-      <c r="Y57" s="38"/>
-      <c r="Z57" s="38"/>
-      <c r="AA57" s="38"/>
+      <c r="J57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="39"/>
+      <c r="X57" s="39"/>
+      <c r="Y57" s="39"/>
+      <c r="Z57" s="39"/>
+      <c r="AA57" s="39"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="33">
@@ -4169,39 +4782,51 @@
       </c>
       <c r="E58" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="36">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="I58" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
-      <c r="T58" s="38"/>
-      <c r="U58" s="38"/>
-      <c r="V58" s="38"/>
-      <c r="W58" s="38"/>
-      <c r="X58" s="38"/>
-      <c r="Y58" s="38"/>
-      <c r="Z58" s="38"/>
-      <c r="AA58" s="38"/>
+      <c r="H58" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="39"/>
+      <c r="Y58" s="39"/>
+      <c r="Z58" s="39"/>
+      <c r="AA58" s="39"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="33">
@@ -4223,7 +4848,7 @@
       </c>
       <c r="F59" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>20</v>
@@ -4234,24 +4859,36 @@
       <c r="I59" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38"/>
-      <c r="W59" s="38"/>
-      <c r="X59" s="38"/>
-      <c r="Y59" s="38"/>
-      <c r="Z59" s="38"/>
-      <c r="AA59" s="38"/>
+      <c r="J59" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="39"/>
+      <c r="W59" s="39"/>
+      <c r="X59" s="39"/>
+      <c r="Y59" s="39"/>
+      <c r="Z59" s="39"/>
+      <c r="AA59" s="39"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="33">
@@ -4269,11 +4906,11 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>20</v>
@@ -4284,24 +4921,36 @@
       <c r="I60" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="38"/>
-      <c r="P60" s="38"/>
-      <c r="Q60" s="38"/>
-      <c r="R60" s="38"/>
-      <c r="S60" s="38"/>
-      <c r="T60" s="38"/>
-      <c r="U60" s="38"/>
-      <c r="V60" s="38"/>
-      <c r="W60" s="38"/>
-      <c r="X60" s="38"/>
-      <c r="Y60" s="38"/>
-      <c r="Z60" s="38"/>
-      <c r="AA60" s="38"/>
+      <c r="J60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="39"/>
+      <c r="Z60" s="39"/>
+      <c r="AA60" s="39"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="33">
@@ -4319,11 +4968,11 @@
       </c>
       <c r="E61" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>20</v>
@@ -4334,24 +4983,36 @@
       <c r="I61" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="38"/>
-      <c r="W61" s="38"/>
-      <c r="X61" s="38"/>
-      <c r="Y61" s="38"/>
-      <c r="Z61" s="38"/>
-      <c r="AA61" s="38"/>
+      <c r="J61" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L61" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="39"/>
+      <c r="W61" s="39"/>
+      <c r="X61" s="39"/>
+      <c r="Y61" s="39"/>
+      <c r="Z61" s="39"/>
+      <c r="AA61" s="39"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="33">
@@ -4373,7 +5034,7 @@
       </c>
       <c r="F62" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>20</v>
@@ -4384,24 +5045,36 @@
       <c r="I62" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38"/>
-      <c r="R62" s="38"/>
-      <c r="S62" s="38"/>
-      <c r="T62" s="38"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="38"/>
-      <c r="W62" s="38"/>
-      <c r="X62" s="38"/>
-      <c r="Y62" s="38"/>
-      <c r="Z62" s="38"/>
-      <c r="AA62" s="38"/>
+      <c r="J62" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="39"/>
+      <c r="X62" s="39"/>
+      <c r="Y62" s="39"/>
+      <c r="Z62" s="39"/>
+      <c r="AA62" s="39"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="33">
@@ -4419,39 +5092,51 @@
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H63" s="40" t="s">
-        <v>29</v>
+      <c r="H63" s="41" t="s">
+        <v>23</v>
       </c>
       <c r="I63" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="38"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="38"/>
-      <c r="W63" s="38"/>
-      <c r="X63" s="38"/>
-      <c r="Y63" s="38"/>
-      <c r="Z63" s="38"/>
-      <c r="AA63" s="38"/>
+      <c r="J63" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
+      <c r="X63" s="39"/>
+      <c r="Y63" s="39"/>
+      <c r="Z63" s="39"/>
+      <c r="AA63" s="39"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="33">
@@ -4473,7 +5158,7 @@
       </c>
       <c r="F64" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G64" s="29" t="s">
         <v>20</v>
@@ -4484,24 +5169,36 @@
       <c r="I64" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="38"/>
-      <c r="U64" s="38"/>
-      <c r="V64" s="38"/>
-      <c r="W64" s="38"/>
-      <c r="X64" s="38"/>
-      <c r="Y64" s="38"/>
-      <c r="Z64" s="38"/>
-      <c r="AA64" s="38"/>
+      <c r="J64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
+      <c r="V64" s="39"/>
+      <c r="W64" s="39"/>
+      <c r="X64" s="39"/>
+      <c r="Y64" s="39"/>
+      <c r="Z64" s="39"/>
+      <c r="AA64" s="39"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="33">
@@ -4519,11 +5216,11 @@
       </c>
       <c r="E65" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>20</v>
@@ -4534,24 +5231,36 @@
       <c r="I65" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="38"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38"/>
-      <c r="AA65" s="38"/>
+      <c r="J65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39"/>
+      <c r="W65" s="39"/>
+      <c r="X65" s="39"/>
+      <c r="Y65" s="39"/>
+      <c r="Z65" s="39"/>
+      <c r="AA65" s="39"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="33">
@@ -4569,11 +5278,11 @@
       </c>
       <c r="E66" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>20</v>
@@ -4584,24 +5293,36 @@
       <c r="I66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
-      <c r="T66" s="38"/>
-      <c r="U66" s="38"/>
-      <c r="V66" s="38"/>
-      <c r="W66" s="38"/>
-      <c r="X66" s="38"/>
-      <c r="Y66" s="38"/>
-      <c r="Z66" s="38"/>
-      <c r="AA66" s="38"/>
+      <c r="J66" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="39"/>
+      <c r="Z66" s="39"/>
+      <c r="AA66" s="39"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="33">
@@ -4619,11 +5340,11 @@
       </c>
       <c r="E67" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>20</v>
@@ -4634,24 +5355,36 @@
       <c r="I67" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="38"/>
-      <c r="S67" s="38"/>
-      <c r="T67" s="38"/>
-      <c r="U67" s="38"/>
-      <c r="V67" s="38"/>
-      <c r="W67" s="38"/>
-      <c r="X67" s="38"/>
-      <c r="Y67" s="38"/>
-      <c r="Z67" s="38"/>
-      <c r="AA67" s="38"/>
+      <c r="J67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="39"/>
+      <c r="Y67" s="39"/>
+      <c r="Z67" s="39"/>
+      <c r="AA67" s="39"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="33">
@@ -4673,7 +5406,7 @@
       </c>
       <c r="F68" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>20</v>
@@ -4684,24 +5417,36 @@
       <c r="I68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="38"/>
-      <c r="V68" s="38"/>
-      <c r="W68" s="38"/>
-      <c r="X68" s="38"/>
-      <c r="Y68" s="38"/>
-      <c r="Z68" s="38"/>
-      <c r="AA68" s="38"/>
+      <c r="J68" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+      <c r="X68" s="39"/>
+      <c r="Y68" s="39"/>
+      <c r="Z68" s="39"/>
+      <c r="AA68" s="39"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="33">
@@ -4719,11 +5464,11 @@
       </c>
       <c r="E69" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>20</v>
@@ -4734,24 +5479,36 @@
       <c r="I69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="38"/>
-      <c r="W69" s="38"/>
-      <c r="X69" s="38"/>
-      <c r="Y69" s="38"/>
-      <c r="Z69" s="38"/>
-      <c r="AA69" s="38"/>
+      <c r="J69" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="39"/>
+      <c r="X69" s="39"/>
+      <c r="Y69" s="39"/>
+      <c r="Z69" s="39"/>
+      <c r="AA69" s="39"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="33">
@@ -4769,11 +5526,11 @@
       </c>
       <c r="E70" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F70" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>20</v>
@@ -4784,24 +5541,36 @@
       <c r="I70" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="38"/>
-      <c r="R70" s="38"/>
-      <c r="S70" s="38"/>
-      <c r="T70" s="38"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="38"/>
-      <c r="W70" s="38"/>
-      <c r="X70" s="38"/>
-      <c r="Y70" s="38"/>
-      <c r="Z70" s="38"/>
-      <c r="AA70" s="38"/>
+      <c r="J70" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="O70" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="39"/>
+      <c r="U70" s="39"/>
+      <c r="V70" s="39"/>
+      <c r="W70" s="39"/>
+      <c r="X70" s="39"/>
+      <c r="Y70" s="39"/>
+      <c r="Z70" s="39"/>
+      <c r="AA70" s="39"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="33">
@@ -4819,11 +5588,11 @@
       </c>
       <c r="E71" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>20</v>
@@ -4834,24 +5603,36 @@
       <c r="I71" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J71" s="38"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
-      <c r="Q71" s="38"/>
-      <c r="R71" s="38"/>
-      <c r="S71" s="38"/>
-      <c r="T71" s="38"/>
-      <c r="U71" s="38"/>
-      <c r="V71" s="38"/>
-      <c r="W71" s="38"/>
-      <c r="X71" s="38"/>
-      <c r="Y71" s="38"/>
-      <c r="Z71" s="38"/>
-      <c r="AA71" s="38"/>
+      <c r="J71" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="39"/>
+      <c r="V71" s="39"/>
+      <c r="W71" s="39"/>
+      <c r="X71" s="39"/>
+      <c r="Y71" s="39"/>
+      <c r="Z71" s="39"/>
+      <c r="AA71" s="39"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="33">
@@ -4869,11 +5650,11 @@
       </c>
       <c r="E72" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G72" s="29" t="s">
         <v>20</v>
@@ -4884,24 +5665,36 @@
       <c r="I72" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="38"/>
-      <c r="S72" s="38"/>
-      <c r="T72" s="38"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="38"/>
-      <c r="W72" s="38"/>
-      <c r="X72" s="38"/>
-      <c r="Y72" s="38"/>
-      <c r="Z72" s="38"/>
-      <c r="AA72" s="38"/>
+      <c r="J72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="39"/>
+      <c r="V72" s="39"/>
+      <c r="W72" s="39"/>
+      <c r="X72" s="39"/>
+      <c r="Y72" s="39"/>
+      <c r="Z72" s="39"/>
+      <c r="AA72" s="39"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="33">
@@ -4923,7 +5716,7 @@
       </c>
       <c r="F73" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G73" s="29" t="s">
         <v>20</v>
@@ -4931,27 +5724,39 @@
       <c r="H73" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I73" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="38"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
-      <c r="Q73" s="38"/>
-      <c r="R73" s="38"/>
-      <c r="S73" s="38"/>
-      <c r="T73" s="38"/>
-      <c r="U73" s="38"/>
-      <c r="V73" s="38"/>
-      <c r="W73" s="38"/>
-      <c r="X73" s="38"/>
-      <c r="Y73" s="38"/>
-      <c r="Z73" s="38"/>
-      <c r="AA73" s="38"/>
+      <c r="I73" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J73" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O73" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="39"/>
+      <c r="V73" s="39"/>
+      <c r="W73" s="39"/>
+      <c r="X73" s="39"/>
+      <c r="Y73" s="39"/>
+      <c r="Z73" s="39"/>
+      <c r="AA73" s="39"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="33">
@@ -4969,39 +5774,51 @@
       </c>
       <c r="E74" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="40" t="s">
-        <v>29</v>
+      <c r="H74" s="41" t="s">
+        <v>23</v>
       </c>
       <c r="I74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="38"/>
-      <c r="O74" s="38"/>
-      <c r="P74" s="38"/>
-      <c r="Q74" s="38"/>
-      <c r="R74" s="38"/>
-      <c r="S74" s="38"/>
-      <c r="T74" s="38"/>
-      <c r="U74" s="38"/>
-      <c r="V74" s="38"/>
-      <c r="W74" s="38"/>
-      <c r="X74" s="38"/>
-      <c r="Y74" s="38"/>
-      <c r="Z74" s="38"/>
-      <c r="AA74" s="38"/>
+      <c r="J74" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="39"/>
+      <c r="T74" s="39"/>
+      <c r="U74" s="39"/>
+      <c r="V74" s="39"/>
+      <c r="W74" s="39"/>
+      <c r="X74" s="39"/>
+      <c r="Y74" s="39"/>
+      <c r="Z74" s="39"/>
+      <c r="AA74" s="39"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="33" t="str">
@@ -5022,24 +5839,24 @@
       <c r="G75" s="43"/>
       <c r="H75" s="44"/>
       <c r="I75" s="44"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="38"/>
-      <c r="O75" s="38"/>
-      <c r="P75" s="38"/>
-      <c r="Q75" s="38"/>
-      <c r="R75" s="38"/>
-      <c r="S75" s="38"/>
-      <c r="T75" s="38"/>
-      <c r="U75" s="38"/>
-      <c r="V75" s="38"/>
-      <c r="W75" s="38"/>
-      <c r="X75" s="38"/>
-      <c r="Y75" s="38"/>
-      <c r="Z75" s="38"/>
-      <c r="AA75" s="38"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
+      <c r="V75" s="39"/>
+      <c r="W75" s="39"/>
+      <c r="X75" s="39"/>
+      <c r="Y75" s="39"/>
+      <c r="Z75" s="39"/>
+      <c r="AA75" s="39"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="33" t="str">
@@ -5060,24 +5877,24 @@
       <c r="G76" s="43"/>
       <c r="H76" s="44"/>
       <c r="I76" s="44"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
-      <c r="Q76" s="38"/>
-      <c r="R76" s="38"/>
-      <c r="S76" s="38"/>
-      <c r="T76" s="38"/>
-      <c r="U76" s="38"/>
-      <c r="V76" s="38"/>
-      <c r="W76" s="38"/>
-      <c r="X76" s="38"/>
-      <c r="Y76" s="38"/>
-      <c r="Z76" s="38"/>
-      <c r="AA76" s="38"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="39"/>
+      <c r="W76" s="39"/>
+      <c r="X76" s="39"/>
+      <c r="Y76" s="39"/>
+      <c r="Z76" s="39"/>
+      <c r="AA76" s="39"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="33" t="str">
@@ -5098,24 +5915,24 @@
       <c r="G77" s="43"/>
       <c r="H77" s="44"/>
       <c r="I77" s="44"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="38"/>
-      <c r="S77" s="38"/>
-      <c r="T77" s="38"/>
-      <c r="U77" s="38"/>
-      <c r="V77" s="38"/>
-      <c r="W77" s="38"/>
-      <c r="X77" s="38"/>
-      <c r="Y77" s="38"/>
-      <c r="Z77" s="38"/>
-      <c r="AA77" s="38"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="39"/>
+      <c r="N77" s="39"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="39"/>
+      <c r="T77" s="39"/>
+      <c r="U77" s="39"/>
+      <c r="V77" s="39"/>
+      <c r="W77" s="39"/>
+      <c r="X77" s="39"/>
+      <c r="Y77" s="39"/>
+      <c r="Z77" s="39"/>
+      <c r="AA77" s="39"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="33" t="str">
@@ -5136,24 +5953,24 @@
       <c r="G78" s="43"/>
       <c r="H78" s="44"/>
       <c r="I78" s="44"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-      <c r="M78" s="38"/>
-      <c r="N78" s="38"/>
-      <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
-      <c r="Q78" s="38"/>
-      <c r="R78" s="38"/>
-      <c r="S78" s="38"/>
-      <c r="T78" s="38"/>
-      <c r="U78" s="38"/>
-      <c r="V78" s="38"/>
-      <c r="W78" s="38"/>
-      <c r="X78" s="38"/>
-      <c r="Y78" s="38"/>
-      <c r="Z78" s="38"/>
-      <c r="AA78" s="38"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="39"/>
+      <c r="N78" s="39"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="39"/>
+      <c r="V78" s="39"/>
+      <c r="W78" s="39"/>
+      <c r="X78" s="39"/>
+      <c r="Y78" s="39"/>
+      <c r="Z78" s="39"/>
+      <c r="AA78" s="39"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="33" t="str">
@@ -5174,24 +5991,24 @@
       <c r="G79" s="43"/>
       <c r="H79" s="44"/>
       <c r="I79" s="44"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="38"/>
-      <c r="M79" s="38"/>
-      <c r="N79" s="38"/>
-      <c r="O79" s="38"/>
-      <c r="P79" s="38"/>
-      <c r="Q79" s="38"/>
-      <c r="R79" s="38"/>
-      <c r="S79" s="38"/>
-      <c r="T79" s="38"/>
-      <c r="U79" s="38"/>
-      <c r="V79" s="38"/>
-      <c r="W79" s="38"/>
-      <c r="X79" s="38"/>
-      <c r="Y79" s="38"/>
-      <c r="Z79" s="38"/>
-      <c r="AA79" s="38"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="39"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="39"/>
+      <c r="V79" s="39"/>
+      <c r="W79" s="39"/>
+      <c r="X79" s="39"/>
+      <c r="Y79" s="39"/>
+      <c r="Z79" s="39"/>
+      <c r="AA79" s="39"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="33" t="str">
@@ -5212,24 +6029,24 @@
       <c r="G80" s="43"/>
       <c r="H80" s="44"/>
       <c r="I80" s="44"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="38"/>
-      <c r="M80" s="38"/>
-      <c r="N80" s="38"/>
-      <c r="O80" s="38"/>
-      <c r="P80" s="38"/>
-      <c r="Q80" s="38"/>
-      <c r="R80" s="38"/>
-      <c r="S80" s="38"/>
-      <c r="T80" s="38"/>
-      <c r="U80" s="38"/>
-      <c r="V80" s="38"/>
-      <c r="W80" s="38"/>
-      <c r="X80" s="38"/>
-      <c r="Y80" s="38"/>
-      <c r="Z80" s="38"/>
-      <c r="AA80" s="38"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="39"/>
+      <c r="N80" s="39"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="39"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
+      <c r="S80" s="39"/>
+      <c r="T80" s="39"/>
+      <c r="U80" s="39"/>
+      <c r="V80" s="39"/>
+      <c r="W80" s="39"/>
+      <c r="X80" s="39"/>
+      <c r="Y80" s="39"/>
+      <c r="Z80" s="39"/>
+      <c r="AA80" s="39"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="33" t="str">
@@ -5250,24 +6067,24 @@
       <c r="G81" s="43"/>
       <c r="H81" s="44"/>
       <c r="I81" s="44"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="38"/>
-      <c r="O81" s="38"/>
-      <c r="P81" s="38"/>
-      <c r="Q81" s="38"/>
-      <c r="R81" s="38"/>
-      <c r="S81" s="38"/>
-      <c r="T81" s="38"/>
-      <c r="U81" s="38"/>
-      <c r="V81" s="38"/>
-      <c r="W81" s="38"/>
-      <c r="X81" s="38"/>
-      <c r="Y81" s="38"/>
-      <c r="Z81" s="38"/>
-      <c r="AA81" s="38"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="39"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="39"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="39"/>
+      <c r="V81" s="39"/>
+      <c r="W81" s="39"/>
+      <c r="X81" s="39"/>
+      <c r="Y81" s="39"/>
+      <c r="Z81" s="39"/>
+      <c r="AA81" s="39"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="33" t="str">
@@ -5288,24 +6105,24 @@
       <c r="G82" s="43"/>
       <c r="H82" s="44"/>
       <c r="I82" s="44"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="38"/>
-      <c r="M82" s="38"/>
-      <c r="N82" s="38"/>
-      <c r="O82" s="38"/>
-      <c r="P82" s="38"/>
-      <c r="Q82" s="38"/>
-      <c r="R82" s="38"/>
-      <c r="S82" s="38"/>
-      <c r="T82" s="38"/>
-      <c r="U82" s="38"/>
-      <c r="V82" s="38"/>
-      <c r="W82" s="38"/>
-      <c r="X82" s="38"/>
-      <c r="Y82" s="38"/>
-      <c r="Z82" s="38"/>
-      <c r="AA82" s="38"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="39"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="39"/>
+      <c r="T82" s="39"/>
+      <c r="U82" s="39"/>
+      <c r="V82" s="39"/>
+      <c r="W82" s="39"/>
+      <c r="X82" s="39"/>
+      <c r="Y82" s="39"/>
+      <c r="Z82" s="39"/>
+      <c r="AA82" s="39"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="33" t="str">
@@ -5326,24 +6143,24 @@
       <c r="G83" s="43"/>
       <c r="H83" s="44"/>
       <c r="I83" s="44"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38"/>
-      <c r="L83" s="38"/>
-      <c r="M83" s="38"/>
-      <c r="N83" s="38"/>
-      <c r="O83" s="38"/>
-      <c r="P83" s="38"/>
-      <c r="Q83" s="38"/>
-      <c r="R83" s="38"/>
-      <c r="S83" s="38"/>
-      <c r="T83" s="38"/>
-      <c r="U83" s="38"/>
-      <c r="V83" s="38"/>
-      <c r="W83" s="38"/>
-      <c r="X83" s="38"/>
-      <c r="Y83" s="38"/>
-      <c r="Z83" s="38"/>
-      <c r="AA83" s="38"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="39"/>
+      <c r="N83" s="39"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
+      <c r="S83" s="39"/>
+      <c r="T83" s="39"/>
+      <c r="U83" s="39"/>
+      <c r="V83" s="39"/>
+      <c r="W83" s="39"/>
+      <c r="X83" s="39"/>
+      <c r="Y83" s="39"/>
+      <c r="Z83" s="39"/>
+      <c r="AA83" s="39"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="33" t="str">
@@ -5364,24 +6181,24 @@
       <c r="G84" s="43"/>
       <c r="H84" s="44"/>
       <c r="I84" s="44"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38"/>
-      <c r="O84" s="38"/>
-      <c r="P84" s="38"/>
-      <c r="Q84" s="38"/>
-      <c r="R84" s="38"/>
-      <c r="S84" s="38"/>
-      <c r="T84" s="38"/>
-      <c r="U84" s="38"/>
-      <c r="V84" s="38"/>
-      <c r="W84" s="38"/>
-      <c r="X84" s="38"/>
-      <c r="Y84" s="38"/>
-      <c r="Z84" s="38"/>
-      <c r="AA84" s="38"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="39"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="39"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="39"/>
+      <c r="T84" s="39"/>
+      <c r="U84" s="39"/>
+      <c r="V84" s="39"/>
+      <c r="W84" s="39"/>
+      <c r="X84" s="39"/>
+      <c r="Y84" s="39"/>
+      <c r="Z84" s="39"/>
+      <c r="AA84" s="39"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="33" t="str">
@@ -5402,24 +6219,24 @@
       <c r="G85" s="43"/>
       <c r="H85" s="44"/>
       <c r="I85" s="44"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="38"/>
-      <c r="O85" s="38"/>
-      <c r="P85" s="38"/>
-      <c r="Q85" s="38"/>
-      <c r="R85" s="38"/>
-      <c r="S85" s="38"/>
-      <c r="T85" s="38"/>
-      <c r="U85" s="38"/>
-      <c r="V85" s="38"/>
-      <c r="W85" s="38"/>
-      <c r="X85" s="38"/>
-      <c r="Y85" s="38"/>
-      <c r="Z85" s="38"/>
-      <c r="AA85" s="38"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="39"/>
+      <c r="M85" s="39"/>
+      <c r="N85" s="39"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
+      <c r="Q85" s="39"/>
+      <c r="R85" s="39"/>
+      <c r="S85" s="39"/>
+      <c r="T85" s="39"/>
+      <c r="U85" s="39"/>
+      <c r="V85" s="39"/>
+      <c r="W85" s="39"/>
+      <c r="X85" s="39"/>
+      <c r="Y85" s="39"/>
+      <c r="Z85" s="39"/>
+      <c r="AA85" s="39"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="33" t="str">
@@ -5440,24 +6257,24 @@
       <c r="G86" s="43"/>
       <c r="H86" s="44"/>
       <c r="I86" s="44"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="38"/>
-      <c r="O86" s="38"/>
-      <c r="P86" s="38"/>
-      <c r="Q86" s="38"/>
-      <c r="R86" s="38"/>
-      <c r="S86" s="38"/>
-      <c r="T86" s="38"/>
-      <c r="U86" s="38"/>
-      <c r="V86" s="38"/>
-      <c r="W86" s="38"/>
-      <c r="X86" s="38"/>
-      <c r="Y86" s="38"/>
-      <c r="Z86" s="38"/>
-      <c r="AA86" s="38"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39"/>
+      <c r="M86" s="39"/>
+      <c r="N86" s="39"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="39"/>
+      <c r="Q86" s="39"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="39"/>
+      <c r="T86" s="39"/>
+      <c r="U86" s="39"/>
+      <c r="V86" s="39"/>
+      <c r="W86" s="39"/>
+      <c r="X86" s="39"/>
+      <c r="Y86" s="39"/>
+      <c r="Z86" s="39"/>
+      <c r="AA86" s="39"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="33" t="str">
@@ -5478,24 +6295,24 @@
       <c r="G87" s="43"/>
       <c r="H87" s="44"/>
       <c r="I87" s="44"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="38"/>
-      <c r="M87" s="38"/>
-      <c r="N87" s="38"/>
-      <c r="O87" s="38"/>
-      <c r="P87" s="38"/>
-      <c r="Q87" s="38"/>
-      <c r="R87" s="38"/>
-      <c r="S87" s="38"/>
-      <c r="T87" s="38"/>
-      <c r="U87" s="38"/>
-      <c r="V87" s="38"/>
-      <c r="W87" s="38"/>
-      <c r="X87" s="38"/>
-      <c r="Y87" s="38"/>
-      <c r="Z87" s="38"/>
-      <c r="AA87" s="38"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="39"/>
+      <c r="M87" s="39"/>
+      <c r="N87" s="39"/>
+      <c r="O87" s="39"/>
+      <c r="P87" s="39"/>
+      <c r="Q87" s="39"/>
+      <c r="R87" s="39"/>
+      <c r="S87" s="39"/>
+      <c r="T87" s="39"/>
+      <c r="U87" s="39"/>
+      <c r="V87" s="39"/>
+      <c r="W87" s="39"/>
+      <c r="X87" s="39"/>
+      <c r="Y87" s="39"/>
+      <c r="Z87" s="39"/>
+      <c r="AA87" s="39"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="33" t="str">
@@ -5516,24 +6333,24 @@
       <c r="G88" s="43"/>
       <c r="H88" s="44"/>
       <c r="I88" s="44"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="38"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="38"/>
-      <c r="P88" s="38"/>
-      <c r="Q88" s="38"/>
-      <c r="R88" s="38"/>
-      <c r="S88" s="38"/>
-      <c r="T88" s="38"/>
-      <c r="U88" s="38"/>
-      <c r="V88" s="38"/>
-      <c r="W88" s="38"/>
-      <c r="X88" s="38"/>
-      <c r="Y88" s="38"/>
-      <c r="Z88" s="38"/>
-      <c r="AA88" s="38"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="39"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="39"/>
+      <c r="V88" s="39"/>
+      <c r="W88" s="39"/>
+      <c r="X88" s="39"/>
+      <c r="Y88" s="39"/>
+      <c r="Z88" s="39"/>
+      <c r="AA88" s="39"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="33" t="str">
@@ -5554,24 +6371,24 @@
       <c r="G89" s="43"/>
       <c r="H89" s="44"/>
       <c r="I89" s="44"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="38"/>
-      <c r="M89" s="38"/>
-      <c r="N89" s="38"/>
-      <c r="O89" s="38"/>
-      <c r="P89" s="38"/>
-      <c r="Q89" s="38"/>
-      <c r="R89" s="38"/>
-      <c r="S89" s="38"/>
-      <c r="T89" s="38"/>
-      <c r="U89" s="38"/>
-      <c r="V89" s="38"/>
-      <c r="W89" s="38"/>
-      <c r="X89" s="38"/>
-      <c r="Y89" s="38"/>
-      <c r="Z89" s="38"/>
-      <c r="AA89" s="38"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39"/>
+      <c r="M89" s="39"/>
+      <c r="N89" s="39"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="39"/>
+      <c r="V89" s="39"/>
+      <c r="W89" s="39"/>
+      <c r="X89" s="39"/>
+      <c r="Y89" s="39"/>
+      <c r="Z89" s="39"/>
+      <c r="AA89" s="39"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="33" t="str">
@@ -5592,24 +6409,24 @@
       <c r="G90" s="43"/>
       <c r="H90" s="44"/>
       <c r="I90" s="44"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="38"/>
-      <c r="O90" s="38"/>
-      <c r="P90" s="38"/>
-      <c r="Q90" s="38"/>
-      <c r="R90" s="38"/>
-      <c r="S90" s="38"/>
-      <c r="T90" s="38"/>
-      <c r="U90" s="38"/>
-      <c r="V90" s="38"/>
-      <c r="W90" s="38"/>
-      <c r="X90" s="38"/>
-      <c r="Y90" s="38"/>
-      <c r="Z90" s="38"/>
-      <c r="AA90" s="38"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
+      <c r="M90" s="39"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="39"/>
+      <c r="T90" s="39"/>
+      <c r="U90" s="39"/>
+      <c r="V90" s="39"/>
+      <c r="W90" s="39"/>
+      <c r="X90" s="39"/>
+      <c r="Y90" s="39"/>
+      <c r="Z90" s="39"/>
+      <c r="AA90" s="39"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="33" t="str">
@@ -5630,24 +6447,24 @@
       <c r="G91" s="43"/>
       <c r="H91" s="44"/>
       <c r="I91" s="44"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="38"/>
-      <c r="M91" s="38"/>
-      <c r="N91" s="38"/>
-      <c r="O91" s="38"/>
-      <c r="P91" s="38"/>
-      <c r="Q91" s="38"/>
-      <c r="R91" s="38"/>
-      <c r="S91" s="38"/>
-      <c r="T91" s="38"/>
-      <c r="U91" s="38"/>
-      <c r="V91" s="38"/>
-      <c r="W91" s="38"/>
-      <c r="X91" s="38"/>
-      <c r="Y91" s="38"/>
-      <c r="Z91" s="38"/>
-      <c r="AA91" s="38"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="39"/>
+      <c r="M91" s="39"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="39"/>
+      <c r="X91" s="39"/>
+      <c r="Y91" s="39"/>
+      <c r="Z91" s="39"/>
+      <c r="AA91" s="39"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="33" t="str">
@@ -5668,24 +6485,24 @@
       <c r="G92" s="43"/>
       <c r="H92" s="44"/>
       <c r="I92" s="44"/>
-      <c r="J92" s="38"/>
-      <c r="K92" s="38"/>
-      <c r="L92" s="38"/>
-      <c r="M92" s="38"/>
-      <c r="N92" s="38"/>
-      <c r="O92" s="38"/>
-      <c r="P92" s="38"/>
-      <c r="Q92" s="38"/>
-      <c r="R92" s="38"/>
-      <c r="S92" s="38"/>
-      <c r="T92" s="38"/>
-      <c r="U92" s="38"/>
-      <c r="V92" s="38"/>
-      <c r="W92" s="38"/>
-      <c r="X92" s="38"/>
-      <c r="Y92" s="38"/>
-      <c r="Z92" s="38"/>
-      <c r="AA92" s="38"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="39"/>
+      <c r="L92" s="39"/>
+      <c r="M92" s="39"/>
+      <c r="N92" s="39"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="39"/>
+      <c r="Q92" s="39"/>
+      <c r="R92" s="39"/>
+      <c r="S92" s="39"/>
+      <c r="T92" s="39"/>
+      <c r="U92" s="39"/>
+      <c r="V92" s="39"/>
+      <c r="W92" s="39"/>
+      <c r="X92" s="39"/>
+      <c r="Y92" s="39"/>
+      <c r="Z92" s="39"/>
+      <c r="AA92" s="39"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="33" t="str">
@@ -5706,24 +6523,24 @@
       <c r="G93" s="43"/>
       <c r="H93" s="44"/>
       <c r="I93" s="44"/>
-      <c r="J93" s="38"/>
-      <c r="K93" s="38"/>
-      <c r="L93" s="38"/>
-      <c r="M93" s="38"/>
-      <c r="N93" s="38"/>
-      <c r="O93" s="38"/>
-      <c r="P93" s="38"/>
-      <c r="Q93" s="38"/>
-      <c r="R93" s="38"/>
-      <c r="S93" s="38"/>
-      <c r="T93" s="38"/>
-      <c r="U93" s="38"/>
-      <c r="V93" s="38"/>
-      <c r="W93" s="38"/>
-      <c r="X93" s="38"/>
-      <c r="Y93" s="38"/>
-      <c r="Z93" s="38"/>
-      <c r="AA93" s="38"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="39"/>
+      <c r="M93" s="39"/>
+      <c r="N93" s="39"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="39"/>
+      <c r="S93" s="39"/>
+      <c r="T93" s="39"/>
+      <c r="U93" s="39"/>
+      <c r="V93" s="39"/>
+      <c r="W93" s="39"/>
+      <c r="X93" s="39"/>
+      <c r="Y93" s="39"/>
+      <c r="Z93" s="39"/>
+      <c r="AA93" s="39"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="33" t="str">
@@ -5744,24 +6561,24 @@
       <c r="G94" s="43"/>
       <c r="H94" s="44"/>
       <c r="I94" s="44"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38"/>
-      <c r="M94" s="38"/>
-      <c r="N94" s="38"/>
-      <c r="O94" s="38"/>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="38"/>
-      <c r="R94" s="38"/>
-      <c r="S94" s="38"/>
-      <c r="T94" s="38"/>
-      <c r="U94" s="38"/>
-      <c r="V94" s="38"/>
-      <c r="W94" s="38"/>
-      <c r="X94" s="38"/>
-      <c r="Y94" s="38"/>
-      <c r="Z94" s="38"/>
-      <c r="AA94" s="38"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="39"/>
+      <c r="L94" s="39"/>
+      <c r="M94" s="39"/>
+      <c r="N94" s="39"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39"/>
+      <c r="S94" s="39"/>
+      <c r="T94" s="39"/>
+      <c r="U94" s="39"/>
+      <c r="V94" s="39"/>
+      <c r="W94" s="39"/>
+      <c r="X94" s="39"/>
+      <c r="Y94" s="39"/>
+      <c r="Z94" s="39"/>
+      <c r="AA94" s="39"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="33" t="str">
@@ -5782,24 +6599,24 @@
       <c r="G95" s="43"/>
       <c r="H95" s="44"/>
       <c r="I95" s="44"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38"/>
-      <c r="L95" s="38"/>
-      <c r="M95" s="38"/>
-      <c r="N95" s="38"/>
-      <c r="O95" s="38"/>
-      <c r="P95" s="38"/>
-      <c r="Q95" s="38"/>
-      <c r="R95" s="38"/>
-      <c r="S95" s="38"/>
-      <c r="T95" s="38"/>
-      <c r="U95" s="38"/>
-      <c r="V95" s="38"/>
-      <c r="W95" s="38"/>
-      <c r="X95" s="38"/>
-      <c r="Y95" s="38"/>
-      <c r="Z95" s="38"/>
-      <c r="AA95" s="38"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="39"/>
+      <c r="L95" s="39"/>
+      <c r="M95" s="39"/>
+      <c r="N95" s="39"/>
+      <c r="O95" s="39"/>
+      <c r="P95" s="39"/>
+      <c r="Q95" s="39"/>
+      <c r="R95" s="39"/>
+      <c r="S95" s="39"/>
+      <c r="T95" s="39"/>
+      <c r="U95" s="39"/>
+      <c r="V95" s="39"/>
+      <c r="W95" s="39"/>
+      <c r="X95" s="39"/>
+      <c r="Y95" s="39"/>
+      <c r="Z95" s="39"/>
+      <c r="AA95" s="39"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="G96" s="48"/>

--- a/attendance-files/MR/MR-S (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-S (EFGH) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="156">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1653,8 +1653,12 @@
       <c r="O7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
+      <c r="P7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
@@ -1682,11 +1686,11 @@
       </c>
       <c r="E8" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>20</v>
@@ -1715,8 +1719,12 @@
       <c r="O8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
+      <c r="P8" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
@@ -1748,7 +1756,7 @@
       </c>
       <c r="F9" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>20</v>
@@ -1777,8 +1785,12 @@
       <c r="O9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
+      <c r="P9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R9" s="39"/>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
@@ -1810,7 +1822,7 @@
       </c>
       <c r="F10" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>20</v>
@@ -1839,8 +1851,12 @@
       <c r="O10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
+      <c r="P10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
@@ -1868,11 +1884,11 @@
       </c>
       <c r="E11" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="40" t="s">
         <v>23</v>
@@ -1901,8 +1917,12 @@
       <c r="O11" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
+      <c r="P11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R11" s="39"/>
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
@@ -1934,7 +1954,7 @@
       </c>
       <c r="F12" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>20</v>
@@ -1963,8 +1983,12 @@
       <c r="O12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
+      <c r="P12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R12" s="39"/>
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
@@ -1996,7 +2020,7 @@
       </c>
       <c r="F13" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>20</v>
@@ -2025,8 +2049,12 @@
       <c r="O13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
+      <c r="P13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R13" s="39"/>
       <c r="S13" s="39"/>
       <c r="T13" s="39"/>
@@ -2054,11 +2082,11 @@
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>23</v>
@@ -2087,8 +2115,12 @@
       <c r="O14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
+      <c r="P14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R14" s="39"/>
       <c r="S14" s="39"/>
       <c r="T14" s="39"/>
@@ -2120,7 +2152,7 @@
       </c>
       <c r="F15" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>20</v>
@@ -2149,8 +2181,12 @@
       <c r="O15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
+      <c r="P15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R15" s="39"/>
       <c r="S15" s="39"/>
       <c r="T15" s="39"/>
@@ -2178,7 +2214,7 @@
       </c>
       <c r="E16" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="36">
         <f t="shared" si="2"/>
@@ -2211,8 +2247,12 @@
       <c r="O16" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
+      <c r="P16" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
       <c r="T16" s="39"/>
@@ -2244,7 +2284,7 @@
       </c>
       <c r="F17" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>23</v>
@@ -2273,8 +2313,12 @@
       <c r="O17" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
+      <c r="P17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R17" s="39"/>
       <c r="S17" s="39"/>
       <c r="T17" s="39"/>
@@ -2306,7 +2350,7 @@
       </c>
       <c r="F18" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>20</v>
@@ -2335,8 +2379,12 @@
       <c r="O18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
+      <c r="P18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
       <c r="T18" s="39"/>
@@ -2368,7 +2416,7 @@
       </c>
       <c r="F19" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>20</v>
@@ -2397,8 +2445,12 @@
       <c r="O19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
+      <c r="P19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R19" s="39"/>
       <c r="S19" s="39"/>
       <c r="T19" s="39"/>
@@ -2430,7 +2482,7 @@
       </c>
       <c r="F20" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>20</v>
@@ -2459,8 +2511,12 @@
       <c r="O20" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
+      <c r="P20" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
       <c r="T20" s="39"/>
@@ -2492,7 +2548,7 @@
       </c>
       <c r="F21" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>20</v>
@@ -2521,8 +2577,12 @@
       <c r="O21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
+      <c r="P21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R21" s="39"/>
       <c r="S21" s="39"/>
       <c r="T21" s="39"/>
@@ -2554,7 +2614,7 @@
       </c>
       <c r="F22" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>20</v>
@@ -2583,8 +2643,12 @@
       <c r="O22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
+      <c r="P22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
       <c r="T22" s="39"/>
@@ -2616,7 +2680,7 @@
       </c>
       <c r="F23" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>20</v>
@@ -2645,8 +2709,12 @@
       <c r="O23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
+      <c r="P23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R23" s="39"/>
       <c r="S23" s="39"/>
       <c r="T23" s="39"/>
@@ -2674,11 +2742,11 @@
       </c>
       <c r="E24" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>20</v>
@@ -2707,8 +2775,12 @@
       <c r="O24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
+      <c r="P24" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R24" s="39"/>
       <c r="S24" s="39"/>
       <c r="T24" s="39"/>
@@ -2740,7 +2812,7 @@
       </c>
       <c r="F25" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>20</v>
@@ -2769,8 +2841,12 @@
       <c r="O25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
+      <c r="P25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R25" s="39"/>
       <c r="S25" s="39"/>
       <c r="T25" s="39"/>
@@ -2802,7 +2878,7 @@
       </c>
       <c r="F26" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>20</v>
@@ -2831,8 +2907,12 @@
       <c r="O26" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
+      <c r="P26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R26" s="39"/>
       <c r="S26" s="39"/>
       <c r="T26" s="39"/>
@@ -2860,7 +2940,7 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" s="36">
         <f t="shared" si="2"/>
@@ -2893,8 +2973,12 @@
       <c r="O27" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
+      <c r="P27" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R27" s="39"/>
       <c r="S27" s="39"/>
       <c r="T27" s="39"/>
@@ -2926,7 +3010,7 @@
       </c>
       <c r="F28" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G28" s="40" t="s">
         <v>23</v>
@@ -2955,8 +3039,12 @@
       <c r="O28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
+      <c r="P28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R28" s="39"/>
       <c r="S28" s="39"/>
       <c r="T28" s="39"/>
@@ -2984,11 +3072,11 @@
       </c>
       <c r="E29" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G29" s="30" t="s">
         <v>20</v>
@@ -3017,8 +3105,12 @@
       <c r="O29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
+      <c r="P29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R29" s="39"/>
       <c r="S29" s="39"/>
       <c r="T29" s="39"/>
@@ -3046,11 +3138,11 @@
       </c>
       <c r="E30" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>20</v>
@@ -3079,8 +3171,12 @@
       <c r="O30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
+      <c r="P30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R30" s="39"/>
       <c r="S30" s="39"/>
       <c r="T30" s="39"/>
@@ -3112,7 +3208,7 @@
       </c>
       <c r="F31" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>20</v>
@@ -3141,8 +3237,12 @@
       <c r="O31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
+      <c r="P31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R31" s="39"/>
       <c r="S31" s="39"/>
       <c r="T31" s="39"/>
@@ -3174,7 +3274,7 @@
       </c>
       <c r="F32" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>20</v>
@@ -3203,8 +3303,12 @@
       <c r="O32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
+      <c r="P32" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R32" s="39"/>
       <c r="S32" s="39"/>
       <c r="T32" s="39"/>
@@ -3236,7 +3340,7 @@
       </c>
       <c r="F33" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>23</v>
@@ -3265,8 +3369,12 @@
       <c r="O33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
+      <c r="P33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R33" s="39"/>
       <c r="S33" s="39"/>
       <c r="T33" s="39"/>
@@ -3298,7 +3406,7 @@
       </c>
       <c r="F34" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>20</v>
@@ -3327,8 +3435,12 @@
       <c r="O34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
+      <c r="P34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R34" s="39"/>
       <c r="S34" s="39"/>
       <c r="T34" s="39"/>
@@ -3356,7 +3468,7 @@
       </c>
       <c r="E35" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F35" s="36">
         <f t="shared" si="2"/>
@@ -3389,8 +3501,12 @@
       <c r="O35" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
+      <c r="P35" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="39"/>
       <c r="S35" s="39"/>
       <c r="T35" s="39"/>
@@ -3418,7 +3534,7 @@
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" s="36">
         <f t="shared" si="2"/>
@@ -3451,8 +3567,12 @@
       <c r="O36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
+      <c r="P36" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R36" s="39"/>
       <c r="S36" s="39"/>
       <c r="T36" s="39"/>
@@ -3484,7 +3604,7 @@
       </c>
       <c r="F37" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>20</v>
@@ -3513,8 +3633,12 @@
       <c r="O37" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
+      <c r="P37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R37" s="39"/>
       <c r="S37" s="39"/>
       <c r="T37" s="39"/>
@@ -3542,11 +3666,11 @@
       </c>
       <c r="E38" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G38" s="40" t="s">
         <v>23</v>
@@ -3575,8 +3699,12 @@
       <c r="O38" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
+      <c r="P38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R38" s="39"/>
       <c r="S38" s="39"/>
       <c r="T38" s="39"/>
@@ -3604,11 +3732,11 @@
       </c>
       <c r="E39" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>20</v>
@@ -3637,8 +3765,12 @@
       <c r="O39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
+      <c r="P39" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q39" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R39" s="39"/>
       <c r="S39" s="39"/>
       <c r="T39" s="39"/>
@@ -3666,7 +3798,7 @@
       </c>
       <c r="E40" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" s="36">
         <f t="shared" si="2"/>
@@ -3699,8 +3831,12 @@
       <c r="O40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
+      <c r="P40" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q40" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R40" s="39"/>
       <c r="S40" s="39"/>
       <c r="T40" s="39"/>
@@ -3728,11 +3864,11 @@
       </c>
       <c r="E41" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>20</v>
@@ -3761,8 +3897,12 @@
       <c r="O41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
+      <c r="P41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R41" s="39"/>
       <c r="S41" s="39"/>
       <c r="T41" s="39"/>
@@ -3794,7 +3934,7 @@
       </c>
       <c r="F42" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>20</v>
@@ -3823,8 +3963,12 @@
       <c r="O42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
+      <c r="P42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R42" s="39"/>
       <c r="S42" s="39"/>
       <c r="T42" s="39"/>
@@ -3856,7 +4000,7 @@
       </c>
       <c r="F43" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>20</v>
@@ -3885,8 +4029,12 @@
       <c r="O43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
+      <c r="P43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R43" s="39"/>
       <c r="S43" s="39"/>
       <c r="T43" s="39"/>
@@ -3918,7 +4066,7 @@
       </c>
       <c r="F44" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>20</v>
@@ -3947,8 +4095,12 @@
       <c r="O44" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
+      <c r="P44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R44" s="39"/>
       <c r="S44" s="39"/>
       <c r="T44" s="39"/>
@@ -3976,11 +4128,11 @@
       </c>
       <c r="E45" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G45" s="30" t="s">
         <v>20</v>
@@ -4009,8 +4161,12 @@
       <c r="O45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
+      <c r="P45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R45" s="39"/>
       <c r="S45" s="39"/>
       <c r="T45" s="39"/>
@@ -4042,7 +4198,7 @@
       </c>
       <c r="F46" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>20</v>
@@ -4071,8 +4227,12 @@
       <c r="O46" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
+      <c r="P46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R46" s="39"/>
       <c r="S46" s="39"/>
       <c r="T46" s="39"/>
@@ -4100,7 +4260,7 @@
       </c>
       <c r="E47" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F47" s="36">
         <f t="shared" si="2"/>
@@ -4133,8 +4293,12 @@
       <c r="O47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
+      <c r="P47" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q47" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R47" s="39"/>
       <c r="S47" s="39"/>
       <c r="T47" s="39"/>
@@ -4166,7 +4330,7 @@
       </c>
       <c r="F48" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>20</v>
@@ -4195,8 +4359,12 @@
       <c r="O48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39"/>
+      <c r="P48" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R48" s="39"/>
       <c r="S48" s="39"/>
       <c r="T48" s="39"/>
@@ -4228,7 +4396,7 @@
       </c>
       <c r="F49" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G49" s="29" t="s">
         <v>20</v>
@@ -4257,8 +4425,12 @@
       <c r="O49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
+      <c r="P49" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R49" s="39"/>
       <c r="S49" s="39"/>
       <c r="T49" s="39"/>
@@ -4286,11 +4458,11 @@
       </c>
       <c r="E50" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>20</v>
@@ -4319,8 +4491,12 @@
       <c r="O50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
+      <c r="P50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R50" s="39"/>
       <c r="S50" s="39"/>
       <c r="T50" s="39"/>
@@ -4348,7 +4524,7 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" s="36">
         <f t="shared" si="2"/>
@@ -4381,8 +4557,12 @@
       <c r="O51" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39"/>
+      <c r="P51" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q51" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R51" s="39"/>
       <c r="S51" s="39"/>
       <c r="T51" s="39"/>
@@ -4414,7 +4594,7 @@
       </c>
       <c r="F52" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>20</v>
@@ -4443,8 +4623,12 @@
       <c r="O52" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
+      <c r="P52" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R52" s="39"/>
       <c r="S52" s="39"/>
       <c r="T52" s="39"/>
@@ -4476,7 +4660,7 @@
       </c>
       <c r="F53" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>20</v>
@@ -4505,8 +4689,12 @@
       <c r="O53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
+      <c r="P53" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R53" s="39"/>
       <c r="S53" s="39"/>
       <c r="T53" s="39"/>
@@ -4538,7 +4726,7 @@
       </c>
       <c r="F54" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>20</v>
@@ -4567,8 +4755,12 @@
       <c r="O54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
+      <c r="P54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R54" s="39"/>
       <c r="S54" s="39"/>
       <c r="T54" s="39"/>
@@ -4596,11 +4788,11 @@
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>20</v>
@@ -4629,8 +4821,12 @@
       <c r="O55" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
+      <c r="P55" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R55" s="39"/>
       <c r="S55" s="39"/>
       <c r="T55" s="39"/>
@@ -4658,11 +4854,11 @@
       </c>
       <c r="E56" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>20</v>
@@ -4691,8 +4887,12 @@
       <c r="O56" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
+      <c r="P56" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q56" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R56" s="39"/>
       <c r="S56" s="39"/>
       <c r="T56" s="39"/>
@@ -4720,11 +4920,11 @@
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>20</v>
@@ -4753,8 +4953,12 @@
       <c r="O57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
+      <c r="P57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R57" s="39"/>
       <c r="S57" s="39"/>
       <c r="T57" s="39"/>
@@ -4782,11 +4986,11 @@
       </c>
       <c r="E58" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>20</v>
@@ -4815,8 +5019,12 @@
       <c r="O58" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
+      <c r="P58" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q58" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R58" s="39"/>
       <c r="S58" s="39"/>
       <c r="T58" s="39"/>
@@ -4848,7 +5056,7 @@
       </c>
       <c r="F59" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>20</v>
@@ -4877,8 +5085,12 @@
       <c r="O59" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
+      <c r="P59" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R59" s="39"/>
       <c r="S59" s="39"/>
       <c r="T59" s="39"/>
@@ -4910,7 +5122,7 @@
       </c>
       <c r="F60" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>20</v>
@@ -4939,8 +5151,12 @@
       <c r="O60" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
+      <c r="P60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R60" s="39"/>
       <c r="S60" s="39"/>
       <c r="T60" s="39"/>
@@ -4972,7 +5188,7 @@
       </c>
       <c r="F61" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>20</v>
@@ -5001,8 +5217,12 @@
       <c r="O61" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
+      <c r="P61" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R61" s="39"/>
       <c r="S61" s="39"/>
       <c r="T61" s="39"/>
@@ -5034,7 +5254,7 @@
       </c>
       <c r="F62" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>20</v>
@@ -5063,8 +5283,12 @@
       <c r="O62" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
+      <c r="P62" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R62" s="39"/>
       <c r="S62" s="39"/>
       <c r="T62" s="39"/>
@@ -5096,7 +5320,7 @@
       </c>
       <c r="F63" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>20</v>
@@ -5125,8 +5349,12 @@
       <c r="O63" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
+      <c r="P63" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R63" s="39"/>
       <c r="S63" s="39"/>
       <c r="T63" s="39"/>
@@ -5154,11 +5382,11 @@
       </c>
       <c r="E64" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G64" s="29" t="s">
         <v>20</v>
@@ -5187,8 +5415,12 @@
       <c r="O64" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="39"/>
+      <c r="P64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R64" s="39"/>
       <c r="S64" s="39"/>
       <c r="T64" s="39"/>
@@ -5216,11 +5448,11 @@
       </c>
       <c r="E65" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>20</v>
@@ -5249,8 +5481,12 @@
       <c r="O65" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
+      <c r="P65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R65" s="39"/>
       <c r="S65" s="39"/>
       <c r="T65" s="39"/>
@@ -5282,7 +5518,7 @@
       </c>
       <c r="F66" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>20</v>
@@ -5311,8 +5547,12 @@
       <c r="O66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="39"/>
+      <c r="P66" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R66" s="39"/>
       <c r="S66" s="39"/>
       <c r="T66" s="39"/>
@@ -5340,7 +5580,7 @@
       </c>
       <c r="E67" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67" s="36">
         <f t="shared" si="2"/>
@@ -5373,8 +5613,12 @@
       <c r="O67" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="39"/>
+      <c r="P67" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q67" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R67" s="39"/>
       <c r="S67" s="39"/>
       <c r="T67" s="39"/>
@@ -5406,7 +5650,7 @@
       </c>
       <c r="F68" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>20</v>
@@ -5435,8 +5679,12 @@
       <c r="O68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
+      <c r="P68" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R68" s="39"/>
       <c r="S68" s="39"/>
       <c r="T68" s="39"/>
@@ -5468,7 +5716,7 @@
       </c>
       <c r="F69" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>20</v>
@@ -5497,8 +5745,12 @@
       <c r="O69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="39"/>
+      <c r="P69" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R69" s="39"/>
       <c r="S69" s="39"/>
       <c r="T69" s="39"/>
@@ -5530,7 +5782,7 @@
       </c>
       <c r="F70" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>20</v>
@@ -5559,8 +5811,12 @@
       <c r="O70" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P70" s="39"/>
-      <c r="Q70" s="39"/>
+      <c r="P70" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R70" s="39"/>
       <c r="S70" s="39"/>
       <c r="T70" s="39"/>
@@ -5588,11 +5844,11 @@
       </c>
       <c r="E71" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>20</v>
@@ -5621,8 +5877,12 @@
       <c r="O71" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39"/>
+      <c r="P71" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R71" s="39"/>
       <c r="S71" s="39"/>
       <c r="T71" s="39"/>
@@ -5650,11 +5910,11 @@
       </c>
       <c r="E72" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G72" s="29" t="s">
         <v>20</v>
@@ -5683,8 +5943,12 @@
       <c r="O72" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39"/>
+      <c r="P72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="R72" s="39"/>
       <c r="S72" s="39"/>
       <c r="T72" s="39"/>
@@ -5716,7 +5980,7 @@
       </c>
       <c r="F73" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G73" s="29" t="s">
         <v>20</v>
@@ -5745,8 +6009,12 @@
       <c r="O73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39"/>
+      <c r="P73" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R73" s="39"/>
       <c r="S73" s="39"/>
       <c r="T73" s="39"/>
@@ -5778,7 +6046,7 @@
       </c>
       <c r="F74" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G74" s="29" t="s">
         <v>20</v>
@@ -5807,8 +6075,12 @@
       <c r="O74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39"/>
+      <c r="P74" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R74" s="39"/>
       <c r="S74" s="39"/>
       <c r="T74" s="39"/>

--- a/attendance-files/MR/MR-S (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-S (EFGH) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="156">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1659,8 +1659,12 @@
       <c r="Q7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
+      <c r="R7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
       <c r="V7" s="32"/>
@@ -1686,11 +1690,11 @@
       </c>
       <c r="E8" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>20</v>
@@ -1725,8 +1729,12 @@
       <c r="Q8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
+      <c r="R8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="T8" s="39"/>
       <c r="U8" s="39"/>
       <c r="V8" s="39"/>
@@ -1756,7 +1764,7 @@
       </c>
       <c r="F9" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>20</v>
@@ -1791,8 +1799,12 @@
       <c r="Q9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
+      <c r="R9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T9" s="39"/>
       <c r="U9" s="39"/>
       <c r="V9" s="39"/>
@@ -1822,7 +1834,7 @@
       </c>
       <c r="F10" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>20</v>
@@ -1857,8 +1869,12 @@
       <c r="Q10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
+      <c r="R10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T10" s="39"/>
       <c r="U10" s="39"/>
       <c r="V10" s="39"/>
@@ -1888,7 +1904,7 @@
       </c>
       <c r="F11" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11" s="40" t="s">
         <v>23</v>
@@ -1923,8 +1939,12 @@
       <c r="Q11" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
+      <c r="R11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T11" s="39"/>
       <c r="U11" s="39"/>
       <c r="V11" s="39"/>
@@ -1954,7 +1974,7 @@
       </c>
       <c r="F12" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>20</v>
@@ -1989,8 +2009,12 @@
       <c r="Q12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
+      <c r="R12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T12" s="39"/>
       <c r="U12" s="39"/>
       <c r="V12" s="39"/>
@@ -2020,7 +2044,7 @@
       </c>
       <c r="F13" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>20</v>
@@ -2055,8 +2079,12 @@
       <c r="Q13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
+      <c r="R13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T13" s="39"/>
       <c r="U13" s="39"/>
       <c r="V13" s="39"/>
@@ -2086,7 +2114,7 @@
       </c>
       <c r="F14" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>23</v>
@@ -2121,8 +2149,12 @@
       <c r="Q14" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
+      <c r="R14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T14" s="39"/>
       <c r="U14" s="39"/>
       <c r="V14" s="39"/>
@@ -2152,7 +2184,7 @@
       </c>
       <c r="F15" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>20</v>
@@ -2187,8 +2219,12 @@
       <c r="Q15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
+      <c r="R15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T15" s="39"/>
       <c r="U15" s="39"/>
       <c r="V15" s="39"/>
@@ -2218,7 +2254,7 @@
       </c>
       <c r="F16" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>20</v>
@@ -2253,8 +2289,12 @@
       <c r="Q16" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
+      <c r="R16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T16" s="39"/>
       <c r="U16" s="39"/>
       <c r="V16" s="39"/>
@@ -2284,7 +2324,7 @@
       </c>
       <c r="F17" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>23</v>
@@ -2319,8 +2359,12 @@
       <c r="Q17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
+      <c r="R17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T17" s="39"/>
       <c r="U17" s="39"/>
       <c r="V17" s="39"/>
@@ -2350,7 +2394,7 @@
       </c>
       <c r="F18" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>20</v>
@@ -2385,8 +2429,12 @@
       <c r="Q18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
+      <c r="R18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T18" s="39"/>
       <c r="U18" s="39"/>
       <c r="V18" s="39"/>
@@ -2412,11 +2460,11 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>20</v>
@@ -2451,8 +2499,12 @@
       <c r="Q19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
+      <c r="R19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="T19" s="39"/>
       <c r="U19" s="39"/>
       <c r="V19" s="39"/>
@@ -2482,7 +2534,7 @@
       </c>
       <c r="F20" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>20</v>
@@ -2517,8 +2569,12 @@
       <c r="Q20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
+      <c r="R20" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T20" s="39"/>
       <c r="U20" s="39"/>
       <c r="V20" s="39"/>
@@ -2544,11 +2600,11 @@
       </c>
       <c r="E21" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>20</v>
@@ -2583,8 +2639,12 @@
       <c r="Q21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
+      <c r="R21" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T21" s="39"/>
       <c r="U21" s="39"/>
       <c r="V21" s="39"/>
@@ -2614,7 +2674,7 @@
       </c>
       <c r="F22" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>20</v>
@@ -2649,8 +2709,12 @@
       <c r="Q22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
+      <c r="R22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T22" s="39"/>
       <c r="U22" s="39"/>
       <c r="V22" s="39"/>
@@ -2680,7 +2744,7 @@
       </c>
       <c r="F23" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>20</v>
@@ -2715,8 +2779,12 @@
       <c r="Q23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
+      <c r="R23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T23" s="39"/>
       <c r="U23" s="39"/>
       <c r="V23" s="39"/>
@@ -2746,7 +2814,7 @@
       </c>
       <c r="F24" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>20</v>
@@ -2781,8 +2849,12 @@
       <c r="Q24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
+      <c r="R24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T24" s="39"/>
       <c r="U24" s="39"/>
       <c r="V24" s="39"/>
@@ -2812,7 +2884,7 @@
       </c>
       <c r="F25" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>20</v>
@@ -2847,8 +2919,12 @@
       <c r="Q25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
+      <c r="R25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T25" s="39"/>
       <c r="U25" s="39"/>
       <c r="V25" s="39"/>
@@ -2874,11 +2950,11 @@
       </c>
       <c r="E26" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>20</v>
@@ -2913,8 +2989,12 @@
       <c r="Q26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
+      <c r="R26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="T26" s="39"/>
       <c r="U26" s="39"/>
       <c r="V26" s="39"/>
@@ -2944,7 +3024,7 @@
       </c>
       <c r="F27" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>20</v>
@@ -2979,8 +3059,12 @@
       <c r="Q27" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
+      <c r="R27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T27" s="39"/>
       <c r="U27" s="39"/>
       <c r="V27" s="39"/>
@@ -3006,11 +3090,11 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G28" s="40" t="s">
         <v>23</v>
@@ -3045,8 +3129,12 @@
       <c r="Q28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
+      <c r="R28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="T28" s="39"/>
       <c r="U28" s="39"/>
       <c r="V28" s="39"/>
@@ -3076,7 +3164,7 @@
       </c>
       <c r="F29" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G29" s="30" t="s">
         <v>20</v>
@@ -3111,8 +3199,12 @@
       <c r="Q29" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
+      <c r="R29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T29" s="39"/>
       <c r="U29" s="39"/>
       <c r="V29" s="39"/>
@@ -3142,7 +3234,7 @@
       </c>
       <c r="F30" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>20</v>
@@ -3177,8 +3269,12 @@
       <c r="Q30" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
+      <c r="R30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T30" s="39"/>
       <c r="U30" s="39"/>
       <c r="V30" s="39"/>
@@ -3204,7 +3300,7 @@
       </c>
       <c r="E31" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31" s="36">
         <f t="shared" si="2"/>
@@ -3243,8 +3339,12 @@
       <c r="Q31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
+      <c r="R31" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="T31" s="39"/>
       <c r="U31" s="39"/>
       <c r="V31" s="39"/>
@@ -3270,11 +3370,11 @@
       </c>
       <c r="E32" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>20</v>
@@ -3309,8 +3409,12 @@
       <c r="Q32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
+      <c r="R32" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T32" s="39"/>
       <c r="U32" s="39"/>
       <c r="V32" s="39"/>
@@ -3340,7 +3444,7 @@
       </c>
       <c r="F33" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>23</v>
@@ -3375,8 +3479,12 @@
       <c r="Q33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
+      <c r="R33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T33" s="39"/>
       <c r="U33" s="39"/>
       <c r="V33" s="39"/>
@@ -3406,7 +3514,7 @@
       </c>
       <c r="F34" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>20</v>
@@ -3441,8 +3549,12 @@
       <c r="Q34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
+      <c r="R34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
       <c r="V34" s="39"/>
@@ -3468,7 +3580,7 @@
       </c>
       <c r="E35" s="27">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F35" s="36">
         <f t="shared" si="2"/>
@@ -3507,8 +3619,12 @@
       <c r="Q35" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
+      <c r="R35" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="T35" s="39"/>
       <c r="U35" s="39"/>
       <c r="V35" s="39"/>
@@ -3538,7 +3654,7 @@
       </c>
       <c r="F36" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>20</v>
@@ -3573,8 +3689,12 @@
       <c r="Q36" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
+      <c r="R36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T36" s="39"/>
       <c r="U36" s="39"/>
       <c r="V36" s="39"/>
@@ -3604,7 +3724,7 @@
       </c>
       <c r="F37" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>20</v>
@@ -3639,8 +3759,12 @@
       <c r="Q37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
+      <c r="R37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T37" s="39"/>
       <c r="U37" s="39"/>
       <c r="V37" s="39"/>
@@ -3666,11 +3790,11 @@
       </c>
       <c r="E38" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G38" s="40" t="s">
         <v>23</v>
@@ -3705,8 +3829,12 @@
       <c r="Q38" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
+      <c r="R38" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S38" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T38" s="39"/>
       <c r="U38" s="39"/>
       <c r="V38" s="39"/>
@@ -3736,7 +3864,7 @@
       </c>
       <c r="F39" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>20</v>
@@ -3771,8 +3899,12 @@
       <c r="Q39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
+      <c r="R39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T39" s="39"/>
       <c r="U39" s="39"/>
       <c r="V39" s="39"/>
@@ -3802,7 +3934,7 @@
       </c>
       <c r="F40" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G40" s="30" t="s">
         <v>20</v>
@@ -3837,8 +3969,12 @@
       <c r="Q40" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
+      <c r="R40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S40" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T40" s="39"/>
       <c r="U40" s="39"/>
       <c r="V40" s="39"/>
@@ -3868,7 +4004,7 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>20</v>
@@ -3903,8 +4039,12 @@
       <c r="Q41" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
+      <c r="R41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S41" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T41" s="39"/>
       <c r="U41" s="39"/>
       <c r="V41" s="39"/>
@@ -3934,7 +4074,7 @@
       </c>
       <c r="F42" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>20</v>
@@ -3969,8 +4109,12 @@
       <c r="Q42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
+      <c r="R42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T42" s="39"/>
       <c r="U42" s="39"/>
       <c r="V42" s="39"/>
@@ -4000,7 +4144,7 @@
       </c>
       <c r="F43" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>20</v>
@@ -4035,8 +4179,12 @@
       <c r="Q43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
+      <c r="R43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S43" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T43" s="39"/>
       <c r="U43" s="39"/>
       <c r="V43" s="39"/>
@@ -4066,7 +4214,7 @@
       </c>
       <c r="F44" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>20</v>
@@ -4101,8 +4249,12 @@
       <c r="Q44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
+      <c r="R44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S44" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T44" s="39"/>
       <c r="U44" s="39"/>
       <c r="V44" s="39"/>
@@ -4132,7 +4284,7 @@
       </c>
       <c r="F45" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G45" s="30" t="s">
         <v>20</v>
@@ -4167,8 +4319,12 @@
       <c r="Q45" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
+      <c r="R45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T45" s="39"/>
       <c r="U45" s="39"/>
       <c r="V45" s="39"/>
@@ -4198,7 +4354,7 @@
       </c>
       <c r="F46" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>20</v>
@@ -4233,8 +4389,12 @@
       <c r="Q46" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
+      <c r="R46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S46" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T46" s="39"/>
       <c r="U46" s="39"/>
       <c r="V46" s="39"/>
@@ -4264,7 +4424,7 @@
       </c>
       <c r="F47" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>20</v>
@@ -4299,8 +4459,12 @@
       <c r="Q47" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
+      <c r="R47" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T47" s="39"/>
       <c r="U47" s="39"/>
       <c r="V47" s="39"/>
@@ -4326,11 +4490,11 @@
       </c>
       <c r="E48" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>20</v>
@@ -4365,8 +4529,12 @@
       <c r="Q48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R48" s="39"/>
-      <c r="S48" s="39"/>
+      <c r="R48" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S48" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T48" s="39"/>
       <c r="U48" s="39"/>
       <c r="V48" s="39"/>
@@ -4392,11 +4560,11 @@
       </c>
       <c r="E49" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G49" s="29" t="s">
         <v>20</v>
@@ -4431,8 +4599,12 @@
       <c r="Q49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
+      <c r="R49" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="T49" s="39"/>
       <c r="U49" s="39"/>
       <c r="V49" s="39"/>
@@ -4458,11 +4630,11 @@
       </c>
       <c r="E50" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>20</v>
@@ -4497,8 +4669,12 @@
       <c r="Q50" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
+      <c r="R50" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S50" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T50" s="39"/>
       <c r="U50" s="39"/>
       <c r="V50" s="39"/>
@@ -4528,7 +4704,7 @@
       </c>
       <c r="F51" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>20</v>
@@ -4563,8 +4739,12 @@
       <c r="Q51" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
+      <c r="R51" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T51" s="39"/>
       <c r="U51" s="39"/>
       <c r="V51" s="39"/>
@@ -4594,7 +4774,7 @@
       </c>
       <c r="F52" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>20</v>
@@ -4629,8 +4809,12 @@
       <c r="Q52" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
+      <c r="R52" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T52" s="39"/>
       <c r="U52" s="39"/>
       <c r="V52" s="39"/>
@@ -4660,7 +4844,7 @@
       </c>
       <c r="F53" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>20</v>
@@ -4695,8 +4879,12 @@
       <c r="Q53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
+      <c r="R53" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T53" s="39"/>
       <c r="U53" s="39"/>
       <c r="V53" s="39"/>
@@ -4722,11 +4910,11 @@
       </c>
       <c r="E54" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>20</v>
@@ -4761,8 +4949,12 @@
       <c r="Q54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
+      <c r="R54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="T54" s="39"/>
       <c r="U54" s="39"/>
       <c r="V54" s="39"/>
@@ -4792,7 +4984,7 @@
       </c>
       <c r="F55" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>20</v>
@@ -4827,8 +5019,12 @@
       <c r="Q55" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
+      <c r="R55" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S55" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T55" s="39"/>
       <c r="U55" s="39"/>
       <c r="V55" s="39"/>
@@ -4858,7 +5054,7 @@
       </c>
       <c r="F56" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>20</v>
@@ -4893,8 +5089,12 @@
       <c r="Q56" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
+      <c r="R56" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T56" s="39"/>
       <c r="U56" s="39"/>
       <c r="V56" s="39"/>
@@ -4924,7 +5124,7 @@
       </c>
       <c r="F57" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>20</v>
@@ -4959,8 +5159,12 @@
       <c r="Q57" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R57" s="39"/>
-      <c r="S57" s="39"/>
+      <c r="R57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T57" s="39"/>
       <c r="U57" s="39"/>
       <c r="V57" s="39"/>
@@ -4990,7 +5194,7 @@
       </c>
       <c r="F58" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>20</v>
@@ -5025,8 +5229,12 @@
       <c r="Q58" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
+      <c r="R58" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S58" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T58" s="39"/>
       <c r="U58" s="39"/>
       <c r="V58" s="39"/>
@@ -5056,7 +5264,7 @@
       </c>
       <c r="F59" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>20</v>
@@ -5091,8 +5299,12 @@
       <c r="Q59" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
+      <c r="R59" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S59" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T59" s="39"/>
       <c r="U59" s="39"/>
       <c r="V59" s="39"/>
@@ -5122,7 +5334,7 @@
       </c>
       <c r="F60" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>20</v>
@@ -5157,8 +5369,12 @@
       <c r="Q60" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
+      <c r="R60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S60" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T60" s="39"/>
       <c r="U60" s="39"/>
       <c r="V60" s="39"/>
@@ -5188,7 +5404,7 @@
       </c>
       <c r="F61" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>20</v>
@@ -5223,8 +5439,12 @@
       <c r="Q61" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R61" s="39"/>
-      <c r="S61" s="39"/>
+      <c r="R61" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T61" s="39"/>
       <c r="U61" s="39"/>
       <c r="V61" s="39"/>
@@ -5254,7 +5474,7 @@
       </c>
       <c r="F62" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>20</v>
@@ -5289,8 +5509,12 @@
       <c r="Q62" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
+      <c r="R62" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T62" s="39"/>
       <c r="U62" s="39"/>
       <c r="V62" s="39"/>
@@ -5320,7 +5544,7 @@
       </c>
       <c r="F63" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>20</v>
@@ -5355,8 +5579,12 @@
       <c r="Q63" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
+      <c r="R63" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T63" s="39"/>
       <c r="U63" s="39"/>
       <c r="V63" s="39"/>
@@ -5386,7 +5614,7 @@
       </c>
       <c r="F64" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G64" s="29" t="s">
         <v>20</v>
@@ -5421,8 +5649,12 @@
       <c r="Q64" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
+      <c r="R64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S64" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T64" s="39"/>
       <c r="U64" s="39"/>
       <c r="V64" s="39"/>
@@ -5452,7 +5684,7 @@
       </c>
       <c r="F65" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>20</v>
@@ -5487,8 +5719,12 @@
       <c r="Q65" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R65" s="39"/>
-      <c r="S65" s="39"/>
+      <c r="R65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S65" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T65" s="39"/>
       <c r="U65" s="39"/>
       <c r="V65" s="39"/>
@@ -5518,7 +5754,7 @@
       </c>
       <c r="F66" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>20</v>
@@ -5553,8 +5789,12 @@
       <c r="Q66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R66" s="39"/>
-      <c r="S66" s="39"/>
+      <c r="R66" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T66" s="39"/>
       <c r="U66" s="39"/>
       <c r="V66" s="39"/>
@@ -5580,11 +5820,11 @@
       </c>
       <c r="E67" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>20</v>
@@ -5619,8 +5859,12 @@
       <c r="Q67" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R67" s="39"/>
-      <c r="S67" s="39"/>
+      <c r="R67" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S67" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T67" s="39"/>
       <c r="U67" s="39"/>
       <c r="V67" s="39"/>
@@ -5650,7 +5894,7 @@
       </c>
       <c r="F68" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>20</v>
@@ -5685,8 +5929,12 @@
       <c r="Q68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
+      <c r="R68" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T68" s="39"/>
       <c r="U68" s="39"/>
       <c r="V68" s="39"/>
@@ -5712,7 +5960,7 @@
       </c>
       <c r="E69" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69" s="36">
         <f t="shared" si="2"/>
@@ -5751,8 +5999,12 @@
       <c r="Q69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39"/>
+      <c r="R69" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S69" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="T69" s="39"/>
       <c r="U69" s="39"/>
       <c r="V69" s="39"/>
@@ -5782,7 +6034,7 @@
       </c>
       <c r="F70" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>20</v>
@@ -5817,8 +6069,12 @@
       <c r="Q70" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R70" s="39"/>
-      <c r="S70" s="39"/>
+      <c r="R70" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S70" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T70" s="39"/>
       <c r="U70" s="39"/>
       <c r="V70" s="39"/>
@@ -5848,7 +6104,7 @@
       </c>
       <c r="F71" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>20</v>
@@ -5883,8 +6139,12 @@
       <c r="Q71" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R71" s="39"/>
-      <c r="S71" s="39"/>
+      <c r="R71" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S71" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T71" s="39"/>
       <c r="U71" s="39"/>
       <c r="V71" s="39"/>
@@ -5914,7 +6174,7 @@
       </c>
       <c r="F72" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G72" s="29" t="s">
         <v>20</v>
@@ -5949,8 +6209,12 @@
       <c r="Q72" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R72" s="39"/>
-      <c r="S72" s="39"/>
+      <c r="R72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S72" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T72" s="39"/>
       <c r="U72" s="39"/>
       <c r="V72" s="39"/>
@@ -5976,11 +6240,11 @@
       </c>
       <c r="E73" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G73" s="29" t="s">
         <v>20</v>
@@ -6015,8 +6279,12 @@
       <c r="Q73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R73" s="39"/>
-      <c r="S73" s="39"/>
+      <c r="R73" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S73" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="T73" s="39"/>
       <c r="U73" s="39"/>
       <c r="V73" s="39"/>
@@ -6042,11 +6310,11 @@
       </c>
       <c r="E74" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G74" s="29" t="s">
         <v>20</v>
@@ -6081,8 +6349,12 @@
       <c r="Q74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R74" s="39"/>
-      <c r="S74" s="39"/>
+      <c r="R74" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="S74" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T74" s="39"/>
       <c r="U74" s="39"/>
       <c r="V74" s="39"/>

--- a/attendance-files/MR/MR-S (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-S (EFGH) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="156">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -83,13 +83,13 @@
     <t>P</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>2024PGP124</t>
   </si>
   <si>
     <t>Chinthala Jimitesh</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>2024PGP489</t>
@@ -958,6 +958,9 @@
     <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="20" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="21" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -972,9 +975,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="20" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="E7" s="27">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
@@ -1665,25 +1665,29 @@
       <c r="S7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
+      <c r="T7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="33">
+      <c r="A8" s="34">
         <f t="shared" ref="A8:A95" si="3">IF(B8&gt;0,A7+1,"")</f>
         <v>2</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="35" t="s">
         <v>22</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>9</v>
@@ -1692,14 +1696,14 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="31" t="s">
@@ -1708,11 +1712,11 @@
       <c r="J8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>23</v>
+      <c r="K8" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M8" s="31" t="s">
         <v>20</v>
@@ -1723,8 +1727,8 @@
       <c r="O8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="38" t="s">
-        <v>23</v>
+      <c r="P8" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="Q8" s="31" t="s">
         <v>20</v>
@@ -1732,11 +1736,15 @@
       <c r="R8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
+      <c r="S8" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V8" s="39"/>
       <c r="W8" s="39"/>
       <c r="X8" s="39"/>
@@ -1745,14 +1753,14 @@
       <c r="AA8" s="39"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="33">
+      <c r="A9" s="34">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -1762,14 +1770,14 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="31" t="s">
@@ -1778,8 +1786,8 @@
       <c r="J9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="38" t="s">
-        <v>23</v>
+      <c r="K9" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L9" s="31" t="s">
         <v>20</v>
@@ -1805,8 +1813,12 @@
       <c r="S9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
+      <c r="T9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V9" s="39"/>
       <c r="W9" s="39"/>
       <c r="X9" s="39"/>
@@ -1815,14 +1827,14 @@
       <c r="AA9" s="39"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="33">
+      <c r="A10" s="34">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="26" t="s">
@@ -1830,16 +1842,16 @@
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F10" s="36">
+        <v>3</v>
+      </c>
+      <c r="F10" s="37">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="31" t="s">
@@ -1854,8 +1866,8 @@
       <c r="L10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="38" t="s">
-        <v>23</v>
+      <c r="M10" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N10" s="31" t="s">
         <v>20</v>
@@ -1875,8 +1887,12 @@
       <c r="S10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
+      <c r="T10" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="V10" s="39"/>
       <c r="W10" s="39"/>
       <c r="X10" s="39"/>
@@ -1885,14 +1901,14 @@
       <c r="AA10" s="39"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="33">
+      <c r="A11" s="34">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="26" t="s">
@@ -1900,16 +1916,16 @@
       </c>
       <c r="E11" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F11" s="36">
+        <v>4</v>
+      </c>
+      <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="31" t="s">
@@ -1930,14 +1946,14 @@
       <c r="N11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="38" t="s">
-        <v>23</v>
+      <c r="O11" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="38" t="s">
-        <v>23</v>
+      <c r="Q11" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R11" s="31" t="s">
         <v>20</v>
@@ -1945,8 +1961,12 @@
       <c r="S11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
+      <c r="T11" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V11" s="39"/>
       <c r="W11" s="39"/>
       <c r="X11" s="39"/>
@@ -1955,14 +1975,14 @@
       <c r="AA11" s="39"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="33">
+      <c r="A12" s="34">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="36" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="26" t="s">
@@ -1972,14 +1992,14 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="31" t="s">
@@ -1997,8 +2017,8 @@
       <c r="M12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="38" t="s">
-        <v>23</v>
+      <c r="N12" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O12" s="31" t="s">
         <v>20</v>
@@ -2015,8 +2035,12 @@
       <c r="S12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
+      <c r="T12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V12" s="39"/>
       <c r="W12" s="39"/>
       <c r="X12" s="39"/>
@@ -2025,14 +2049,14 @@
       <c r="AA12" s="39"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="33">
+      <c r="A13" s="34">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="26" t="s">
@@ -2040,17 +2064,17 @@
       </c>
       <c r="E13" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F13" s="36">
+        <v>3</v>
+      </c>
+      <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>20</v>
@@ -2058,8 +2082,8 @@
       <c r="J13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="38" t="s">
-        <v>23</v>
+      <c r="K13" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L13" s="31" t="s">
         <v>20</v>
@@ -2085,8 +2109,12 @@
       <c r="S13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
+      <c r="T13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V13" s="39"/>
       <c r="W13" s="39"/>
       <c r="X13" s="39"/>
@@ -2095,14 +2123,14 @@
       <c r="AA13" s="39"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="33">
+      <c r="A14" s="34">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="26" t="s">
@@ -2112,15 +2140,15 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>20</v>
@@ -2134,8 +2162,8 @@
       <c r="L14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="38" t="s">
-        <v>23</v>
+      <c r="M14" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N14" s="31" t="s">
         <v>20</v>
@@ -2146,8 +2174,8 @@
       <c r="P14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="38" t="s">
-        <v>23</v>
+      <c r="Q14" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R14" s="31" t="s">
         <v>20</v>
@@ -2155,8 +2183,12 @@
       <c r="S14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
+      <c r="T14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V14" s="39"/>
       <c r="W14" s="39"/>
       <c r="X14" s="39"/>
@@ -2165,14 +2197,14 @@
       <c r="AA14" s="39"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="33">
+      <c r="A15" s="34">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="26" t="s">
@@ -2180,16 +2212,16 @@
       </c>
       <c r="E15" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F15" s="36">
+        <v>3</v>
+      </c>
+      <c r="F15" s="37">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="31" t="s">
@@ -2204,8 +2236,8 @@
       <c r="L15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="38" t="s">
-        <v>23</v>
+      <c r="M15" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N15" s="31" t="s">
         <v>20</v>
@@ -2225,8 +2257,12 @@
       <c r="S15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
+      <c r="T15" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="V15" s="39"/>
       <c r="W15" s="39"/>
       <c r="X15" s="39"/>
@@ -2235,14 +2271,14 @@
       <c r="AA15" s="39"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="33">
+      <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="36" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="26" t="s">
@@ -2252,14 +2288,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="31" t="s">
@@ -2268,7 +2304,7 @@
       <c r="J16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="38" t="s">
         <v>20</v>
       </c>
       <c r="L16" s="31" t="s">
@@ -2280,14 +2316,14 @@
       <c r="N16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q16" s="38" t="s">
-        <v>23</v>
+      <c r="O16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R16" s="31" t="s">
         <v>20</v>
@@ -2295,8 +2331,12 @@
       <c r="S16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
+      <c r="T16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V16" s="39"/>
       <c r="W16" s="39"/>
       <c r="X16" s="39"/>
@@ -2305,14 +2345,14 @@
       <c r="AA16" s="39"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="33">
+      <c r="A17" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="26" t="s">
@@ -2322,15 +2362,15 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I17" s="30" t="s">
         <v>20</v>
@@ -2350,8 +2390,8 @@
       <c r="N17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="38" t="s">
-        <v>23</v>
+      <c r="O17" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P17" s="31" t="s">
         <v>20</v>
@@ -2365,8 +2405,12 @@
       <c r="S17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
+      <c r="T17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V17" s="39"/>
       <c r="W17" s="39"/>
       <c r="X17" s="39"/>
@@ -2375,14 +2419,14 @@
       <c r="AA17" s="39"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="33">
+      <c r="A18" s="34">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="26" t="s">
@@ -2392,9 +2436,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>20</v>
@@ -2435,8 +2479,12 @@
       <c r="S18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
+      <c r="T18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V18" s="39"/>
       <c r="W18" s="39"/>
       <c r="X18" s="39"/>
@@ -2445,14 +2493,14 @@
       <c r="AA18" s="39"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="33">
+      <c r="A19" s="34">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="26" t="s">
@@ -2462,14 +2510,14 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I19" s="31" t="s">
@@ -2487,8 +2535,8 @@
       <c r="M19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="38" t="s">
-        <v>23</v>
+      <c r="N19" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O19" s="31" t="s">
         <v>20</v>
@@ -2502,11 +2550,15 @@
       <c r="R19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
+      <c r="S19" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V19" s="39"/>
       <c r="W19" s="39"/>
       <c r="X19" s="39"/>
@@ -2515,14 +2567,14 @@
       <c r="AA19" s="39"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="33">
+      <c r="A20" s="34">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="36" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="26" t="s">
@@ -2532,15 +2584,15 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>20</v>
@@ -2548,7 +2600,7 @@
       <c r="J20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="38" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="31" t="s">
@@ -2560,8 +2612,8 @@
       <c r="N20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="38" t="s">
-        <v>23</v>
+      <c r="O20" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P20" s="31" t="s">
         <v>20</v>
@@ -2575,8 +2627,12 @@
       <c r="S20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
+      <c r="T20" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V20" s="39"/>
       <c r="W20" s="39"/>
       <c r="X20" s="39"/>
@@ -2585,14 +2641,14 @@
       <c r="AA20" s="39"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="33">
+      <c r="A21" s="34">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="36" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="26" t="s">
@@ -2600,16 +2656,16 @@
       </c>
       <c r="E21" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="36">
+        <v>3</v>
+      </c>
+      <c r="F21" s="37">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="31" t="s">
@@ -2618,7 +2674,7 @@
       <c r="J21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="38" t="s">
         <v>20</v>
       </c>
       <c r="L21" s="31" t="s">
@@ -2639,14 +2695,18 @@
       <c r="Q21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="38" t="s">
-        <v>23</v>
+      <c r="R21" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
+      <c r="T21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="V21" s="39"/>
       <c r="W21" s="39"/>
       <c r="X21" s="39"/>
@@ -2655,14 +2715,14 @@
       <c r="AA21" s="39"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="33">
+      <c r="A22" s="34">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="36" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="26" t="s">
@@ -2672,15 +2732,15 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>20</v>
@@ -2694,8 +2754,8 @@
       <c r="L22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="38" t="s">
-        <v>23</v>
+      <c r="M22" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N22" s="31" t="s">
         <v>20</v>
@@ -2715,8 +2775,12 @@
       <c r="S22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
+      <c r="T22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V22" s="39"/>
       <c r="W22" s="39"/>
       <c r="X22" s="39"/>
@@ -2725,14 +2789,14 @@
       <c r="AA22" s="39"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="33">
+      <c r="A23" s="34">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="36" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="26" t="s">
@@ -2742,14 +2806,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="31" t="s">
@@ -2785,8 +2849,12 @@
       <c r="S23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
+      <c r="T23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V23" s="39"/>
       <c r="W23" s="39"/>
       <c r="X23" s="39"/>
@@ -2795,14 +2863,14 @@
       <c r="AA23" s="39"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="33">
+      <c r="A24" s="34">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="36" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="26" t="s">
@@ -2810,17 +2878,17 @@
       </c>
       <c r="E24" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F24" s="36">
+        <v>3</v>
+      </c>
+      <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>20</v>
@@ -2843,8 +2911,8 @@
       <c r="O24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P24" s="38" t="s">
-        <v>23</v>
+      <c r="P24" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="Q24" s="31" t="s">
         <v>20</v>
@@ -2855,8 +2923,12 @@
       <c r="S24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
+      <c r="T24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="V24" s="39"/>
       <c r="W24" s="39"/>
       <c r="X24" s="39"/>
@@ -2865,14 +2937,14 @@
       <c r="AA24" s="39"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="33">
+      <c r="A25" s="34">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="36" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="26" t="s">
@@ -2882,9 +2954,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>20</v>
@@ -2898,7 +2970,7 @@
       <c r="J25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="37" t="s">
+      <c r="K25" s="38" t="s">
         <v>20</v>
       </c>
       <c r="L25" s="31" t="s">
@@ -2907,8 +2979,8 @@
       <c r="M25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="38" t="s">
-        <v>23</v>
+      <c r="N25" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O25" s="31" t="s">
         <v>20</v>
@@ -2925,8 +2997,12 @@
       <c r="S25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
+      <c r="T25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V25" s="39"/>
       <c r="W25" s="39"/>
       <c r="X25" s="39"/>
@@ -2935,14 +3011,14 @@
       <c r="AA25" s="39"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="33">
+      <c r="A26" s="34">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="36" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="26" t="s">
@@ -2952,15 +3028,15 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>20</v>
@@ -2980,8 +3056,8 @@
       <c r="N26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O26" s="38" t="s">
-        <v>23</v>
+      <c r="O26" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P26" s="31" t="s">
         <v>20</v>
@@ -2992,11 +3068,15 @@
       <c r="R26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
+      <c r="S26" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V26" s="39"/>
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
@@ -3005,14 +3085,14 @@
       <c r="AA26" s="39"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="33">
+      <c r="A27" s="34">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="36" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="26" t="s">
@@ -3022,14 +3102,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="31" t="s">
@@ -3050,14 +3130,14 @@
       <c r="N27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="38" t="s">
-        <v>23</v>
+      <c r="O27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R27" s="31" t="s">
         <v>20</v>
@@ -3065,8 +3145,12 @@
       <c r="S27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
+      <c r="T27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U27" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V27" s="39"/>
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
@@ -3075,14 +3159,14 @@
       <c r="AA27" s="39"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="33">
+      <c r="A28" s="34">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="36" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="26" t="s">
@@ -3092,18 +3176,18 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="J28" s="31" t="s">
         <v>20</v>
@@ -3111,8 +3195,8 @@
       <c r="K28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="38" t="s">
-        <v>23</v>
+      <c r="L28" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M28" s="31" t="s">
         <v>20</v>
@@ -3132,11 +3216,15 @@
       <c r="R28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
+      <c r="S28" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U28" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V28" s="39"/>
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
@@ -3145,14 +3233,14 @@
       <c r="AA28" s="39"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="33">
+      <c r="A29" s="34">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="36" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="26" t="s">
@@ -3160,9 +3248,9 @@
       </c>
       <c r="E29" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F29" s="36">
+        <v>3</v>
+      </c>
+      <c r="F29" s="37">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -3196,8 +3284,8 @@
       <c r="P29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="38" t="s">
-        <v>23</v>
+      <c r="Q29" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R29" s="31" t="s">
         <v>20</v>
@@ -3205,8 +3293,12 @@
       <c r="S29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
+      <c r="T29" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U29" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="V29" s="39"/>
       <c r="W29" s="39"/>
       <c r="X29" s="39"/>
@@ -3215,14 +3307,14 @@
       <c r="AA29" s="39"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="33">
+      <c r="A30" s="34">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="36" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="26" t="s">
@@ -3232,14 +3324,14 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="31" t="s">
@@ -3266,8 +3358,8 @@
       <c r="P30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q30" s="38" t="s">
-        <v>23</v>
+      <c r="Q30" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R30" s="31" t="s">
         <v>20</v>
@@ -3275,8 +3367,12 @@
       <c r="S30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
+      <c r="T30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U30" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V30" s="39"/>
       <c r="W30" s="39"/>
       <c r="X30" s="39"/>
@@ -3285,14 +3381,14 @@
       <c r="AA30" s="39"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="33">
+      <c r="A31" s="34">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="36" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="26" t="s">
@@ -3300,17 +3396,17 @@
       </c>
       <c r="E31" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F31" s="36">
+        <v>5</v>
+      </c>
+      <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H31" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I31" s="31" t="s">
         <v>20</v>
@@ -3324,8 +3420,8 @@
       <c r="L31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M31" s="38" t="s">
-        <v>23</v>
+      <c r="M31" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N31" s="31" t="s">
         <v>20</v>
@@ -3339,14 +3435,18 @@
       <c r="Q31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R31" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="S31" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
+      <c r="R31" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T31" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U31" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V31" s="39"/>
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
@@ -3355,14 +3455,14 @@
       <c r="AA31" s="39"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="33">
+      <c r="A32" s="34">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="36" t="s">
         <v>71</v>
       </c>
       <c r="D32" s="26" t="s">
@@ -3370,11 +3470,11 @@
       </c>
       <c r="E32" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F32" s="36">
+        <v>2</v>
+      </c>
+      <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>20</v>
@@ -3409,14 +3509,18 @@
       <c r="Q32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="38" t="s">
-        <v>23</v>
+      <c r="R32" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
+      <c r="T32" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U32" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="V32" s="39"/>
       <c r="W32" s="39"/>
       <c r="X32" s="39"/>
@@ -3425,14 +3529,14 @@
       <c r="AA32" s="39"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="33">
+      <c r="A33" s="34">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="36" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="26" t="s">
@@ -3442,14 +3546,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I33" s="31" t="s">
@@ -3461,14 +3565,14 @@
       <c r="K33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="38" t="s">
-        <v>23</v>
+      <c r="L33" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="38" t="s">
-        <v>23</v>
+      <c r="N33" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O33" s="31" t="s">
         <v>20</v>
@@ -3485,8 +3589,12 @@
       <c r="S33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
+      <c r="T33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V33" s="39"/>
       <c r="W33" s="39"/>
       <c r="X33" s="39"/>
@@ -3495,14 +3603,14 @@
       <c r="AA33" s="39"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="33">
+      <c r="A34" s="34">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="36" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="26" t="s">
@@ -3512,15 +3620,15 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H34" s="42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I34" s="31" t="s">
         <v>20</v>
@@ -3531,8 +3639,8 @@
       <c r="K34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="38" t="s">
-        <v>23</v>
+      <c r="L34" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M34" s="31" t="s">
         <v>20</v>
@@ -3555,8 +3663,12 @@
       <c r="S34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
+      <c r="T34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V34" s="39"/>
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
@@ -3565,14 +3677,14 @@
       <c r="AA34" s="39"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="33">
+      <c r="A35" s="34">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="36" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="26" t="s">
@@ -3580,17 +3692,17 @@
       </c>
       <c r="E35" s="27">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F35" s="36">
+        <v>10</v>
+      </c>
+      <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I35" s="31" t="s">
         <v>20</v>
@@ -3598,35 +3710,39 @@
       <c r="J35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="38" t="s">
-        <v>23</v>
+      <c r="K35" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M35" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="N35" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="O35" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P35" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q35" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="R35" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="S35" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
+      <c r="M35" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T35" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U35" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V35" s="39"/>
       <c r="W35" s="39"/>
       <c r="X35" s="39"/>
@@ -3635,14 +3751,14 @@
       <c r="AA35" s="39"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="33">
+      <c r="A36" s="34">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="36" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="26" t="s">
@@ -3652,9 +3768,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>20</v>
@@ -3674,8 +3790,8 @@
       <c r="L36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M36" s="38" t="s">
-        <v>23</v>
+      <c r="M36" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N36" s="31" t="s">
         <v>20</v>
@@ -3683,11 +3799,11 @@
       <c r="O36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q36" s="38" t="s">
-        <v>23</v>
+      <c r="P36" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R36" s="31" t="s">
         <v>20</v>
@@ -3695,8 +3811,12 @@
       <c r="S36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
+      <c r="T36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V36" s="39"/>
       <c r="W36" s="39"/>
       <c r="X36" s="39"/>
@@ -3705,14 +3825,14 @@
       <c r="AA36" s="39"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="33">
+      <c r="A37" s="34">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="36" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="26" t="s">
@@ -3722,15 +3842,15 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H37" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I37" s="31" t="s">
         <v>20</v>
@@ -3750,8 +3870,8 @@
       <c r="N37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O37" s="38" t="s">
-        <v>23</v>
+      <c r="O37" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P37" s="31" t="s">
         <v>20</v>
@@ -3765,8 +3885,12 @@
       <c r="S37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
+      <c r="T37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V37" s="39"/>
       <c r="W37" s="39"/>
       <c r="X37" s="39"/>
@@ -3775,14 +3899,14 @@
       <c r="AA37" s="39"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="33">
+      <c r="A38" s="34">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="36" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="26" t="s">
@@ -3792,15 +3916,15 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H38" s="42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I38" s="31" t="s">
         <v>20</v>
@@ -3811,8 +3935,8 @@
       <c r="K38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="38" t="s">
-        <v>23</v>
+      <c r="L38" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M38" s="31" t="s">
         <v>20</v>
@@ -3820,23 +3944,27 @@
       <c r="N38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O38" s="38" t="s">
-        <v>23</v>
+      <c r="O38" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="R38" s="38" t="s">
-        <v>23</v>
+      <c r="Q38" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R38" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39"/>
+      <c r="T38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U38" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V38" s="39"/>
       <c r="W38" s="39"/>
       <c r="X38" s="39"/>
@@ -3845,14 +3973,14 @@
       <c r="AA38" s="39"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="33">
+      <c r="A39" s="34">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="36" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="26" t="s">
@@ -3862,14 +3990,14 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="37" t="s">
+      <c r="H39" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I39" s="31" t="s">
@@ -3887,14 +4015,14 @@
       <c r="M39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N39" s="38" t="s">
-        <v>23</v>
+      <c r="N39" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="38" t="s">
-        <v>23</v>
+      <c r="P39" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="Q39" s="31" t="s">
         <v>20</v>
@@ -3905,8 +4033,12 @@
       <c r="S39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
+      <c r="T39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U39" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V39" s="39"/>
       <c r="W39" s="39"/>
       <c r="X39" s="39"/>
@@ -3915,14 +4047,14 @@
       <c r="AA39" s="39"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="33">
+      <c r="A40" s="34">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="36" t="s">
         <v>87</v>
       </c>
       <c r="D40" s="26" t="s">
@@ -3930,11 +4062,11 @@
       </c>
       <c r="E40" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F40" s="36">
+        <v>3</v>
+      </c>
+      <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" s="30" t="s">
         <v>20</v>
@@ -3963,11 +4095,11 @@
       <c r="O40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P40" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q40" s="38" t="s">
-        <v>23</v>
+      <c r="P40" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R40" s="31" t="s">
         <v>20</v>
@@ -3975,8 +4107,12 @@
       <c r="S40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
+      <c r="T40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U40" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="V40" s="39"/>
       <c r="W40" s="39"/>
       <c r="X40" s="39"/>
@@ -3985,14 +4121,14 @@
       <c r="AA40" s="39"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="33">
+      <c r="A41" s="34">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="36" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="26" t="s">
@@ -4000,20 +4136,20 @@
       </c>
       <c r="E41" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F41" s="36">
+        <v>3</v>
+      </c>
+      <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="38" t="s">
-        <v>23</v>
+      <c r="H41" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="J41" s="31" t="s">
         <v>20</v>
@@ -4036,8 +4172,8 @@
       <c r="P41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="38" t="s">
-        <v>23</v>
+      <c r="Q41" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R41" s="31" t="s">
         <v>20</v>
@@ -4045,8 +4181,12 @@
       <c r="S41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
+      <c r="T41" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U41" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V41" s="39"/>
       <c r="W41" s="39"/>
       <c r="X41" s="39"/>
@@ -4055,14 +4195,14 @@
       <c r="AA41" s="39"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="33">
+      <c r="A42" s="34">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="36" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="26" t="s">
@@ -4072,14 +4212,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="36">
+      <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="37" t="s">
+      <c r="H42" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I42" s="31" t="s">
@@ -4115,8 +4255,12 @@
       <c r="S42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
+      <c r="T42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U42" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V42" s="39"/>
       <c r="W42" s="39"/>
       <c r="X42" s="39"/>
@@ -4125,14 +4269,14 @@
       <c r="AA42" s="39"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="33">
+      <c r="A43" s="34">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="36" t="s">
         <v>93</v>
       </c>
       <c r="D43" s="26" t="s">
@@ -4142,9 +4286,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>20</v>
@@ -4158,17 +4302,17 @@
       <c r="J43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="38" t="s">
-        <v>23</v>
+      <c r="K43" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" s="38" t="s">
-        <v>23</v>
+      <c r="M43" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O43" s="31" t="s">
         <v>20</v>
@@ -4185,8 +4329,12 @@
       <c r="S43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
+      <c r="T43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U43" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V43" s="39"/>
       <c r="W43" s="39"/>
       <c r="X43" s="39"/>
@@ -4195,14 +4343,14 @@
       <c r="AA43" s="39"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="33">
+      <c r="A44" s="34">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="36" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="26" t="s">
@@ -4212,15 +4360,15 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F44" s="36">
+      <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H44" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I44" s="31" t="s">
         <v>20</v>
@@ -4240,8 +4388,8 @@
       <c r="N44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O44" s="38" t="s">
-        <v>23</v>
+      <c r="O44" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P44" s="31" t="s">
         <v>20</v>
@@ -4255,8 +4403,12 @@
       <c r="S44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T44" s="39"/>
-      <c r="U44" s="39"/>
+      <c r="T44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U44" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V44" s="39"/>
       <c r="W44" s="39"/>
       <c r="X44" s="39"/>
@@ -4265,14 +4417,14 @@
       <c r="AA44" s="39"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="33">
+      <c r="A45" s="34">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="36" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="26" t="s">
@@ -4282,15 +4434,15 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G45" s="30" t="s">
         <v>20</v>
       </c>
       <c r="H45" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I45" s="31" t="s">
         <v>20</v>
@@ -4304,8 +4456,8 @@
       <c r="L45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="38" t="s">
-        <v>23</v>
+      <c r="M45" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N45" s="31" t="s">
         <v>20</v>
@@ -4316,8 +4468,8 @@
       <c r="P45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q45" s="38" t="s">
-        <v>23</v>
+      <c r="Q45" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R45" s="31" t="s">
         <v>20</v>
@@ -4325,8 +4477,12 @@
       <c r="S45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
+      <c r="T45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U45" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V45" s="39"/>
       <c r="W45" s="39"/>
       <c r="X45" s="39"/>
@@ -4335,14 +4491,14 @@
       <c r="AA45" s="39"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="33">
+      <c r="A46" s="34">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="36" t="s">
         <v>99</v>
       </c>
       <c r="D46" s="26" t="s">
@@ -4352,9 +4508,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>20</v>
@@ -4377,8 +4533,8 @@
       <c r="M46" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="38" t="s">
-        <v>23</v>
+      <c r="N46" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O46" s="31" t="s">
         <v>20</v>
@@ -4395,8 +4551,12 @@
       <c r="S46" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T46" s="39"/>
-      <c r="U46" s="39"/>
+      <c r="T46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U46" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V46" s="39"/>
       <c r="W46" s="39"/>
       <c r="X46" s="39"/>
@@ -4405,14 +4565,14 @@
       <c r="AA46" s="39"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="33">
+      <c r="A47" s="34">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="36" t="s">
         <v>101</v>
       </c>
       <c r="D47" s="26" t="s">
@@ -4422,15 +4582,15 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H47" s="42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I47" s="31" t="s">
         <v>20</v>
@@ -4438,7 +4598,7 @@
       <c r="J47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="37" t="s">
+      <c r="K47" s="38" t="s">
         <v>20</v>
       </c>
       <c r="L47" s="31" t="s">
@@ -4447,17 +4607,17 @@
       <c r="M47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="38" t="s">
-        <v>23</v>
+      <c r="N47" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P47" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q47" s="38" t="s">
-        <v>23</v>
+      <c r="P47" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q47" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R47" s="31" t="s">
         <v>20</v>
@@ -4465,8 +4625,12 @@
       <c r="S47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
+      <c r="T47" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U47" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V47" s="39"/>
       <c r="W47" s="39"/>
       <c r="X47" s="39"/>
@@ -4475,14 +4639,14 @@
       <c r="AA47" s="39"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="33">
+      <c r="A48" s="34">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="36" t="s">
         <v>103</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -4492,14 +4656,14 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="37" t="s">
+      <c r="H48" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I48" s="31" t="s">
@@ -4514,8 +4678,8 @@
       <c r="L48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M48" s="38" t="s">
-        <v>23</v>
+      <c r="M48" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N48" s="31" t="s">
         <v>20</v>
@@ -4529,14 +4693,18 @@
       <c r="Q48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R48" s="38" t="s">
-        <v>23</v>
+      <c r="R48" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T48" s="39"/>
-      <c r="U48" s="39"/>
+      <c r="T48" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U48" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V48" s="39"/>
       <c r="W48" s="39"/>
       <c r="X48" s="39"/>
@@ -4545,14 +4713,14 @@
       <c r="AA48" s="39"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="33">
+      <c r="A49" s="34">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="36" t="s">
         <v>105</v>
       </c>
       <c r="D49" s="26" t="s">
@@ -4562,9 +4730,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F49" s="36">
+      <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G49" s="29" t="s">
         <v>20</v>
@@ -4581,8 +4749,8 @@
       <c r="K49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="38" t="s">
-        <v>23</v>
+      <c r="L49" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M49" s="31" t="s">
         <v>20</v>
@@ -4602,11 +4770,15 @@
       <c r="R49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S49" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
+      <c r="S49" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T49" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U49" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V49" s="39"/>
       <c r="W49" s="39"/>
       <c r="X49" s="39"/>
@@ -4615,14 +4787,14 @@
       <c r="AA49" s="39"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="33">
+      <c r="A50" s="34">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="36" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="26" t="s">
@@ -4632,15 +4804,15 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F50" s="36">
+      <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>20</v>
       </c>
       <c r="H50" s="42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I50" s="31" t="s">
         <v>20</v>
@@ -4648,8 +4820,8 @@
       <c r="J50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="38" t="s">
-        <v>23</v>
+      <c r="K50" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L50" s="31" t="s">
         <v>20</v>
@@ -4666,17 +4838,21 @@
       <c r="P50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q50" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="R50" s="38" t="s">
-        <v>23</v>
+      <c r="Q50" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
+      <c r="T50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U50" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V50" s="39"/>
       <c r="W50" s="39"/>
       <c r="X50" s="39"/>
@@ -4685,14 +4861,14 @@
       <c r="AA50" s="39"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="33">
+      <c r="A51" s="34">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="36" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="26" t="s">
@@ -4702,14 +4878,14 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F51" s="36">
+      <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="37" t="s">
+      <c r="H51" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I51" s="31" t="s">
@@ -4718,14 +4894,14 @@
       <c r="J51" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K51" s="38" t="s">
-        <v>23</v>
+      <c r="K51" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L51" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M51" s="38" t="s">
-        <v>23</v>
+      <c r="M51" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N51" s="31" t="s">
         <v>20</v>
@@ -4733,11 +4909,11 @@
       <c r="O51" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q51" s="38" t="s">
-        <v>23</v>
+      <c r="P51" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q51" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R51" s="31" t="s">
         <v>20</v>
@@ -4745,8 +4921,12 @@
       <c r="S51" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39"/>
+      <c r="T51" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U51" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V51" s="39"/>
       <c r="W51" s="39"/>
       <c r="X51" s="39"/>
@@ -4755,14 +4935,14 @@
       <c r="AA51" s="39"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="33">
+      <c r="A52" s="34">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="36" t="s">
         <v>111</v>
       </c>
       <c r="D52" s="26" t="s">
@@ -4770,16 +4950,16 @@
       </c>
       <c r="E52" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="36">
+        <v>1</v>
+      </c>
+      <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="37" t="s">
+      <c r="H52" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I52" s="31" t="s">
@@ -4815,8 +4995,12 @@
       <c r="S52" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
+      <c r="T52" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U52" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="V52" s="39"/>
       <c r="W52" s="39"/>
       <c r="X52" s="39"/>
@@ -4825,14 +5009,14 @@
       <c r="AA52" s="39"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="33">
+      <c r="A53" s="34">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="36" t="s">
         <v>113</v>
       </c>
       <c r="D53" s="26" t="s">
@@ -4840,16 +5024,16 @@
       </c>
       <c r="E53" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="36">
+        <v>2</v>
+      </c>
+      <c r="F53" s="37">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="37" t="s">
+      <c r="H53" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I53" s="30" t="s">
@@ -4885,8 +5069,12 @@
       <c r="S53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
+      <c r="T53" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U53" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="V53" s="39"/>
       <c r="W53" s="39"/>
       <c r="X53" s="39"/>
@@ -4895,14 +5083,14 @@
       <c r="AA53" s="39"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="33">
+      <c r="A54" s="34">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="36" t="s">
         <v>115</v>
       </c>
       <c r="D54" s="26" t="s">
@@ -4912,14 +5100,14 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F54" s="36">
+      <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="37" t="s">
+      <c r="H54" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I54" s="31" t="s">
@@ -4934,8 +5122,8 @@
       <c r="L54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M54" s="38" t="s">
-        <v>23</v>
+      <c r="M54" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N54" s="31" t="s">
         <v>20</v>
@@ -4952,11 +5140,15 @@
       <c r="R54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S54" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
+      <c r="S54" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U54" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V54" s="39"/>
       <c r="W54" s="39"/>
       <c r="X54" s="39"/>
@@ -4965,14 +5157,14 @@
       <c r="AA54" s="39"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="33">
+      <c r="A55" s="34">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="36" t="s">
         <v>117</v>
       </c>
       <c r="D55" s="26" t="s">
@@ -4980,16 +5172,16 @@
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F55" s="36">
+        <v>3</v>
+      </c>
+      <c r="F55" s="37">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="37" t="s">
+      <c r="H55" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I55" s="31" t="s">
@@ -4998,7 +5190,7 @@
       <c r="J55" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K55" s="37" t="s">
+      <c r="K55" s="38" t="s">
         <v>20</v>
       </c>
       <c r="L55" s="31" t="s">
@@ -5016,8 +5208,8 @@
       <c r="P55" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q55" s="38" t="s">
-        <v>23</v>
+      <c r="Q55" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R55" s="31" t="s">
         <v>20</v>
@@ -5025,8 +5217,12 @@
       <c r="S55" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
+      <c r="T55" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U55" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="V55" s="39"/>
       <c r="W55" s="39"/>
       <c r="X55" s="39"/>
@@ -5035,14 +5231,14 @@
       <c r="AA55" s="39"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="33">
+      <c r="A56" s="34">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="36" t="s">
         <v>119</v>
       </c>
       <c r="D56" s="26" t="s">
@@ -5052,9 +5248,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F56" s="36">
+      <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>20</v>
@@ -5080,11 +5276,11 @@
       <c r="N56" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O56" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P56" s="38" t="s">
-        <v>23</v>
+      <c r="O56" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P56" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="Q56" s="31" t="s">
         <v>20</v>
@@ -5095,8 +5291,12 @@
       <c r="S56" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
+      <c r="T56" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U56" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V56" s="39"/>
       <c r="W56" s="39"/>
       <c r="X56" s="39"/>
@@ -5105,14 +5305,14 @@
       <c r="AA56" s="39"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="33">
+      <c r="A57" s="34">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="36" t="s">
         <v>121</v>
       </c>
       <c r="D57" s="26" t="s">
@@ -5122,15 +5322,15 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F57" s="36">
+      <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H57" s="42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I57" s="31" t="s">
         <v>20</v>
@@ -5156,8 +5356,8 @@
       <c r="P57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q57" s="38" t="s">
-        <v>23</v>
+      <c r="Q57" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R57" s="31" t="s">
         <v>20</v>
@@ -5165,8 +5365,12 @@
       <c r="S57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
+      <c r="T57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U57" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V57" s="39"/>
       <c r="W57" s="39"/>
       <c r="X57" s="39"/>
@@ -5175,14 +5379,14 @@
       <c r="AA57" s="39"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="33">
+      <c r="A58" s="34">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="36" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="26" t="s">
@@ -5192,18 +5396,18 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F58" s="36">
+      <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="I58" s="38" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I58" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="J58" s="31" t="s">
         <v>20</v>
@@ -5220,11 +5424,11 @@
       <c r="N58" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O58" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P58" s="38" t="s">
-        <v>23</v>
+      <c r="O58" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="Q58" s="31" t="s">
         <v>20</v>
@@ -5235,8 +5439,12 @@
       <c r="S58" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
+      <c r="T58" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U58" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V58" s="39"/>
       <c r="W58" s="39"/>
       <c r="X58" s="39"/>
@@ -5245,14 +5453,14 @@
       <c r="AA58" s="39"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="33">
+      <c r="A59" s="34">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="36" t="s">
         <v>125</v>
       </c>
       <c r="D59" s="26" t="s">
@@ -5260,11 +5468,11 @@
       </c>
       <c r="E59" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="36">
+        <v>1</v>
+      </c>
+      <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>20</v>
@@ -5305,8 +5513,12 @@
       <c r="S59" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
+      <c r="T59" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U59" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="V59" s="39"/>
       <c r="W59" s="39"/>
       <c r="X59" s="39"/>
@@ -5315,14 +5527,14 @@
       <c r="AA59" s="39"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="33">
+      <c r="A60" s="34">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="36" t="s">
         <v>127</v>
       </c>
       <c r="D60" s="26" t="s">
@@ -5330,16 +5542,16 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F60" s="36">
+        <v>3</v>
+      </c>
+      <c r="F60" s="37">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="37" t="s">
+      <c r="H60" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I60" s="31" t="s">
@@ -5354,8 +5566,8 @@
       <c r="L60" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M60" s="38" t="s">
-        <v>23</v>
+      <c r="M60" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N60" s="31" t="s">
         <v>20</v>
@@ -5375,8 +5587,12 @@
       <c r="S60" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
+      <c r="T60" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U60" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="V60" s="39"/>
       <c r="W60" s="39"/>
       <c r="X60" s="39"/>
@@ -5385,14 +5601,14 @@
       <c r="AA60" s="39"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="33">
+      <c r="A61" s="34">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="36" t="s">
         <v>129</v>
       </c>
       <c r="D61" s="26" t="s">
@@ -5402,14 +5618,14 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F61" s="36">
+      <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H61" s="37" t="s">
+      <c r="H61" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I61" s="31" t="s">
@@ -5418,8 +5634,8 @@
       <c r="J61" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K61" s="38" t="s">
-        <v>23</v>
+      <c r="K61" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L61" s="31" t="s">
         <v>20</v>
@@ -5445,8 +5661,12 @@
       <c r="S61" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
+      <c r="T61" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U61" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V61" s="39"/>
       <c r="W61" s="39"/>
       <c r="X61" s="39"/>
@@ -5455,14 +5675,14 @@
       <c r="AA61" s="39"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="33">
+      <c r="A62" s="34">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="36" t="s">
         <v>131</v>
       </c>
       <c r="D62" s="26" t="s">
@@ -5470,11 +5690,11 @@
       </c>
       <c r="E62" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="36">
+        <v>1</v>
+      </c>
+      <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>20</v>
@@ -5488,7 +5708,7 @@
       <c r="J62" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K62" s="37" t="s">
+      <c r="K62" s="38" t="s">
         <v>20</v>
       </c>
       <c r="L62" s="31" t="s">
@@ -5515,8 +5735,12 @@
       <c r="S62" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
+      <c r="T62" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U62" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="V62" s="39"/>
       <c r="W62" s="39"/>
       <c r="X62" s="39"/>
@@ -5525,14 +5749,14 @@
       <c r="AA62" s="39"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="33">
+      <c r="A63" s="34">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="36" t="s">
         <v>133</v>
       </c>
       <c r="D63" s="26" t="s">
@@ -5542,15 +5766,15 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F63" s="36">
+      <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H63" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I63" s="31" t="s">
         <v>20</v>
@@ -5558,7 +5782,7 @@
       <c r="J63" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K63" s="37" t="s">
+      <c r="K63" s="38" t="s">
         <v>20</v>
       </c>
       <c r="L63" s="31" t="s">
@@ -5570,8 +5794,8 @@
       <c r="N63" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O63" s="38" t="s">
-        <v>23</v>
+      <c r="O63" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P63" s="31" t="s">
         <v>20</v>
@@ -5585,8 +5809,12 @@
       <c r="S63" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
+      <c r="T63" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U63" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V63" s="39"/>
       <c r="W63" s="39"/>
       <c r="X63" s="39"/>
@@ -5595,14 +5823,14 @@
       <c r="AA63" s="39"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="33">
+      <c r="A64" s="34">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="36" t="s">
         <v>135</v>
       </c>
       <c r="D64" s="26" t="s">
@@ -5612,14 +5840,14 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F64" s="36">
+      <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="37" t="s">
+      <c r="H64" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I64" s="31" t="s">
@@ -5646,8 +5874,8 @@
       <c r="P64" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q64" s="38" t="s">
-        <v>23</v>
+      <c r="Q64" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R64" s="31" t="s">
         <v>20</v>
@@ -5655,8 +5883,12 @@
       <c r="S64" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
+      <c r="T64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U64" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V64" s="39"/>
       <c r="W64" s="39"/>
       <c r="X64" s="39"/>
@@ -5665,14 +5897,14 @@
       <c r="AA64" s="39"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="33">
+      <c r="A65" s="34">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="36" t="s">
         <v>137</v>
       </c>
       <c r="D65" s="26" t="s">
@@ -5682,14 +5914,14 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F65" s="36">
+      <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="37" t="s">
+      <c r="H65" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I65" s="31" t="s">
@@ -5701,8 +5933,8 @@
       <c r="K65" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L65" s="38" t="s">
-        <v>23</v>
+      <c r="L65" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M65" s="31" t="s">
         <v>20</v>
@@ -5716,8 +5948,8 @@
       <c r="P65" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q65" s="38" t="s">
-        <v>23</v>
+      <c r="Q65" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R65" s="31" t="s">
         <v>20</v>
@@ -5725,8 +5957,12 @@
       <c r="S65" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T65" s="39"/>
-      <c r="U65" s="39"/>
+      <c r="T65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U65" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V65" s="39"/>
       <c r="W65" s="39"/>
       <c r="X65" s="39"/>
@@ -5735,14 +5971,14 @@
       <c r="AA65" s="39"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="33">
+      <c r="A66" s="34">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="36" t="s">
         <v>139</v>
       </c>
       <c r="D66" s="26" t="s">
@@ -5750,16 +5986,16 @@
       </c>
       <c r="E66" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F66" s="36">
+        <v>3</v>
+      </c>
+      <c r="F66" s="37">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="37" t="s">
+      <c r="H66" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I66" s="31" t="s">
@@ -5771,8 +6007,8 @@
       <c r="K66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L66" s="38" t="s">
-        <v>23</v>
+      <c r="L66" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M66" s="31" t="s">
         <v>20</v>
@@ -5795,8 +6031,12 @@
       <c r="S66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T66" s="39"/>
-      <c r="U66" s="39"/>
+      <c r="T66" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U66" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="V66" s="39"/>
       <c r="W66" s="39"/>
       <c r="X66" s="39"/>
@@ -5805,14 +6045,14 @@
       <c r="AA66" s="39"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="33">
+      <c r="A67" s="34">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="36" t="s">
         <v>141</v>
       </c>
       <c r="D67" s="26" t="s">
@@ -5822,14 +6062,14 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F67" s="36">
+      <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H67" s="37" t="s">
+      <c r="H67" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I67" s="31" t="s">
@@ -5850,23 +6090,27 @@
       <c r="N67" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O67" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P67" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q67" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="R67" s="38" t="s">
-        <v>23</v>
+      <c r="O67" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P67" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R67" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S67" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T67" s="39"/>
-      <c r="U67" s="39"/>
+      <c r="T67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U67" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V67" s="39"/>
       <c r="W67" s="39"/>
       <c r="X67" s="39"/>
@@ -5875,14 +6119,14 @@
       <c r="AA67" s="39"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="33">
+      <c r="A68" s="34">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="36" t="s">
         <v>143</v>
       </c>
       <c r="D68" s="26" t="s">
@@ -5890,16 +6134,16 @@
       </c>
       <c r="E68" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F68" s="36">
+        <v>1</v>
+      </c>
+      <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="37" t="s">
+      <c r="H68" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I68" s="31" t="s">
@@ -5935,8 +6179,12 @@
       <c r="S68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
+      <c r="T68" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U68" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V68" s="39"/>
       <c r="W68" s="39"/>
       <c r="X68" s="39"/>
@@ -5945,14 +6193,14 @@
       <c r="AA68" s="39"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
-      <c r="A69" s="33">
+      <c r="A69" s="34">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="36" t="s">
         <v>145</v>
       </c>
       <c r="D69" s="26" t="s">
@@ -5962,9 +6210,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F69" s="36">
+      <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>20</v>
@@ -5981,8 +6229,8 @@
       <c r="K69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L69" s="38" t="s">
-        <v>23</v>
+      <c r="L69" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M69" s="31" t="s">
         <v>20</v>
@@ -5999,14 +6247,18 @@
       <c r="Q69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R69" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="S69" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
+      <c r="R69" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="S69" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T69" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U69" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V69" s="39"/>
       <c r="W69" s="39"/>
       <c r="X69" s="39"/>
@@ -6015,14 +6267,14 @@
       <c r="AA69" s="39"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="33">
+      <c r="A70" s="34">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="36" t="s">
         <v>147</v>
       </c>
       <c r="D70" s="26" t="s">
@@ -6032,9 +6284,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F70" s="36">
+      <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>20</v>
@@ -6057,11 +6309,11 @@
       <c r="M70" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N70" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="O70" s="38" t="s">
-        <v>23</v>
+      <c r="N70" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O70" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P70" s="31" t="s">
         <v>20</v>
@@ -6075,8 +6327,12 @@
       <c r="S70" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T70" s="39"/>
-      <c r="U70" s="39"/>
+      <c r="T70" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U70" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V70" s="39"/>
       <c r="W70" s="39"/>
       <c r="X70" s="39"/>
@@ -6085,14 +6341,14 @@
       <c r="AA70" s="39"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="33">
+      <c r="A71" s="34">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="36" t="s">
         <v>149</v>
       </c>
       <c r="D71" s="26" t="s">
@@ -6102,14 +6358,14 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F71" s="36">
+      <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H71" s="37" t="s">
+      <c r="H71" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I71" s="31" t="s">
@@ -6124,8 +6380,8 @@
       <c r="L71" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M71" s="38" t="s">
-        <v>23</v>
+      <c r="M71" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N71" s="31" t="s">
         <v>20</v>
@@ -6136,8 +6392,8 @@
       <c r="P71" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q71" s="38" t="s">
-        <v>23</v>
+      <c r="Q71" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R71" s="31" t="s">
         <v>20</v>
@@ -6145,8 +6401,12 @@
       <c r="S71" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T71" s="39"/>
-      <c r="U71" s="39"/>
+      <c r="T71" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U71" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V71" s="39"/>
       <c r="W71" s="39"/>
       <c r="X71" s="39"/>
@@ -6155,14 +6415,14 @@
       <c r="AA71" s="39"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="33">
+      <c r="A72" s="34">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="36" t="s">
         <v>151</v>
       </c>
       <c r="D72" s="26" t="s">
@@ -6172,14 +6432,14 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F72" s="36">
+      <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H72" s="37" t="s">
+      <c r="H72" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I72" s="31" t="s">
@@ -6188,8 +6448,8 @@
       <c r="J72" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K72" s="38" t="s">
-        <v>23</v>
+      <c r="K72" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L72" s="31" t="s">
         <v>20</v>
@@ -6206,8 +6466,8 @@
       <c r="P72" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q72" s="38" t="s">
-        <v>23</v>
+      <c r="Q72" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R72" s="31" t="s">
         <v>20</v>
@@ -6215,8 +6475,12 @@
       <c r="S72" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
+      <c r="T72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U72" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V72" s="39"/>
       <c r="W72" s="39"/>
       <c r="X72" s="39"/>
@@ -6225,14 +6489,14 @@
       <c r="AA72" s="39"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="33">
+      <c r="A73" s="34">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="36" t="s">
         <v>153</v>
       </c>
       <c r="D73" s="26" t="s">
@@ -6242,23 +6506,23 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F73" s="36">
+      <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H73" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I73" s="38" t="s">
-        <v>23</v>
+      <c r="H73" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="J73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K73" s="37" t="s">
+      <c r="K73" s="38" t="s">
         <v>20</v>
       </c>
       <c r="L73" s="31" t="s">
@@ -6282,11 +6546,15 @@
       <c r="R73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S73" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
+      <c r="S73" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T73" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U73" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V73" s="39"/>
       <c r="W73" s="39"/>
       <c r="X73" s="39"/>
@@ -6295,14 +6563,14 @@
       <c r="AA73" s="39"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="33">
+      <c r="A74" s="34">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="36" t="s">
         <v>155</v>
       </c>
       <c r="D74" s="26" t="s">
@@ -6312,15 +6580,15 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F74" s="36">
+      <c r="F74" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G74" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H74" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I74" s="31" t="s">
         <v>20</v>
@@ -6331,8 +6599,8 @@
       <c r="K74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L74" s="38" t="s">
-        <v>23</v>
+      <c r="L74" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M74" s="31" t="s">
         <v>20</v>
@@ -6349,14 +6617,18 @@
       <c r="Q74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R74" s="38" t="s">
-        <v>23</v>
+      <c r="R74" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T74" s="39"/>
-      <c r="U74" s="39"/>
+      <c r="T74" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U74" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="V74" s="39"/>
       <c r="W74" s="39"/>
       <c r="X74" s="39"/>
@@ -6365,18 +6637,18 @@
       <c r="AA74" s="39"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="33" t="str">
+      <c r="A75" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B75" s="34"/>
-      <c r="C75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="36"/>
       <c r="D75" s="26"/>
       <c r="E75" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F75" s="36" t="str">
+      <c r="F75" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6403,18 +6675,18 @@
       <c r="AA75" s="39"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="33" t="str">
+      <c r="A76" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B76" s="34"/>
-      <c r="C76" s="35"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="36"/>
       <c r="D76" s="26"/>
       <c r="E76" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F76" s="36" t="str">
+      <c r="F76" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6441,18 +6713,18 @@
       <c r="AA76" s="39"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="33" t="str">
+      <c r="A77" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B77" s="34"/>
-      <c r="C77" s="35"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="36"/>
       <c r="D77" s="26"/>
       <c r="E77" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F77" s="36" t="str">
+      <c r="F77" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6479,18 +6751,18 @@
       <c r="AA77" s="39"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="33" t="str">
+      <c r="A78" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B78" s="34"/>
-      <c r="C78" s="35"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="36"/>
       <c r="D78" s="26"/>
       <c r="E78" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F78" s="36" t="str">
+      <c r="F78" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6517,18 +6789,18 @@
       <c r="AA78" s="39"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="33" t="str">
+      <c r="A79" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B79" s="34"/>
-      <c r="C79" s="35"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="36"/>
       <c r="D79" s="46"/>
       <c r="E79" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F79" s="36" t="str">
+      <c r="F79" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6555,18 +6827,18 @@
       <c r="AA79" s="39"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="33" t="str">
+      <c r="A80" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B80" s="34"/>
-      <c r="C80" s="35"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="36"/>
       <c r="D80" s="46"/>
       <c r="E80" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F80" s="36" t="str">
+      <c r="F80" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6593,18 +6865,18 @@
       <c r="AA80" s="39"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="33" t="str">
+      <c r="A81" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B81" s="34"/>
-      <c r="C81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="36"/>
       <c r="D81" s="46"/>
       <c r="E81" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F81" s="36" t="str">
+      <c r="F81" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6631,18 +6903,18 @@
       <c r="AA81" s="39"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="33" t="str">
+      <c r="A82" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B82" s="34"/>
-      <c r="C82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="36"/>
       <c r="D82" s="46"/>
       <c r="E82" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F82" s="36" t="str">
+      <c r="F82" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6669,18 +6941,18 @@
       <c r="AA82" s="39"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="33" t="str">
+      <c r="A83" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B83" s="34"/>
-      <c r="C83" s="35"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="36"/>
       <c r="D83" s="46"/>
       <c r="E83" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F83" s="36" t="str">
+      <c r="F83" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6707,18 +6979,18 @@
       <c r="AA83" s="39"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="33" t="str">
+      <c r="A84" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B84" s="34"/>
-      <c r="C84" s="35"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="36"/>
       <c r="D84" s="46"/>
       <c r="E84" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F84" s="36" t="str">
+      <c r="F84" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6745,18 +7017,18 @@
       <c r="AA84" s="39"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="33" t="str">
+      <c r="A85" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B85" s="34"/>
-      <c r="C85" s="35"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="36"/>
       <c r="D85" s="46"/>
       <c r="E85" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F85" s="36" t="str">
+      <c r="F85" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6783,18 +7055,18 @@
       <c r="AA85" s="39"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="33" t="str">
+      <c r="A86" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B86" s="34"/>
-      <c r="C86" s="35"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="36"/>
       <c r="D86" s="46"/>
       <c r="E86" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F86" s="36" t="str">
+      <c r="F86" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6821,7 +7093,7 @@
       <c r="AA86" s="39"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="33" t="str">
+      <c r="A87" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6832,7 +7104,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F87" s="36" t="str">
+      <c r="F87" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6859,7 +7131,7 @@
       <c r="AA87" s="39"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="33" t="str">
+      <c r="A88" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6870,7 +7142,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F88" s="36" t="str">
+      <c r="F88" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6897,7 +7169,7 @@
       <c r="AA88" s="39"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="33" t="str">
+      <c r="A89" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6908,7 +7180,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F89" s="36" t="str">
+      <c r="F89" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6935,7 +7207,7 @@
       <c r="AA89" s="39"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="33" t="str">
+      <c r="A90" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6946,7 +7218,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F90" s="36" t="str">
+      <c r="F90" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6973,7 +7245,7 @@
       <c r="AA90" s="39"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="33" t="str">
+      <c r="A91" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6984,7 +7256,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F91" s="36" t="str">
+      <c r="F91" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7011,7 +7283,7 @@
       <c r="AA91" s="39"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="33" t="str">
+      <c r="A92" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7022,7 +7294,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F92" s="36" t="str">
+      <c r="F92" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7049,7 +7321,7 @@
       <c r="AA92" s="39"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="33" t="str">
+      <c r="A93" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7060,7 +7332,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F93" s="36" t="str">
+      <c r="F93" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7087,7 +7359,7 @@
       <c r="AA93" s="39"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="33" t="str">
+      <c r="A94" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7098,7 +7370,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F94" s="36" t="str">
+      <c r="F94" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7125,7 +7397,7 @@
       <c r="AA94" s="39"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="33" t="str">
+      <c r="A95" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7136,7 +7408,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F95" s="36" t="str">
+      <c r="F95" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>

--- a/attendance-files/MR/MR-S (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-S (EFGH) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="156">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1225,9 +1225,10 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="7.13"/>
     <col customWidth="1" min="2" max="2" width="19.63"/>
-    <col customWidth="1" min="3" max="3" width="30.25"/>
+    <col customWidth="1" min="3" max="3" width="19.38"/>
     <col customWidth="1" min="4" max="4" width="12.88"/>
-    <col customWidth="1" min="5" max="6" width="12.75"/>
+    <col customWidth="1" min="5" max="5" width="14.0"/>
+    <col customWidth="1" min="6" max="6" width="12.75"/>
     <col customWidth="1" min="7" max="15" width="4.38"/>
     <col customWidth="1" min="16" max="26" width="5.38"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
@@ -1624,7 +1625,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1671,7 +1672,9 @@
       <c r="U7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V7" s="33"/>
+      <c r="V7" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W7" s="33"/>
       <c r="X7" s="33"/>
       <c r="Y7" s="33"/>
@@ -1698,7 +1701,7 @@
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>20</v>
@@ -1745,7 +1748,9 @@
       <c r="U8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="39"/>
+      <c r="V8" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W8" s="39"/>
       <c r="X8" s="39"/>
       <c r="Y8" s="39"/>
@@ -1772,7 +1777,7 @@
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>20</v>
@@ -1819,7 +1824,9 @@
       <c r="U9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="39"/>
+      <c r="V9" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W9" s="39"/>
       <c r="X9" s="39"/>
       <c r="Y9" s="39"/>
@@ -1846,7 +1853,7 @@
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>20</v>
@@ -1893,7 +1900,9 @@
       <c r="U10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V10" s="39"/>
+      <c r="V10" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W10" s="39"/>
       <c r="X10" s="39"/>
       <c r="Y10" s="39"/>
@@ -1920,7 +1929,7 @@
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="40" t="s">
         <v>21</v>
@@ -1967,7 +1976,9 @@
       <c r="U11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="39"/>
+      <c r="V11" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W11" s="39"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="39"/>
@@ -1990,7 +2001,7 @@
       </c>
       <c r="E12" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
@@ -2041,7 +2052,9 @@
       <c r="U12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V12" s="39"/>
+      <c r="V12" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="W12" s="39"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -2068,7 +2081,7 @@
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>20</v>
@@ -2115,7 +2128,9 @@
       <c r="U13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V13" s="39"/>
+      <c r="V13" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W13" s="39"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -2142,7 +2157,7 @@
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>21</v>
@@ -2189,7 +2204,9 @@
       <c r="U14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V14" s="39"/>
+      <c r="V14" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W14" s="39"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -2216,7 +2233,7 @@
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>20</v>
@@ -2263,7 +2280,9 @@
       <c r="U15" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V15" s="39"/>
+      <c r="V15" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W15" s="39"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -2290,7 +2309,7 @@
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>20</v>
@@ -2337,7 +2356,9 @@
       <c r="U16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V16" s="39"/>
+      <c r="V16" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W16" s="39"/>
       <c r="X16" s="39"/>
       <c r="Y16" s="39"/>
@@ -2364,7 +2385,7 @@
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>21</v>
@@ -2411,7 +2432,9 @@
       <c r="U17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V17" s="39"/>
+      <c r="V17" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W17" s="39"/>
       <c r="X17" s="39"/>
       <c r="Y17" s="39"/>
@@ -2438,7 +2461,7 @@
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>20</v>
@@ -2485,7 +2508,9 @@
       <c r="U18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V18" s="39"/>
+      <c r="V18" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W18" s="39"/>
       <c r="X18" s="39"/>
       <c r="Y18" s="39"/>
@@ -2508,7 +2533,7 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
@@ -2559,7 +2584,9 @@
       <c r="U19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V19" s="39"/>
+      <c r="V19" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="W19" s="39"/>
       <c r="X19" s="39"/>
       <c r="Y19" s="39"/>
@@ -2586,7 +2613,7 @@
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>20</v>
@@ -2633,7 +2660,9 @@
       <c r="U20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V20" s="39"/>
+      <c r="V20" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W20" s="39"/>
       <c r="X20" s="39"/>
       <c r="Y20" s="39"/>
@@ -2660,7 +2689,7 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>20</v>
@@ -2707,7 +2736,9 @@
       <c r="U21" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V21" s="39"/>
+      <c r="V21" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W21" s="39"/>
       <c r="X21" s="39"/>
       <c r="Y21" s="39"/>
@@ -2734,7 +2765,7 @@
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>20</v>
@@ -2781,7 +2812,9 @@
       <c r="U22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V22" s="39"/>
+      <c r="V22" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W22" s="39"/>
       <c r="X22" s="39"/>
       <c r="Y22" s="39"/>
@@ -2808,7 +2841,7 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>20</v>
@@ -2855,7 +2888,9 @@
       <c r="U23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V23" s="39"/>
+      <c r="V23" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W23" s="39"/>
       <c r="X23" s="39"/>
       <c r="Y23" s="39"/>
@@ -2878,7 +2913,7 @@
       </c>
       <c r="E24" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
@@ -2929,7 +2964,9 @@
       <c r="U24" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V24" s="39"/>
+      <c r="V24" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="W24" s="39"/>
       <c r="X24" s="39"/>
       <c r="Y24" s="39"/>
@@ -2956,7 +2993,7 @@
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>20</v>
@@ -3003,7 +3040,9 @@
       <c r="U25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V25" s="39"/>
+      <c r="V25" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W25" s="39"/>
       <c r="X25" s="39"/>
       <c r="Y25" s="39"/>
@@ -3030,7 +3069,7 @@
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>20</v>
@@ -3077,7 +3116,9 @@
       <c r="U26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V26" s="39"/>
+      <c r="V26" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
       <c r="Y26" s="39"/>
@@ -3104,7 +3145,7 @@
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>20</v>
@@ -3151,7 +3192,9 @@
       <c r="U27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V27" s="39"/>
+      <c r="V27" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
       <c r="Y27" s="39"/>
@@ -3174,7 +3217,7 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
@@ -3225,7 +3268,9 @@
       <c r="U28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V28" s="39"/>
+      <c r="V28" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
       <c r="Y28" s="39"/>
@@ -3252,7 +3297,7 @@
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" s="30" t="s">
         <v>20</v>
@@ -3299,7 +3344,9 @@
       <c r="U29" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V29" s="39"/>
+      <c r="V29" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W29" s="39"/>
       <c r="X29" s="39"/>
       <c r="Y29" s="39"/>
@@ -3326,7 +3373,7 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>20</v>
@@ -3373,7 +3420,9 @@
       <c r="U30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V30" s="39"/>
+      <c r="V30" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W30" s="39"/>
       <c r="X30" s="39"/>
       <c r="Y30" s="39"/>
@@ -3400,7 +3449,7 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>20</v>
@@ -3447,7 +3496,9 @@
       <c r="U31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="39"/>
+      <c r="V31" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
       <c r="Y31" s="39"/>
@@ -3474,7 +3525,7 @@
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>20</v>
@@ -3521,7 +3572,9 @@
       <c r="U32" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V32" s="39"/>
+      <c r="V32" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W32" s="39"/>
       <c r="X32" s="39"/>
       <c r="Y32" s="39"/>
@@ -3548,7 +3601,7 @@
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>21</v>
@@ -3595,7 +3648,9 @@
       <c r="U33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V33" s="39"/>
+      <c r="V33" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W33" s="39"/>
       <c r="X33" s="39"/>
       <c r="Y33" s="39"/>
@@ -3622,7 +3677,7 @@
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>20</v>
@@ -3669,7 +3724,9 @@
       <c r="U34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V34" s="39"/>
+      <c r="V34" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
       <c r="Y34" s="39"/>
@@ -3696,7 +3753,7 @@
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>20</v>
@@ -3743,7 +3800,9 @@
       <c r="U35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V35" s="39"/>
+      <c r="V35" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W35" s="39"/>
       <c r="X35" s="39"/>
       <c r="Y35" s="39"/>
@@ -3770,7 +3829,7 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>20</v>
@@ -3817,7 +3876,9 @@
       <c r="U36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V36" s="39"/>
+      <c r="V36" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W36" s="39"/>
       <c r="X36" s="39"/>
       <c r="Y36" s="39"/>
@@ -3840,7 +3901,7 @@
       </c>
       <c r="E37" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
@@ -3891,7 +3952,9 @@
       <c r="U37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V37" s="39"/>
+      <c r="V37" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="W37" s="39"/>
       <c r="X37" s="39"/>
       <c r="Y37" s="39"/>
@@ -3918,7 +3981,7 @@
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G38" s="40" t="s">
         <v>21</v>
@@ -3965,7 +4028,9 @@
       <c r="U38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V38" s="39"/>
+      <c r="V38" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W38" s="39"/>
       <c r="X38" s="39"/>
       <c r="Y38" s="39"/>
@@ -3988,7 +4053,7 @@
       </c>
       <c r="E39" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
@@ -4039,7 +4104,9 @@
       <c r="U39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V39" s="39"/>
+      <c r="V39" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="W39" s="39"/>
       <c r="X39" s="39"/>
       <c r="Y39" s="39"/>
@@ -4066,7 +4133,7 @@
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" s="30" t="s">
         <v>20</v>
@@ -4113,7 +4180,9 @@
       <c r="U40" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V40" s="39"/>
+      <c r="V40" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W40" s="39"/>
       <c r="X40" s="39"/>
       <c r="Y40" s="39"/>
@@ -4140,7 +4209,7 @@
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>20</v>
@@ -4187,7 +4256,9 @@
       <c r="U41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V41" s="39"/>
+      <c r="V41" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W41" s="39"/>
       <c r="X41" s="39"/>
       <c r="Y41" s="39"/>
@@ -4214,7 +4285,7 @@
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>20</v>
@@ -4261,7 +4332,9 @@
       <c r="U42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V42" s="39"/>
+      <c r="V42" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W42" s="39"/>
       <c r="X42" s="39"/>
       <c r="Y42" s="39"/>
@@ -4288,7 +4361,7 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>20</v>
@@ -4335,7 +4408,9 @@
       <c r="U43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V43" s="39"/>
+      <c r="V43" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W43" s="39"/>
       <c r="X43" s="39"/>
       <c r="Y43" s="39"/>
@@ -4362,7 +4437,7 @@
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>20</v>
@@ -4409,7 +4484,9 @@
       <c r="U44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V44" s="39"/>
+      <c r="V44" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W44" s="39"/>
       <c r="X44" s="39"/>
       <c r="Y44" s="39"/>
@@ -4432,7 +4509,7 @@
       </c>
       <c r="E45" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
@@ -4483,7 +4560,9 @@
       <c r="U45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V45" s="39"/>
+      <c r="V45" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="W45" s="39"/>
       <c r="X45" s="39"/>
       <c r="Y45" s="39"/>
@@ -4510,7 +4589,7 @@
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>20</v>
@@ -4557,7 +4636,9 @@
       <c r="U46" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V46" s="39"/>
+      <c r="V46" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W46" s="39"/>
       <c r="X46" s="39"/>
       <c r="Y46" s="39"/>
@@ -4584,7 +4665,7 @@
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>20</v>
@@ -4631,7 +4712,9 @@
       <c r="U47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V47" s="39"/>
+      <c r="V47" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W47" s="39"/>
       <c r="X47" s="39"/>
       <c r="Y47" s="39"/>
@@ -4658,7 +4741,7 @@
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>20</v>
@@ -4705,7 +4788,9 @@
       <c r="U48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V48" s="39"/>
+      <c r="V48" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W48" s="39"/>
       <c r="X48" s="39"/>
       <c r="Y48" s="39"/>
@@ -4732,7 +4817,7 @@
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G49" s="29" t="s">
         <v>20</v>
@@ -4779,7 +4864,9 @@
       <c r="U49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V49" s="39"/>
+      <c r="V49" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W49" s="39"/>
       <c r="X49" s="39"/>
       <c r="Y49" s="39"/>
@@ -4806,7 +4893,7 @@
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>20</v>
@@ -4853,7 +4940,9 @@
       <c r="U50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V50" s="39"/>
+      <c r="V50" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W50" s="39"/>
       <c r="X50" s="39"/>
       <c r="Y50" s="39"/>
@@ -4880,7 +4969,7 @@
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>20</v>
@@ -4927,7 +5016,9 @@
       <c r="U51" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V51" s="39"/>
+      <c r="V51" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W51" s="39"/>
       <c r="X51" s="39"/>
       <c r="Y51" s="39"/>
@@ -4954,7 +5045,7 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>20</v>
@@ -5001,7 +5092,9 @@
       <c r="U52" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V52" s="39"/>
+      <c r="V52" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W52" s="39"/>
       <c r="X52" s="39"/>
       <c r="Y52" s="39"/>
@@ -5028,7 +5121,7 @@
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>20</v>
@@ -5075,7 +5168,9 @@
       <c r="U53" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V53" s="39"/>
+      <c r="V53" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W53" s="39"/>
       <c r="X53" s="39"/>
       <c r="Y53" s="39"/>
@@ -5102,7 +5197,7 @@
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>20</v>
@@ -5149,7 +5244,9 @@
       <c r="U54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V54" s="39"/>
+      <c r="V54" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W54" s="39"/>
       <c r="X54" s="39"/>
       <c r="Y54" s="39"/>
@@ -5176,7 +5273,7 @@
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>20</v>
@@ -5223,7 +5320,9 @@
       <c r="U55" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V55" s="39"/>
+      <c r="V55" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W55" s="39"/>
       <c r="X55" s="39"/>
       <c r="Y55" s="39"/>
@@ -5246,7 +5345,7 @@
       </c>
       <c r="E56" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
@@ -5297,7 +5396,9 @@
       <c r="U56" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V56" s="39"/>
+      <c r="V56" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="W56" s="39"/>
       <c r="X56" s="39"/>
       <c r="Y56" s="39"/>
@@ -5320,7 +5421,7 @@
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
@@ -5371,7 +5472,9 @@
       <c r="U57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V57" s="39"/>
+      <c r="V57" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="W57" s="39"/>
       <c r="X57" s="39"/>
       <c r="Y57" s="39"/>
@@ -5398,7 +5501,7 @@
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>20</v>
@@ -5445,7 +5548,9 @@
       <c r="U58" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V58" s="39"/>
+      <c r="V58" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W58" s="39"/>
       <c r="X58" s="39"/>
       <c r="Y58" s="39"/>
@@ -5472,7 +5577,7 @@
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>20</v>
@@ -5519,7 +5624,9 @@
       <c r="U59" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V59" s="39"/>
+      <c r="V59" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W59" s="39"/>
       <c r="X59" s="39"/>
       <c r="Y59" s="39"/>
@@ -5542,7 +5649,7 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
@@ -5593,7 +5700,9 @@
       <c r="U60" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V60" s="39"/>
+      <c r="V60" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="W60" s="39"/>
       <c r="X60" s="39"/>
       <c r="Y60" s="39"/>
@@ -5616,7 +5725,7 @@
       </c>
       <c r="E61" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
@@ -5667,7 +5776,9 @@
       <c r="U61" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V61" s="39"/>
+      <c r="V61" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="W61" s="39"/>
       <c r="X61" s="39"/>
       <c r="Y61" s="39"/>
@@ -5694,7 +5805,7 @@
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>20</v>
@@ -5741,7 +5852,9 @@
       <c r="U62" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V62" s="39"/>
+      <c r="V62" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W62" s="39"/>
       <c r="X62" s="39"/>
       <c r="Y62" s="39"/>
@@ -5764,7 +5877,7 @@
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
@@ -5815,7 +5928,9 @@
       <c r="U63" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V63" s="39"/>
+      <c r="V63" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="W63" s="39"/>
       <c r="X63" s="39"/>
       <c r="Y63" s="39"/>
@@ -5842,7 +5957,7 @@
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G64" s="29" t="s">
         <v>20</v>
@@ -5889,7 +6004,9 @@
       <c r="U64" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V64" s="39"/>
+      <c r="V64" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W64" s="39"/>
       <c r="X64" s="39"/>
       <c r="Y64" s="39"/>
@@ -5916,7 +6033,7 @@
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>20</v>
@@ -5963,7 +6080,9 @@
       <c r="U65" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V65" s="39"/>
+      <c r="V65" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W65" s="39"/>
       <c r="X65" s="39"/>
       <c r="Y65" s="39"/>
@@ -5990,7 +6109,7 @@
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>20</v>
@@ -6037,7 +6156,9 @@
       <c r="U66" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="V66" s="39"/>
+      <c r="V66" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W66" s="39"/>
       <c r="X66" s="39"/>
       <c r="Y66" s="39"/>
@@ -6064,7 +6185,7 @@
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>20</v>
@@ -6111,7 +6232,9 @@
       <c r="U67" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V67" s="39"/>
+      <c r="V67" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W67" s="39"/>
       <c r="X67" s="39"/>
       <c r="Y67" s="39"/>
@@ -6138,7 +6261,7 @@
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>20</v>
@@ -6185,7 +6308,9 @@
       <c r="U68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V68" s="39"/>
+      <c r="V68" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W68" s="39"/>
       <c r="X68" s="39"/>
       <c r="Y68" s="39"/>
@@ -6208,7 +6333,7 @@
       </c>
       <c r="E69" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
@@ -6259,7 +6384,9 @@
       <c r="U69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V69" s="39"/>
+      <c r="V69" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="W69" s="39"/>
       <c r="X69" s="39"/>
       <c r="Y69" s="39"/>
@@ -6286,7 +6413,7 @@
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>20</v>
@@ -6333,7 +6460,9 @@
       <c r="U70" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V70" s="39"/>
+      <c r="V70" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W70" s="39"/>
       <c r="X70" s="39"/>
       <c r="Y70" s="39"/>
@@ -6360,7 +6489,7 @@
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>20</v>
@@ -6407,7 +6536,9 @@
       <c r="U71" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V71" s="39"/>
+      <c r="V71" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W71" s="39"/>
       <c r="X71" s="39"/>
       <c r="Y71" s="39"/>
@@ -6430,7 +6561,7 @@
       </c>
       <c r="E72" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
@@ -6481,7 +6612,9 @@
       <c r="U72" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V72" s="39"/>
+      <c r="V72" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="W72" s="39"/>
       <c r="X72" s="39"/>
       <c r="Y72" s="39"/>
@@ -6508,7 +6641,7 @@
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G73" s="29" t="s">
         <v>20</v>
@@ -6555,7 +6688,9 @@
       <c r="U73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V73" s="39"/>
+      <c r="V73" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="W73" s="39"/>
       <c r="X73" s="39"/>
       <c r="Y73" s="39"/>
@@ -6578,7 +6713,7 @@
       </c>
       <c r="E74" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
@@ -6629,7 +6764,9 @@
       <c r="U74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V74" s="39"/>
+      <c r="V74" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="W74" s="39"/>
       <c r="X74" s="39"/>
       <c r="Y74" s="39"/>

--- a/attendance-files/MR/MR-S (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-S (EFGH) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="156">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -86,354 +86,378 @@
     <t>A</t>
   </si>
   <si>
+    <t>2024PGP126</t>
+  </si>
+  <si>
+    <t>Daksh Shah</t>
+  </si>
+  <si>
+    <t>2024PGP132</t>
+  </si>
+  <si>
+    <t>Deeksha Darpan</t>
+  </si>
+  <si>
+    <t>2024PGP149</t>
+  </si>
+  <si>
+    <t>Dyvan Te Dylan K A</t>
+  </si>
+  <si>
+    <t>2024PGP151</t>
+  </si>
+  <si>
+    <t>Ekta Singh</t>
+  </si>
+  <si>
+    <t>2024PGP537</t>
+  </si>
+  <si>
+    <t>Gayathri H</t>
+  </si>
+  <si>
+    <t>2021IPM050</t>
+  </si>
+  <si>
+    <t>Harsh Raj</t>
+  </si>
+  <si>
+    <t>2021IPM053</t>
+  </si>
+  <si>
+    <t>Heeral Chauhan</t>
+  </si>
+  <si>
+    <t>2024PGP512</t>
+  </si>
+  <si>
+    <t>Koshi Agrawal</t>
+  </si>
+  <si>
+    <t>2024PGP220</t>
+  </si>
+  <si>
+    <t>Lakshita Bhatia</t>
+  </si>
+  <si>
+    <t>2024PGP509</t>
+  </si>
+  <si>
+    <t>M.Rithik</t>
+  </si>
+  <si>
+    <t>2024PGP227</t>
+  </si>
+  <si>
+    <t>Madhan Raj S</t>
+  </si>
+  <si>
+    <t>2024PGP234</t>
+  </si>
+  <si>
+    <t>Manohar</t>
+  </si>
+  <si>
+    <t>2024PGP251</t>
+  </si>
+  <si>
+    <t>Muhammed Ajmal</t>
+  </si>
+  <si>
+    <t>2024PGP277</t>
+  </si>
+  <si>
+    <t>Palak</t>
+  </si>
+  <si>
+    <t>2021IPM104</t>
+  </si>
+  <si>
+    <t>Preyansh Panchal</t>
+  </si>
+  <si>
+    <t>2024PGP300</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>2024PGP323</t>
+  </si>
+  <si>
+    <t>Rishav Tewari</t>
+  </si>
+  <si>
+    <t>2024PGP326</t>
+  </si>
+  <si>
+    <t>Ritesh Yadav</t>
+  </si>
+  <si>
+    <t>2020IPM106</t>
+  </si>
+  <si>
+    <t>Ritika Singh</t>
+  </si>
+  <si>
+    <t>2020IPM111</t>
+  </si>
+  <si>
+    <t>Rohan Singh</t>
+  </si>
+  <si>
+    <t>2021IPM113</t>
+  </si>
+  <si>
+    <t>Saagarika V</t>
+  </si>
+  <si>
+    <t>2024PGP562</t>
+  </si>
+  <si>
+    <t>Sachin Yadav</t>
+  </si>
+  <si>
+    <t>2024PGP571</t>
+  </si>
+  <si>
+    <t>Samyak Jain</t>
+  </si>
+  <si>
+    <t>2023PGP334</t>
+  </si>
+  <si>
+    <t>Shreeya Dhongade</t>
+  </si>
+  <si>
+    <t>2021IPM131</t>
+  </si>
+  <si>
+    <t>Shubhayu Sadhukhan</t>
+  </si>
+  <si>
+    <t>2024PGP409</t>
+  </si>
+  <si>
+    <t>Sparsh</t>
+  </si>
+  <si>
+    <t>2024PGP539</t>
+  </si>
+  <si>
+    <t>Srijan Upadhyay</t>
+  </si>
+  <si>
+    <t>2021IPM149</t>
+  </si>
+  <si>
+    <t>Swastik Jaiswal</t>
+  </si>
+  <si>
+    <t>2021IPM150</t>
+  </si>
+  <si>
+    <t>Tanya Tibrewal</t>
+  </si>
+  <si>
+    <t>2024PGP435</t>
+  </si>
+  <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
+    <t>2024PGP021</t>
+  </si>
+  <si>
+    <t>Abhishek Kumar</t>
+  </si>
+  <si>
+    <t>2024PGP133</t>
+  </si>
+  <si>
+    <t>Deepika Jain</t>
+  </si>
+  <si>
+    <t>2024PGP136</t>
+  </si>
+  <si>
+    <t>Devanshu Ragi</t>
+  </si>
+  <si>
+    <t>2024PGP185</t>
+  </si>
+  <si>
+    <t>Ishika Jain</t>
+  </si>
+  <si>
+    <t>2021IPM094</t>
+  </si>
+  <si>
+    <t>Parth Khakholia</t>
+  </si>
+  <si>
+    <t>2021IPM103</t>
+  </si>
+  <si>
+    <t>Prerna Bharti</t>
+  </si>
+  <si>
+    <t>2024PGP295</t>
+  </si>
+  <si>
+    <t>Prithvi Singh</t>
+  </si>
+  <si>
+    <t>2024PGP372</t>
+  </si>
+  <si>
+    <t>Shashwat Varma</t>
+  </si>
+  <si>
+    <t>2024PGP399</t>
+  </si>
+  <si>
+    <t>Shwet Sharma</t>
+  </si>
+  <si>
+    <t>2021IPM140</t>
+  </si>
+  <si>
+    <t>Srishti Kumari</t>
+  </si>
+  <si>
+    <t>2024PGP440</t>
+  </si>
+  <si>
+    <t>Vaishnavi Ashok Mane</t>
+  </si>
+  <si>
+    <t>2024PGP011</t>
+  </si>
+  <si>
+    <t>Abhay Kumar</t>
+  </si>
+  <si>
+    <t>2024PGP049</t>
+  </si>
+  <si>
+    <t>Aman Agrawal</t>
+  </si>
+  <si>
+    <t>2024PGP064</t>
+  </si>
+  <si>
+    <t>Ankit Choudhary</t>
+  </si>
+  <si>
+    <t>2024PGP489</t>
+  </si>
+  <si>
+    <t>Chitrika Saini</t>
+  </si>
+  <si>
+    <t>2024PGP361</t>
+  </si>
+  <si>
+    <t>Sarthak Sanwal</t>
+  </si>
+  <si>
+    <t>2024PGP396</t>
+  </si>
+  <si>
+    <t>Shubhendu Das</t>
+  </si>
+  <si>
+    <t>2024PGP046</t>
+  </si>
+  <si>
+    <t>Akshita</t>
+  </si>
+  <si>
+    <t>2024PGP331</t>
+  </si>
+  <si>
+    <t>Rohan Malik</t>
+  </si>
+  <si>
+    <t>2024PGP353</t>
+  </si>
+  <si>
+    <t>Samyadeep Sarangi</t>
+  </si>
+  <si>
+    <t>2024PGP429</t>
+  </si>
+  <si>
+    <t>Tejasvi Gupta</t>
+  </si>
+  <si>
+    <t>2024PGP460</t>
+  </si>
+  <si>
+    <t>Yash Tripathy</t>
+  </si>
+  <si>
+    <t>2024PGP177</t>
+  </si>
+  <si>
+    <t>Harshita Patodia</t>
+  </si>
+  <si>
+    <t>2021IPM075</t>
+  </si>
+  <si>
+    <t>Lewil S</t>
+  </si>
+  <si>
+    <t>2024PGP499</t>
+  </si>
+  <si>
+    <t>Pullabhotla Abhijith</t>
+  </si>
+  <si>
+    <t>2023PGP506</t>
+  </si>
+  <si>
+    <t>Muskan</t>
+  </si>
+  <si>
+    <t>2024PGP318</t>
+  </si>
+  <si>
+    <t>Reyazuddin</t>
+  </si>
+  <si>
+    <t>2024PGP094</t>
+  </si>
+  <si>
+    <t>Ashutosh Arya</t>
+  </si>
+  <si>
     <t>2024PGP124</t>
   </si>
   <si>
     <t>Chinthala Jimitesh</t>
   </si>
   <si>
-    <t>2024PGP489</t>
-  </si>
-  <si>
-    <t>Chitrika Saini</t>
-  </si>
-  <si>
-    <t>2024PGP126</t>
-  </si>
-  <si>
-    <t>Daksh Shah</t>
-  </si>
-  <si>
-    <t>2024PGP132</t>
-  </si>
-  <si>
-    <t>Deeksha Darpan</t>
-  </si>
-  <si>
-    <t>2024PGP133</t>
-  </si>
-  <si>
-    <t>Deepika Jain</t>
-  </si>
-  <si>
-    <t>2024PGP136</t>
-  </si>
-  <si>
-    <t>Devanshu Ragi</t>
-  </si>
-  <si>
-    <t>2024PGP149</t>
-  </si>
-  <si>
-    <t>Dyvan Te Dylan K A</t>
-  </si>
-  <si>
-    <t>2024PGP151</t>
-  </si>
-  <si>
-    <t>Ekta Singh</t>
-  </si>
-  <si>
-    <t>2024PGP537</t>
-  </si>
-  <si>
-    <t>Gayathri H</t>
-  </si>
-  <si>
-    <t>2021IPM050</t>
-  </si>
-  <si>
-    <t>Harsh Raj</t>
-  </si>
-  <si>
-    <t>2024PGP177</t>
-  </si>
-  <si>
-    <t>Harshita Patodia</t>
-  </si>
-  <si>
-    <t>2021IPM053</t>
-  </si>
-  <si>
-    <t>Heeral Chauhan</t>
-  </si>
-  <si>
-    <t>2024PGP185</t>
-  </si>
-  <si>
-    <t>Ishika Jain</t>
-  </si>
-  <si>
-    <t>2024PGP512</t>
-  </si>
-  <si>
-    <t>Koshi Agrawal</t>
-  </si>
-  <si>
-    <t>2024PGP220</t>
-  </si>
-  <si>
-    <t>Lakshita Bhatia</t>
-  </si>
-  <si>
-    <t>2021IPM075</t>
-  </si>
-  <si>
-    <t>Lewil S</t>
-  </si>
-  <si>
-    <t>2024PGP509</t>
-  </si>
-  <si>
-    <t>M.Rithik</t>
-  </si>
-  <si>
-    <t>2024PGP227</t>
-  </si>
-  <si>
-    <t>Madhan Raj S</t>
-  </si>
-  <si>
-    <t>2024PGP234</t>
-  </si>
-  <si>
-    <t>Manohar</t>
-  </si>
-  <si>
-    <t>2024PGP251</t>
-  </si>
-  <si>
-    <t>Muhammed Ajmal</t>
-  </si>
-  <si>
-    <t>2023PGP506</t>
-  </si>
-  <si>
-    <t>Muskan</t>
-  </si>
-  <si>
-    <t>2024PGP277</t>
-  </si>
-  <si>
-    <t>Palak</t>
-  </si>
-  <si>
-    <t>2021IPM094</t>
-  </si>
-  <si>
-    <t>Parth Khakholia</t>
-  </si>
-  <si>
     <t>2024PGP467</t>
   </si>
   <si>
     <t>Pratik Kumar Rout</t>
   </si>
   <si>
-    <t>2021IPM103</t>
-  </si>
-  <si>
-    <t>Prerna Bharti</t>
-  </si>
-  <si>
-    <t>2021IPM104</t>
-  </si>
-  <si>
-    <t>Preyansh Panchal</t>
-  </si>
-  <si>
-    <t>2024PGP295</t>
-  </si>
-  <si>
-    <t>Prithvi Singh</t>
-  </si>
-  <si>
-    <t>2024PGP499</t>
-  </si>
-  <si>
-    <t>Pullabhotla Abhijith</t>
-  </si>
-  <si>
     <t>2024PGP299</t>
   </si>
   <si>
     <t>Raghav Loya</t>
   </si>
   <si>
-    <t>2024PGP300</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>2024PGP318</t>
-  </si>
-  <si>
-    <t>Reyazuddin</t>
-  </si>
-  <si>
-    <t>2024PGP323</t>
-  </si>
-  <si>
-    <t>Rishav Tewari</t>
-  </si>
-  <si>
-    <t>2024PGP326</t>
-  </si>
-  <si>
-    <t>Ritesh Yadav</t>
-  </si>
-  <si>
-    <t>2020IPM106</t>
-  </si>
-  <si>
-    <t>Ritika Singh</t>
-  </si>
-  <si>
-    <t>2024PGP331</t>
-  </si>
-  <si>
-    <t>Rohan Malik</t>
-  </si>
-  <si>
-    <t>2020IPM111</t>
-  </si>
-  <si>
-    <t>Rohan Singh</t>
-  </si>
-  <si>
-    <t>2021IPM113</t>
-  </si>
-  <si>
-    <t>Saagarika V</t>
-  </si>
-  <si>
-    <t>2024PGP562</t>
-  </si>
-  <si>
-    <t>Sachin Yadav</t>
-  </si>
-  <si>
-    <t>2024PGP353</t>
-  </si>
-  <si>
-    <t>Samyadeep Sarangi</t>
-  </si>
-  <si>
-    <t>2024PGP571</t>
-  </si>
-  <si>
-    <t>Samyak Jain</t>
-  </si>
-  <si>
-    <t>2024PGP361</t>
-  </si>
-  <si>
-    <t>Sarthak Sanwal</t>
-  </si>
-  <si>
-    <t>2024PGP372</t>
-  </si>
-  <si>
-    <t>Shashwat Varma</t>
-  </si>
-  <si>
-    <t>2023PGP334</t>
-  </si>
-  <si>
-    <t>Shreeya Dhongade</t>
-  </si>
-  <si>
-    <t>2021IPM131</t>
-  </si>
-  <si>
-    <t>Shubhayu Sadhukhan</t>
-  </si>
-  <si>
-    <t>2024PGP396</t>
-  </si>
-  <si>
-    <t>Shubhendu Das</t>
-  </si>
-  <si>
-    <t>2024PGP399</t>
-  </si>
-  <si>
-    <t>Shwet Sharma</t>
-  </si>
-  <si>
-    <t>2024PGP409</t>
-  </si>
-  <si>
-    <t>Sparsh</t>
-  </si>
-  <si>
-    <t>2024PGP539</t>
-  </si>
-  <si>
-    <t>Srijan Upadhyay</t>
-  </si>
-  <si>
-    <t>2021IPM140</t>
-  </si>
-  <si>
-    <t>Srishti Kumari</t>
-  </si>
-  <si>
-    <t>2021IPM149</t>
-  </si>
-  <si>
-    <t>Swastik Jaiswal</t>
-  </si>
-  <si>
-    <t>2021IPM150</t>
-  </si>
-  <si>
-    <t>Tanya Tibrewal</t>
-  </si>
-  <si>
-    <t>2024PGP429</t>
-  </si>
-  <si>
-    <t>Tejasvi Gupta</t>
-  </si>
-  <si>
-    <t>2024PGP435</t>
-  </si>
-  <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
-    <t>2024PGP440</t>
-  </si>
-  <si>
-    <t>Vaishnavi Ashok Mane</t>
-  </si>
-  <si>
-    <t>2024PGP460</t>
-  </si>
-  <si>
-    <t>Yash Tripathy</t>
-  </si>
-  <si>
     <t>2024PGP548</t>
   </si>
   <si>
     <t>Abdus Samad Khan</t>
   </si>
   <si>
-    <t>2024PGP011</t>
-  </si>
-  <si>
-    <t>Abhay Kumar</t>
-  </si>
-  <si>
-    <t>2024PGP021</t>
-  </si>
-  <si>
-    <t>Abhishek Kumar</t>
-  </si>
-  <si>
     <t>2024PGP027</t>
   </si>
   <si>
@@ -446,30 +470,12 @@
     <t>Akshanth R</t>
   </si>
   <si>
-    <t>2024PGP046</t>
-  </si>
-  <si>
-    <t>Akshita</t>
-  </si>
-  <si>
     <t>2024PGP048</t>
   </si>
   <si>
     <t>Alok Narayan</t>
   </si>
   <si>
-    <t>2024PGP049</t>
-  </si>
-  <si>
-    <t>Aman Agrawal</t>
-  </si>
-  <si>
-    <t>2024PGP064</t>
-  </si>
-  <si>
-    <t>Ankit Choudhary</t>
-  </si>
-  <si>
     <t>2024PGP482</t>
   </si>
   <si>
@@ -480,12 +486,6 @@
   </si>
   <si>
     <t>Arushi Kashyap</t>
-  </si>
-  <si>
-    <t>2024PGP094</t>
-  </si>
-  <si>
-    <t>Ashutosh Arya</t>
   </si>
 </sst>
 </file>
@@ -1621,11 +1621,11 @@
       </c>
       <c r="E7" s="27">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1675,9 +1675,15 @@
       <c r="V7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
+      <c r="W7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y7" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z7" s="33"/>
       <c r="AA7" s="33"/>
     </row>
@@ -1701,7 +1707,7 @@
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>20</v>
@@ -1715,14 +1721,14 @@
       <c r="J8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>20</v>
+      <c r="K8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N8" s="31" t="s">
         <v>20</v>
@@ -1730,8 +1736,8 @@
       <c r="O8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>21</v>
+      <c r="P8" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="Q8" s="31" t="s">
         <v>20</v>
@@ -1739,21 +1745,27 @@
       <c r="R8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="T8" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="U8" s="31" t="s">
-        <v>20</v>
+      <c r="S8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
+      <c r="W8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z8" s="39"/>
       <c r="AA8" s="39"/>
     </row>
@@ -1773,14 +1785,14 @@
       </c>
       <c r="E9" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G9" s="29" t="s">
-        <v>20</v>
+      <c r="G9" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="H9" s="38" t="s">
         <v>20</v>
@@ -1791,8 +1803,8 @@
       <c r="J9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="32" t="s">
-        <v>21</v>
+      <c r="K9" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="L9" s="31" t="s">
         <v>20</v>
@@ -1803,14 +1815,14 @@
       <c r="N9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="31" t="s">
-        <v>20</v>
+      <c r="O9" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="31" t="s">
-        <v>20</v>
+      <c r="Q9" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R9" s="31" t="s">
         <v>20</v>
@@ -1818,8 +1830,8 @@
       <c r="S9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="31" t="s">
-        <v>20</v>
+      <c r="T9" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="U9" s="31" t="s">
         <v>20</v>
@@ -1827,9 +1839,15 @@
       <c r="V9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
+      <c r="W9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z9" s="39"/>
       <c r="AA9" s="39"/>
     </row>
@@ -1849,17 +1867,17 @@
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>20</v>
@@ -1885,8 +1903,8 @@
       <c r="P10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="31" t="s">
-        <v>20</v>
+      <c r="Q10" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R10" s="31" t="s">
         <v>20</v>
@@ -1894,18 +1912,24 @@
       <c r="S10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="U10" s="32" t="s">
-        <v>21</v>
+      <c r="T10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="V10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
+      <c r="W10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z10" s="39"/>
       <c r="AA10" s="39"/>
     </row>
@@ -1929,10 +1953,10 @@
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="H11" s="38" t="s">
         <v>20</v>
@@ -1949,20 +1973,20 @@
       <c r="L11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="31" t="s">
-        <v>20</v>
+      <c r="M11" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="32" t="s">
-        <v>21</v>
+      <c r="O11" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="P11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="32" t="s">
-        <v>21</v>
+      <c r="Q11" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R11" s="31" t="s">
         <v>20</v>
@@ -1973,15 +1997,21 @@
       <c r="T11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="U11" s="31" t="s">
-        <v>20</v>
+      <c r="U11" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
+      <c r="W11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z11" s="39"/>
       <c r="AA11" s="39"/>
     </row>
@@ -2001,11 +2031,11 @@
       </c>
       <c r="E12" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>20</v>
@@ -2028,17 +2058,17 @@
       <c r="M12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="31" t="s">
-        <v>20</v>
+      <c r="N12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R12" s="31" t="s">
         <v>20</v>
@@ -2052,12 +2082,18 @@
       <c r="U12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V12" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
+      <c r="V12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z12" s="39"/>
       <c r="AA12" s="39"/>
     </row>
@@ -2077,14 +2113,14 @@
       </c>
       <c r="E13" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="H13" s="41" t="s">
         <v>21</v>
@@ -2095,8 +2131,8 @@
       <c r="J13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="32" t="s">
-        <v>21</v>
+      <c r="K13" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="L13" s="31" t="s">
         <v>20</v>
@@ -2107,8 +2143,8 @@
       <c r="N13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="31" t="s">
-        <v>20</v>
+      <c r="O13" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P13" s="31" t="s">
         <v>20</v>
@@ -2122,8 +2158,8 @@
       <c r="S13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="32" t="s">
-        <v>21</v>
+      <c r="T13" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="U13" s="31" t="s">
         <v>20</v>
@@ -2131,9 +2167,15 @@
       <c r="V13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
+      <c r="W13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z13" s="39"/>
       <c r="AA13" s="39"/>
     </row>
@@ -2157,13 +2199,13 @@
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>20</v>
@@ -2177,11 +2219,11 @@
       <c r="L14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="31" t="s">
-        <v>20</v>
+      <c r="M14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O14" s="31" t="s">
         <v>20</v>
@@ -2189,14 +2231,14 @@
       <c r="P14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="32" t="s">
-        <v>21</v>
+      <c r="Q14" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="31" t="s">
-        <v>20</v>
+      <c r="S14" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="T14" s="31" t="s">
         <v>20</v>
@@ -2204,12 +2246,18 @@
       <c r="U14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V14" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
+      <c r="V14" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X14" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y14" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z14" s="39"/>
       <c r="AA14" s="39"/>
     </row>
@@ -2229,11 +2277,11 @@
       </c>
       <c r="E15" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>20</v>
@@ -2253,8 +2301,8 @@
       <c r="L15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="32" t="s">
-        <v>21</v>
+      <c r="M15" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="N15" s="31" t="s">
         <v>20</v>
@@ -2268,8 +2316,8 @@
       <c r="Q15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R15" s="31" t="s">
-        <v>20</v>
+      <c r="R15" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S15" s="31" t="s">
         <v>20</v>
@@ -2283,9 +2331,15 @@
       <c r="V15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
+      <c r="W15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z15" s="39"/>
       <c r="AA15" s="39"/>
     </row>
@@ -2305,17 +2359,17 @@
       </c>
       <c r="E16" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="38" t="s">
-        <v>20</v>
+      <c r="H16" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>20</v>
@@ -2329,20 +2383,20 @@
       <c r="L16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="31" t="s">
-        <v>20</v>
+      <c r="M16" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16" s="32" t="s">
-        <v>21</v>
+      <c r="O16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R16" s="31" t="s">
         <v>20</v>
@@ -2359,9 +2413,15 @@
       <c r="V16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
+      <c r="W16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y16" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z16" s="39"/>
       <c r="AA16" s="39"/>
     </row>
@@ -2381,14 +2441,14 @@
       </c>
       <c r="E17" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="H17" s="41" t="s">
         <v>21</v>
@@ -2411,11 +2471,11 @@
       <c r="N17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="31" t="s">
-        <v>20</v>
+      <c r="O17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="Q17" s="31" t="s">
         <v>20</v>
@@ -2429,15 +2489,21 @@
       <c r="T17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="V17" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
+      <c r="U17" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="V17" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="W17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z17" s="39"/>
       <c r="AA17" s="39"/>
     </row>
@@ -2457,11 +2523,11 @@
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>20</v>
@@ -2484,8 +2550,8 @@
       <c r="M18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="31" t="s">
-        <v>20</v>
+      <c r="N18" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>20</v>
@@ -2511,9 +2577,15 @@
       <c r="V18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
+      <c r="W18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="X18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y18" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z18" s="39"/>
       <c r="AA18" s="39"/>
     </row>
@@ -2533,17 +2605,17 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="38" t="s">
-        <v>20</v>
+      <c r="H19" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>20</v>
@@ -2560,11 +2632,11 @@
       <c r="M19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>20</v>
+      <c r="N19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P19" s="31" t="s">
         <v>20</v>
@@ -2584,12 +2656,18 @@
       <c r="U19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V19" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
+      <c r="V19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="X19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y19" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z19" s="39"/>
       <c r="AA19" s="39"/>
     </row>
@@ -2609,17 +2687,17 @@
       </c>
       <c r="E20" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="41" t="s">
-        <v>21</v>
+      <c r="H20" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>20</v>
@@ -2642,11 +2720,11 @@
       <c r="O20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P20" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="31" t="s">
-        <v>20</v>
+      <c r="P20" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R20" s="31" t="s">
         <v>20</v>
@@ -2663,9 +2741,15 @@
       <c r="V20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
+      <c r="W20" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="X20" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z20" s="39"/>
       <c r="AA20" s="39"/>
     </row>
@@ -2685,11 +2769,11 @@
       </c>
       <c r="E21" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>20</v>
@@ -2721,11 +2805,11 @@
       <c r="P21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="32" t="s">
-        <v>21</v>
+      <c r="Q21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="S21" s="31" t="s">
         <v>20</v>
@@ -2739,9 +2823,15 @@
       <c r="V21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
+      <c r="W21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z21" s="39"/>
       <c r="AA21" s="39"/>
     </row>
@@ -2761,17 +2851,17 @@
       </c>
       <c r="E22" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>20</v>
@@ -2782,14 +2872,14 @@
       <c r="K22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="31" t="s">
-        <v>20</v>
+      <c r="L22" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O22" s="31" t="s">
         <v>20</v>
@@ -2815,9 +2905,15 @@
       <c r="V22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
+      <c r="W22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y22" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z22" s="39"/>
       <c r="AA22" s="39"/>
     </row>
@@ -2837,17 +2933,17 @@
       </c>
       <c r="E23" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="38" t="s">
-        <v>20</v>
+      <c r="H23" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>20</v>
@@ -2867,8 +2963,8 @@
       <c r="N23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="31" t="s">
-        <v>20</v>
+      <c r="O23" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P23" s="31" t="s">
         <v>20</v>
@@ -2888,12 +2984,18 @@
       <c r="U23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V23" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
+      <c r="V23" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="W23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z23" s="39"/>
       <c r="AA23" s="39"/>
     </row>
@@ -2917,13 +3019,13 @@
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="41" t="s">
-        <v>21</v>
+      <c r="H24" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>20</v>
@@ -2940,8 +3042,8 @@
       <c r="M24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="31" t="s">
-        <v>20</v>
+      <c r="N24" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O24" s="31" t="s">
         <v>20</v>
@@ -2961,15 +3063,21 @@
       <c r="T24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="U24" s="32" t="s">
-        <v>21</v>
+      <c r="U24" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="V24" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
+      <c r="W24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y24" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z24" s="39"/>
       <c r="AA24" s="39"/>
     </row>
@@ -2989,7 +3097,7 @@
       </c>
       <c r="E25" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
@@ -3016,17 +3124,17 @@
       <c r="M25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="32" t="s">
-        <v>21</v>
+      <c r="N25" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="O25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P25" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="31" t="s">
-        <v>20</v>
+      <c r="P25" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R25" s="31" t="s">
         <v>20</v>
@@ -3037,15 +3145,21 @@
       <c r="T25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="U25" s="31" t="s">
-        <v>20</v>
+      <c r="U25" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
+      <c r="W25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X25" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y25" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z25" s="39"/>
       <c r="AA25" s="39"/>
     </row>
@@ -3065,20 +3179,20 @@
       </c>
       <c r="E26" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>20</v>
+      <c r="H26" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="J26" s="31" t="s">
         <v>20</v>
@@ -3095,23 +3209,23 @@
       <c r="N26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O26" s="32" t="s">
-        <v>21</v>
+      <c r="O26" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="P26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="31" t="s">
-        <v>20</v>
+      <c r="Q26" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="T26" s="31" t="s">
-        <v>20</v>
+      <c r="S26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="U26" s="31" t="s">
         <v>20</v>
@@ -3119,9 +3233,15 @@
       <c r="V26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
+      <c r="W26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y26" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z26" s="39"/>
       <c r="AA26" s="39"/>
     </row>
@@ -3141,11 +3261,11 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>20</v>
@@ -3159,26 +3279,26 @@
       <c r="J27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="31" t="s">
-        <v>20</v>
+      <c r="K27" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q27" s="32" t="s">
-        <v>21</v>
+      <c r="M27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R27" s="31" t="s">
         <v>20</v>
@@ -3195,9 +3315,15 @@
       <c r="V27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
+      <c r="W27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y27" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z27" s="39"/>
       <c r="AA27" s="39"/>
     </row>
@@ -3217,20 +3343,20 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="H28" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="32" t="s">
-        <v>21</v>
+      <c r="I28" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="J28" s="31" t="s">
         <v>20</v>
@@ -3238,8 +3364,8 @@
       <c r="K28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="32" t="s">
-        <v>21</v>
+      <c r="L28" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="M28" s="31" t="s">
         <v>20</v>
@@ -3247,8 +3373,8 @@
       <c r="N28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O28" s="31" t="s">
-        <v>20</v>
+      <c r="O28" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P28" s="31" t="s">
         <v>20</v>
@@ -3259,8 +3385,8 @@
       <c r="R28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="32" t="s">
-        <v>21</v>
+      <c r="S28" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="T28" s="31" t="s">
         <v>20</v>
@@ -3268,12 +3394,18 @@
       <c r="U28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V28" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
+      <c r="V28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="W28" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="X28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y28" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z28" s="39"/>
       <c r="AA28" s="39"/>
     </row>
@@ -3293,17 +3425,17 @@
       </c>
       <c r="E29" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G29" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="30" t="s">
-        <v>20</v>
+      <c r="H29" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="I29" s="31" t="s">
         <v>20</v>
@@ -3317,8 +3449,8 @@
       <c r="L29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M29" s="31" t="s">
-        <v>20</v>
+      <c r="M29" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N29" s="31" t="s">
         <v>20</v>
@@ -3338,18 +3470,24 @@
       <c r="S29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T29" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="U29" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="V29" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
+      <c r="T29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="V29" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="W29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y29" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z29" s="39"/>
       <c r="AA29" s="39"/>
     </row>
@@ -3369,7 +3507,7 @@
       </c>
       <c r="E30" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
@@ -3378,8 +3516,8 @@
       <c r="G30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="38" t="s">
-        <v>20</v>
+      <c r="H30" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="I30" s="31" t="s">
         <v>20</v>
@@ -3396,14 +3534,14 @@
       <c r="M30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="31" t="s">
-        <v>20</v>
+      <c r="N30" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P30" s="31" t="s">
-        <v>20</v>
+      <c r="P30" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="Q30" s="32" t="s">
         <v>21</v>
@@ -3423,9 +3561,15 @@
       <c r="V30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
+      <c r="W30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y30" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z30" s="39"/>
       <c r="AA30" s="39"/>
     </row>
@@ -3445,11 +3589,11 @@
       </c>
       <c r="E31" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>20</v>
@@ -3463,14 +3607,14 @@
       <c r="J31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="31" t="s">
-        <v>20</v>
+      <c r="K31" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M31" s="32" t="s">
-        <v>21</v>
+      <c r="M31" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="N31" s="31" t="s">
         <v>20</v>
@@ -3481,17 +3625,17 @@
       <c r="P31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="31" t="s">
-        <v>20</v>
+      <c r="Q31" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R31" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="S31" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="T31" s="32" t="s">
-        <v>21</v>
+      <c r="S31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T31" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="U31" s="31" t="s">
         <v>20</v>
@@ -3499,9 +3643,15 @@
       <c r="V31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
+      <c r="W31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y31" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z31" s="39"/>
       <c r="AA31" s="39"/>
     </row>
@@ -3521,11 +3671,11 @@
       </c>
       <c r="E32" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>20</v>
@@ -3539,14 +3689,14 @@
       <c r="J32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="31" t="s">
-        <v>20</v>
+      <c r="K32" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M32" s="31" t="s">
-        <v>20</v>
+      <c r="M32" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N32" s="31" t="s">
         <v>20</v>
@@ -3554,14 +3704,14 @@
       <c r="O32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P32" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R32" s="32" t="s">
-        <v>21</v>
+      <c r="P32" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="S32" s="31" t="s">
         <v>20</v>
@@ -3569,15 +3719,21 @@
       <c r="T32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="U32" s="32" t="s">
-        <v>21</v>
+      <c r="U32" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="V32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
+      <c r="W32" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X32" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y32" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z32" s="39"/>
       <c r="AA32" s="39"/>
     </row>
@@ -3597,14 +3753,14 @@
       </c>
       <c r="E33" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>20</v>
@@ -3618,14 +3774,14 @@
       <c r="K33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33" s="32" t="s">
-        <v>21</v>
+      <c r="L33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="O33" s="31" t="s">
         <v>20</v>
@@ -3639,8 +3795,8 @@
       <c r="R33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S33" s="31" t="s">
-        <v>20</v>
+      <c r="S33" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="T33" s="31" t="s">
         <v>20</v>
@@ -3651,9 +3807,15 @@
       <c r="V33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
+      <c r="W33" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="X33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y33" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z33" s="39"/>
       <c r="AA33" s="39"/>
     </row>
@@ -3673,17 +3835,17 @@
       </c>
       <c r="E34" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="42" t="s">
-        <v>21</v>
+      <c r="H34" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="I34" s="31" t="s">
         <v>20</v>
@@ -3694,8 +3856,8 @@
       <c r="K34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="32" t="s">
-        <v>21</v>
+      <c r="L34" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="M34" s="31" t="s">
         <v>20</v>
@@ -3709,8 +3871,8 @@
       <c r="P34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="31" t="s">
-        <v>20</v>
+      <c r="Q34" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R34" s="31" t="s">
         <v>20</v>
@@ -3718,18 +3880,24 @@
       <c r="S34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T34" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="U34" s="31" t="s">
-        <v>20</v>
+      <c r="T34" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U34" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
+      <c r="W34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y34" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z34" s="39"/>
       <c r="AA34" s="39"/>
     </row>
@@ -3749,11 +3917,11 @@
       </c>
       <c r="E35" s="27">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>20</v>
@@ -3767,45 +3935,51 @@
       <c r="J35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="32" t="s">
-        <v>21</v>
+      <c r="K35" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="L35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M35" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="O35" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" s="32" t="s">
-        <v>21</v>
+      <c r="M35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="Q35" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="R35" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="S35" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="T35" s="32" t="s">
-        <v>21</v>
+      <c r="R35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T35" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="U35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V35" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
+      <c r="V35" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="W35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y35" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z35" s="39"/>
       <c r="AA35" s="39"/>
     </row>
@@ -3825,20 +3999,20 @@
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="31" t="s">
-        <v>20</v>
+      <c r="H36" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="J36" s="31" t="s">
         <v>20</v>
@@ -3849,20 +4023,20 @@
       <c r="L36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M36" s="32" t="s">
-        <v>21</v>
+      <c r="M36" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="N36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O36" s="31" t="s">
-        <v>20</v>
+      <c r="O36" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Q36" s="32" t="s">
-        <v>21</v>
+      <c r="Q36" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R36" s="31" t="s">
         <v>20</v>
@@ -3879,9 +4053,15 @@
       <c r="V36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
+      <c r="W36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y36" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z36" s="39"/>
       <c r="AA36" s="39"/>
     </row>
@@ -3901,17 +4081,17 @@
       </c>
       <c r="E37" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="41" t="s">
-        <v>21</v>
+      <c r="H37" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="I37" s="31" t="s">
         <v>20</v>
@@ -3925,14 +4105,14 @@
       <c r="L37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M37" s="31" t="s">
-        <v>20</v>
+      <c r="M37" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O37" s="32" t="s">
-        <v>21</v>
+      <c r="O37" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="P37" s="31" t="s">
         <v>20</v>
@@ -3946,18 +4126,24 @@
       <c r="S37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T37" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="U37" s="31" t="s">
-        <v>20</v>
+      <c r="T37" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V37" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
+      <c r="W37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y37" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z37" s="39"/>
       <c r="AA37" s="39"/>
     </row>
@@ -3977,17 +4163,17 @@
       </c>
       <c r="E38" s="27">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="42" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="I38" s="31" t="s">
         <v>20</v>
@@ -4007,8 +4193,8 @@
       <c r="N38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O38" s="32" t="s">
-        <v>21</v>
+      <c r="O38" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="P38" s="31" t="s">
         <v>20</v>
@@ -4016,8 +4202,8 @@
       <c r="Q38" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="R38" s="32" t="s">
-        <v>21</v>
+      <c r="R38" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="S38" s="31" t="s">
         <v>20</v>
@@ -4031,9 +4217,15 @@
       <c r="V38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
+      <c r="W38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y38" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z38" s="39"/>
       <c r="AA38" s="39"/>
     </row>
@@ -4057,7 +4249,7 @@
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>20</v>
@@ -4086,8 +4278,8 @@
       <c r="O39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="32" t="s">
-        <v>21</v>
+      <c r="P39" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="Q39" s="31" t="s">
         <v>20</v>
@@ -4107,9 +4299,15 @@
       <c r="V39" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
+      <c r="W39" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="X39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y39" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z39" s="39"/>
       <c r="AA39" s="39"/>
     </row>
@@ -4133,13 +4331,13 @@
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="30" t="s">
-        <v>20</v>
+      <c r="H40" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="I40" s="30" t="s">
         <v>20</v>
@@ -4147,8 +4345,8 @@
       <c r="J40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="31" t="s">
-        <v>20</v>
+      <c r="K40" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L40" s="31" t="s">
         <v>20</v>
@@ -4162,11 +4360,11 @@
       <c r="O40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P40" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q40" s="32" t="s">
-        <v>21</v>
+      <c r="P40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R40" s="31" t="s">
         <v>20</v>
@@ -4174,18 +4372,24 @@
       <c r="S40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T40" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="U40" s="32" t="s">
-        <v>21</v>
+      <c r="T40" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U40" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="V40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
+      <c r="W40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y40" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z40" s="39"/>
       <c r="AA40" s="39"/>
     </row>
@@ -4209,16 +4413,16 @@
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="32" t="s">
-        <v>21</v>
+      <c r="H41" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="J41" s="31" t="s">
         <v>20</v>
@@ -4235,14 +4439,14 @@
       <c r="N41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O41" s="31" t="s">
-        <v>20</v>
+      <c r="O41" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="32" t="s">
-        <v>21</v>
+      <c r="Q41" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R41" s="31" t="s">
         <v>20</v>
@@ -4250,8 +4454,8 @@
       <c r="S41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T41" s="32" t="s">
-        <v>21</v>
+      <c r="T41" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="U41" s="31" t="s">
         <v>20</v>
@@ -4259,9 +4463,15 @@
       <c r="V41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39"/>
+      <c r="W41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y41" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z41" s="39"/>
       <c r="AA41" s="39"/>
     </row>
@@ -4281,7 +4491,7 @@
       </c>
       <c r="E42" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
@@ -4317,8 +4527,8 @@
       <c r="P42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="31" t="s">
-        <v>20</v>
+      <c r="Q42" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R42" s="31" t="s">
         <v>20</v>
@@ -4335,9 +4545,15 @@
       <c r="V42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="39"/>
+      <c r="W42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X42" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y42" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z42" s="39"/>
       <c r="AA42" s="39"/>
     </row>
@@ -4361,7 +4577,7 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>20</v>
@@ -4375,17 +4591,17 @@
       <c r="J43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="32" t="s">
-        <v>21</v>
+      <c r="K43" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="L43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="N43" s="32" t="s">
-        <v>21</v>
+      <c r="M43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="O43" s="31" t="s">
         <v>20</v>
@@ -4396,8 +4612,8 @@
       <c r="Q43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R43" s="31" t="s">
-        <v>20</v>
+      <c r="R43" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S43" s="31" t="s">
         <v>20</v>
@@ -4405,15 +4621,21 @@
       <c r="T43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="U43" s="31" t="s">
-        <v>20</v>
+      <c r="U43" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W43" s="39"/>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="39"/>
+      <c r="W43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y43" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z43" s="39"/>
       <c r="AA43" s="39"/>
     </row>
@@ -4433,11 +4655,11 @@
       </c>
       <c r="E44" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>20</v>
@@ -4454,8 +4676,8 @@
       <c r="K44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L44" s="31" t="s">
-        <v>20</v>
+      <c r="L44" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M44" s="31" t="s">
         <v>20</v>
@@ -4463,8 +4685,8 @@
       <c r="N44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O44" s="32" t="s">
-        <v>21</v>
+      <c r="O44" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="P44" s="31" t="s">
         <v>20</v>
@@ -4487,9 +4709,15 @@
       <c r="V44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W44" s="39"/>
-      <c r="X44" s="39"/>
-      <c r="Y44" s="39"/>
+      <c r="W44" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="X44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y44" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z44" s="39"/>
       <c r="AA44" s="39"/>
     </row>
@@ -4509,17 +4737,17 @@
       </c>
       <c r="E45" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G45" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="41" t="s">
-        <v>21</v>
+      <c r="H45" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="I45" s="31" t="s">
         <v>20</v>
@@ -4530,11 +4758,11 @@
       <c r="K45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L45" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45" s="32" t="s">
-        <v>21</v>
+      <c r="L45" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="N45" s="31" t="s">
         <v>20</v>
@@ -4545,14 +4773,14 @@
       <c r="P45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q45" s="32" t="s">
-        <v>21</v>
+      <c r="Q45" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="31" t="s">
-        <v>20</v>
+      <c r="S45" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="T45" s="31" t="s">
         <v>20</v>
@@ -4560,12 +4788,18 @@
       <c r="U45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V45" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="W45" s="39"/>
-      <c r="X45" s="39"/>
-      <c r="Y45" s="39"/>
+      <c r="V45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="W45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y45" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z45" s="39"/>
       <c r="AA45" s="39"/>
     </row>
@@ -4585,11 +4819,11 @@
       </c>
       <c r="E46" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>20</v>
@@ -4612,8 +4846,8 @@
       <c r="M46" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="32" t="s">
-        <v>21</v>
+      <c r="N46" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="O46" s="31" t="s">
         <v>20</v>
@@ -4630,18 +4864,24 @@
       <c r="S46" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T46" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="U46" s="31" t="s">
-        <v>20</v>
+      <c r="T46" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U46" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V46" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W46" s="39"/>
-      <c r="X46" s="39"/>
-      <c r="Y46" s="39"/>
+      <c r="W46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y46" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z46" s="39"/>
       <c r="AA46" s="39"/>
     </row>
@@ -4661,17 +4901,17 @@
       </c>
       <c r="E47" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="42" t="s">
-        <v>21</v>
+      <c r="H47" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="I47" s="31" t="s">
         <v>20</v>
@@ -4688,17 +4928,17 @@
       <c r="M47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="O47" s="31" t="s">
-        <v>20</v>
+      <c r="N47" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P47" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Q47" s="32" t="s">
-        <v>21</v>
+      <c r="Q47" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R47" s="31" t="s">
         <v>20</v>
@@ -4712,12 +4952,18 @@
       <c r="U47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V47" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="W47" s="39"/>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="39"/>
+      <c r="V47" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="W47" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X47" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y47" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z47" s="39"/>
       <c r="AA47" s="39"/>
     </row>
@@ -4737,11 +4983,11 @@
       </c>
       <c r="E48" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>20</v>
@@ -4755,14 +5001,14 @@
       <c r="J48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="31" t="s">
-        <v>20</v>
+      <c r="K48" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M48" s="32" t="s">
-        <v>21</v>
+      <c r="M48" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="N48" s="31" t="s">
         <v>20</v>
@@ -4776,8 +5022,8 @@
       <c r="Q48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R48" s="32" t="s">
-        <v>21</v>
+      <c r="R48" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="S48" s="31" t="s">
         <v>20</v>
@@ -4788,12 +5034,18 @@
       <c r="U48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V48" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="W48" s="39"/>
-      <c r="X48" s="39"/>
-      <c r="Y48" s="39"/>
+      <c r="V48" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="W48" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X48" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y48" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z48" s="39"/>
       <c r="AA48" s="39"/>
     </row>
@@ -4817,7 +5069,7 @@
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G49" s="29" t="s">
         <v>20</v>
@@ -4834,8 +5086,8 @@
       <c r="K49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="32" t="s">
-        <v>21</v>
+      <c r="L49" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="M49" s="31" t="s">
         <v>20</v>
@@ -4849,14 +5101,14 @@
       <c r="P49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q49" s="31" t="s">
-        <v>20</v>
+      <c r="Q49" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S49" s="32" t="s">
-        <v>21</v>
+      <c r="S49" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="T49" s="31" t="s">
         <v>20</v>
@@ -4867,9 +5119,15 @@
       <c r="V49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39"/>
+      <c r="W49" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X49" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y49" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z49" s="39"/>
       <c r="AA49" s="39"/>
     </row>
@@ -4889,17 +5147,17 @@
       </c>
       <c r="E50" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="42" t="s">
-        <v>21</v>
+      <c r="H50" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="I50" s="31" t="s">
         <v>20</v>
@@ -4907,8 +5165,8 @@
       <c r="J50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="32" t="s">
-        <v>21</v>
+      <c r="K50" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="L50" s="31" t="s">
         <v>20</v>
@@ -4916,20 +5174,20 @@
       <c r="M50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O50" s="31" t="s">
-        <v>20</v>
+      <c r="N50" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q50" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R50" s="32" t="s">
-        <v>21</v>
+      <c r="Q50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="S50" s="31" t="s">
         <v>20</v>
@@ -4943,9 +5201,15 @@
       <c r="V50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
+      <c r="W50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y50" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z50" s="39"/>
       <c r="AA50" s="39"/>
     </row>
@@ -4965,11 +5229,11 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>20</v>
@@ -4983,8 +5247,8 @@
       <c r="J51" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K51" s="32" t="s">
-        <v>21</v>
+      <c r="K51" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="L51" s="31" t="s">
         <v>20</v>
@@ -4998,8 +5262,8 @@
       <c r="O51" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="32" t="s">
-        <v>21</v>
+      <c r="P51" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="Q51" s="32" t="s">
         <v>21</v>
@@ -5019,9 +5283,15 @@
       <c r="V51" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
+      <c r="W51" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X51" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y51" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z51" s="39"/>
       <c r="AA51" s="39"/>
     </row>
@@ -5041,11 +5311,11 @@
       </c>
       <c r="E52" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>20</v>
@@ -5059,8 +5329,8 @@
       <c r="J52" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K52" s="31" t="s">
-        <v>20</v>
+      <c r="K52" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L52" s="31" t="s">
         <v>20</v>
@@ -5089,15 +5359,21 @@
       <c r="T52" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="U52" s="32" t="s">
-        <v>21</v>
+      <c r="U52" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="V52" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
+      <c r="W52" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X52" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y52" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z52" s="39"/>
       <c r="AA52" s="39"/>
     </row>
@@ -5121,7 +5397,7 @@
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>20</v>
@@ -5141,8 +5417,8 @@
       <c r="L53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M53" s="31" t="s">
-        <v>20</v>
+      <c r="M53" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N53" s="31" t="s">
         <v>20</v>
@@ -5156,24 +5432,30 @@
       <c r="Q53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="31" t="s">
-        <v>20</v>
+      <c r="R53" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T53" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="U53" s="32" t="s">
-        <v>21</v>
+      <c r="T53" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U53" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="V53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39"/>
+      <c r="W53" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X53" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y53" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z53" s="39"/>
       <c r="AA53" s="39"/>
     </row>
@@ -5197,7 +5479,7 @@
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>20</v>
@@ -5217,8 +5499,8 @@
       <c r="L54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M54" s="32" t="s">
-        <v>21</v>
+      <c r="M54" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="N54" s="31" t="s">
         <v>20</v>
@@ -5235,21 +5517,27 @@
       <c r="R54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S54" s="32" t="s">
-        <v>21</v>
+      <c r="S54" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="T54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="U54" s="31" t="s">
-        <v>20</v>
+      <c r="U54" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
+      <c r="W54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y54" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z54" s="39"/>
       <c r="AA54" s="39"/>
     </row>
@@ -5269,11 +5557,11 @@
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>20</v>
@@ -5305,8 +5593,8 @@
       <c r="P55" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q55" s="32" t="s">
-        <v>21</v>
+      <c r="Q55" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R55" s="31" t="s">
         <v>20</v>
@@ -5317,15 +5605,21 @@
       <c r="T55" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="U55" s="32" t="s">
-        <v>21</v>
+      <c r="U55" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="V55" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39"/>
+      <c r="W55" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X55" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y55" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z55" s="39"/>
       <c r="AA55" s="39"/>
     </row>
@@ -5345,11 +5639,11 @@
       </c>
       <c r="E56" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>20</v>
@@ -5375,11 +5669,11 @@
       <c r="N56" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O56" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P56" s="32" t="s">
-        <v>21</v>
+      <c r="O56" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="Q56" s="31" t="s">
         <v>20</v>
@@ -5396,12 +5690,18 @@
       <c r="U56" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V56" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="W56" s="39"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="39"/>
+      <c r="V56" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="W56" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X56" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y56" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z56" s="39"/>
       <c r="AA56" s="39"/>
     </row>
@@ -5421,17 +5721,17 @@
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="42" t="s">
-        <v>21</v>
+      <c r="H57" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="I57" s="31" t="s">
         <v>20</v>
@@ -5448,8 +5748,8 @@
       <c r="M57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="31" t="s">
-        <v>20</v>
+      <c r="N57" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O57" s="31" t="s">
         <v>20</v>
@@ -5457,8 +5757,8 @@
       <c r="P57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q57" s="32" t="s">
-        <v>21</v>
+      <c r="Q57" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R57" s="31" t="s">
         <v>20</v>
@@ -5472,12 +5772,18 @@
       <c r="U57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V57" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="W57" s="39"/>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="39"/>
+      <c r="V57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="W57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y57" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z57" s="39"/>
       <c r="AA57" s="39"/>
     </row>
@@ -5497,20 +5803,20 @@
       </c>
       <c r="E58" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" s="32" t="s">
-        <v>21</v>
+      <c r="H58" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="J58" s="31" t="s">
         <v>20</v>
@@ -5527,11 +5833,11 @@
       <c r="N58" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O58" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P58" s="32" t="s">
-        <v>21</v>
+      <c r="O58" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="Q58" s="31" t="s">
         <v>20</v>
@@ -5545,15 +5851,21 @@
       <c r="T58" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="U58" s="31" t="s">
-        <v>20</v>
+      <c r="U58" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V58" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
+      <c r="W58" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X58" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y58" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z58" s="39"/>
       <c r="AA58" s="39"/>
     </row>
@@ -5577,7 +5889,7 @@
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>20</v>
@@ -5627,9 +5939,15 @@
       <c r="V59" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
+      <c r="W59" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X59" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y59" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z59" s="39"/>
       <c r="AA59" s="39"/>
     </row>
@@ -5649,11 +5967,11 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>20</v>
@@ -5673,8 +5991,8 @@
       <c r="L60" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M60" s="32" t="s">
-        <v>21</v>
+      <c r="M60" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="N60" s="31" t="s">
         <v>20</v>
@@ -5694,18 +6012,24 @@
       <c r="S60" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T60" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="U60" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="V60" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
+      <c r="T60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="V60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="W60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y60" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z60" s="39"/>
       <c r="AA60" s="39"/>
     </row>
@@ -5725,11 +6049,11 @@
       </c>
       <c r="E61" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>20</v>
@@ -5743,8 +6067,8 @@
       <c r="J61" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K61" s="32" t="s">
-        <v>21</v>
+      <c r="K61" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="L61" s="31" t="s">
         <v>20</v>
@@ -5776,12 +6100,18 @@
       <c r="U61" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V61" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
+      <c r="V61" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="W61" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X61" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y61" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z61" s="39"/>
       <c r="AA61" s="39"/>
     </row>
@@ -5801,17 +6131,17 @@
       </c>
       <c r="E62" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="30" t="s">
-        <v>20</v>
+      <c r="H62" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="I62" s="31" t="s">
         <v>20</v>
@@ -5819,45 +6149,51 @@
       <c r="J62" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K62" s="38" t="s">
-        <v>20</v>
+      <c r="K62" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="L62" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="N62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="P62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="T62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="U62" s="32" t="s">
-        <v>21</v>
+      <c r="M62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="S62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U62" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="V62" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
+      <c r="W62" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y62" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z62" s="39"/>
       <c r="AA62" s="39"/>
     </row>
@@ -5877,20 +6213,20 @@
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G63" s="29" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="H63" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I63" s="31" t="s">
-        <v>20</v>
+      <c r="I63" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="J63" s="31" t="s">
         <v>20</v>
@@ -5898,8 +6234,8 @@
       <c r="K63" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L63" s="31" t="s">
-        <v>20</v>
+      <c r="L63" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M63" s="31" t="s">
         <v>20</v>
@@ -5907,8 +6243,8 @@
       <c r="N63" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O63" s="32" t="s">
-        <v>21</v>
+      <c r="O63" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="P63" s="31" t="s">
         <v>20</v>
@@ -5919,8 +6255,8 @@
       <c r="R63" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S63" s="31" t="s">
-        <v>20</v>
+      <c r="S63" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="T63" s="31" t="s">
         <v>20</v>
@@ -5931,9 +6267,15 @@
       <c r="V63" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
+      <c r="W63" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="X63" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y63" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z63" s="39"/>
       <c r="AA63" s="39"/>
     </row>
@@ -5953,17 +6295,17 @@
       </c>
       <c r="E64" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="G64" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="38" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="I64" s="31" t="s">
         <v>20</v>
@@ -5974,8 +6316,8 @@
       <c r="K64" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L64" s="31" t="s">
-        <v>20</v>
+      <c r="L64" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M64" s="31" t="s">
         <v>20</v>
@@ -5983,8 +6325,8 @@
       <c r="N64" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O64" s="31" t="s">
-        <v>20</v>
+      <c r="O64" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P64" s="31" t="s">
         <v>20</v>
@@ -5992,8 +6334,8 @@
       <c r="Q64" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="R64" s="31" t="s">
-        <v>20</v>
+      <c r="R64" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S64" s="31" t="s">
         <v>20</v>
@@ -6007,9 +6349,15 @@
       <c r="V64" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
+      <c r="W64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y64" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z64" s="39"/>
       <c r="AA64" s="39"/>
     </row>
@@ -6029,7 +6377,7 @@
       </c>
       <c r="E65" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
@@ -6038,8 +6386,8 @@
       <c r="G65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="38" t="s">
-        <v>20</v>
+      <c r="H65" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="I65" s="31" t="s">
         <v>20</v>
@@ -6065,11 +6413,11 @@
       <c r="P65" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q65" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R65" s="31" t="s">
-        <v>20</v>
+      <c r="Q65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S65" s="31" t="s">
         <v>20</v>
@@ -6080,12 +6428,18 @@
       <c r="U65" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V65" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="W65" s="39"/>
-      <c r="X65" s="39"/>
-      <c r="Y65" s="39"/>
+      <c r="V65" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="W65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y65" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z65" s="39"/>
       <c r="AA65" s="39"/>
     </row>
@@ -6105,11 +6459,11 @@
       </c>
       <c r="E66" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>20</v>
@@ -6123,8 +6477,8 @@
       <c r="J66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="31" t="s">
-        <v>20</v>
+      <c r="K66" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L66" s="32" t="s">
         <v>21</v>
@@ -6138,8 +6492,8 @@
       <c r="O66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P66" s="31" t="s">
-        <v>20</v>
+      <c r="P66" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="Q66" s="31" t="s">
         <v>20</v>
@@ -6147,21 +6501,27 @@
       <c r="R66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S66" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="T66" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="U66" s="32" t="s">
-        <v>21</v>
+      <c r="S66" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T66" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U66" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="V66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W66" s="39"/>
-      <c r="X66" s="39"/>
-      <c r="Y66" s="39"/>
+      <c r="W66" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X66" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y66" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z66" s="39"/>
       <c r="AA66" s="39"/>
     </row>
@@ -6181,17 +6541,17 @@
       </c>
       <c r="E67" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H67" s="38" t="s">
-        <v>20</v>
+      <c r="H67" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="I67" s="31" t="s">
         <v>20</v>
@@ -6205,29 +6565,29 @@
       <c r="L67" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M67" s="31" t="s">
-        <v>20</v>
+      <c r="M67" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N67" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O67" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P67" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q67" s="32" t="s">
-        <v>21</v>
+      <c r="O67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R67" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="S67" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="T67" s="31" t="s">
-        <v>20</v>
+      <c r="S67" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T67" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="U67" s="31" t="s">
         <v>20</v>
@@ -6235,9 +6595,15 @@
       <c r="V67" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
+      <c r="W67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y67" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z67" s="39"/>
       <c r="AA67" s="39"/>
     </row>
@@ -6257,11 +6623,11 @@
       </c>
       <c r="E68" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>20</v>
@@ -6281,8 +6647,8 @@
       <c r="L68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M68" s="31" t="s">
-        <v>20</v>
+      <c r="M68" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N68" s="31" t="s">
         <v>20</v>
@@ -6290,11 +6656,11 @@
       <c r="O68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P68" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q68" s="31" t="s">
-        <v>20</v>
+      <c r="P68" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q68" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R68" s="31" t="s">
         <v>20</v>
@@ -6302,8 +6668,8 @@
       <c r="S68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T68" s="32" t="s">
-        <v>21</v>
+      <c r="T68" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="U68" s="31" t="s">
         <v>20</v>
@@ -6311,9 +6677,15 @@
       <c r="V68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W68" s="39"/>
-      <c r="X68" s="39"/>
-      <c r="Y68" s="39"/>
+      <c r="W68" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="X68" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y68" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z68" s="39"/>
       <c r="AA68" s="39"/>
     </row>
@@ -6337,13 +6709,13 @@
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="30" t="s">
-        <v>20</v>
+      <c r="H69" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="I69" s="31" t="s">
         <v>20</v>
@@ -6354,8 +6726,8 @@
       <c r="K69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L69" s="32" t="s">
-        <v>21</v>
+      <c r="L69" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="M69" s="31" t="s">
         <v>20</v>
@@ -6363,8 +6735,8 @@
       <c r="N69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O69" s="31" t="s">
-        <v>20</v>
+      <c r="O69" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P69" s="31" t="s">
         <v>20</v>
@@ -6372,11 +6744,11 @@
       <c r="Q69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R69" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="S69" s="32" t="s">
-        <v>21</v>
+      <c r="R69" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S69" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="T69" s="31" t="s">
         <v>20</v>
@@ -6387,9 +6759,15 @@
       <c r="V69" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="W69" s="39"/>
-      <c r="X69" s="39"/>
-      <c r="Y69" s="39"/>
+      <c r="W69" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X69" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y69" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z69" s="39"/>
       <c r="AA69" s="39"/>
     </row>
@@ -6409,11 +6787,11 @@
       </c>
       <c r="E70" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>20</v>
@@ -6430,17 +6808,17 @@
       <c r="K70" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L70" s="31" t="s">
-        <v>20</v>
+      <c r="L70" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M70" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N70" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="O70" s="32" t="s">
-        <v>21</v>
+      <c r="N70" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="P70" s="31" t="s">
         <v>20</v>
@@ -6454,18 +6832,24 @@
       <c r="S70" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T70" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="U70" s="31" t="s">
-        <v>20</v>
+      <c r="T70" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U70" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V70" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W70" s="39"/>
-      <c r="X70" s="39"/>
-      <c r="Y70" s="39"/>
+      <c r="W70" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X70" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y70" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z70" s="39"/>
       <c r="AA70" s="39"/>
     </row>
@@ -6485,11 +6869,11 @@
       </c>
       <c r="E71" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>20</v>
@@ -6509,23 +6893,23 @@
       <c r="L71" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M71" s="32" t="s">
-        <v>21</v>
+      <c r="M71" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="N71" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O71" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="P71" s="31" t="s">
-        <v>20</v>
+      <c r="O71" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P71" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="Q71" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="R71" s="31" t="s">
-        <v>20</v>
+      <c r="R71" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S71" s="31" t="s">
         <v>20</v>
@@ -6539,9 +6923,15 @@
       <c r="V71" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W71" s="39"/>
-      <c r="X71" s="39"/>
-      <c r="Y71" s="39"/>
+      <c r="W71" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X71" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y71" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z71" s="39"/>
       <c r="AA71" s="39"/>
     </row>
@@ -6561,11 +6951,11 @@
       </c>
       <c r="E72" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G72" s="29" t="s">
         <v>20</v>
@@ -6579,11 +6969,11 @@
       <c r="J72" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K72" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L72" s="31" t="s">
-        <v>20</v>
+      <c r="K72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M72" s="31" t="s">
         <v>20</v>
@@ -6597,14 +6987,14 @@
       <c r="P72" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q72" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R72" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S72" s="31" t="s">
-        <v>20</v>
+      <c r="Q72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R72" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="S72" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="T72" s="31" t="s">
         <v>20</v>
@@ -6615,9 +7005,15 @@
       <c r="V72" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="W72" s="39"/>
-      <c r="X72" s="39"/>
-      <c r="Y72" s="39"/>
+      <c r="W72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y72" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z72" s="39"/>
       <c r="AA72" s="39"/>
     </row>
@@ -6637,11 +7033,11 @@
       </c>
       <c r="E73" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G73" s="29" t="s">
         <v>20</v>
@@ -6649,14 +7045,14 @@
       <c r="H73" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I73" s="32" t="s">
-        <v>21</v>
+      <c r="I73" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="J73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K73" s="38" t="s">
-        <v>20</v>
+      <c r="K73" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="L73" s="31" t="s">
         <v>20</v>
@@ -6673,14 +7069,14 @@
       <c r="P73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q73" s="31" t="s">
-        <v>20</v>
+      <c r="Q73" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S73" s="32" t="s">
-        <v>21</v>
+      <c r="S73" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="T73" s="31" t="s">
         <v>20</v>
@@ -6688,12 +7084,18 @@
       <c r="U73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V73" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="W73" s="39"/>
-      <c r="X73" s="39"/>
-      <c r="Y73" s="39"/>
+      <c r="V73" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="W73" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X73" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y73" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="Z73" s="39"/>
       <c r="AA73" s="39"/>
     </row>
@@ -6717,16 +7119,16 @@
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="31" t="s">
-        <v>20</v>
+      <c r="H74" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="J74" s="31" t="s">
         <v>20</v>
@@ -6734,8 +7136,8 @@
       <c r="K74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L74" s="32" t="s">
-        <v>21</v>
+      <c r="L74" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="M74" s="31" t="s">
         <v>20</v>
@@ -6752,11 +7154,11 @@
       <c r="Q74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R74" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="S74" s="31" t="s">
-        <v>20</v>
+      <c r="R74" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S74" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="T74" s="31" t="s">
         <v>20</v>
@@ -6764,12 +7166,18 @@
       <c r="U74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V74" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="W74" s="39"/>
-      <c r="X74" s="39"/>
-      <c r="Y74" s="39"/>
+      <c r="V74" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="W74" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="X74" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y74" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="Z74" s="39"/>
       <c r="AA74" s="39"/>
     </row>
@@ -12100,6 +12508,7 @@
   <autoFilter ref="$A$6:$AA$74">
     <sortState ref="A6:AA74">
       <sortCondition ref="A6:A74"/>
+      <sortCondition descending="1" ref="E6:E74"/>
       <sortCondition ref="C6:C74"/>
     </sortState>
   </autoFilter>

--- a/attendance-files/MR/MR-S (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-S (EFGH) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="156">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -86,354 +86,378 @@
     <t>A</t>
   </si>
   <si>
+    <t>2024PGP126</t>
+  </si>
+  <si>
+    <t>Daksh Shah</t>
+  </si>
+  <si>
+    <t>2024PGP132</t>
+  </si>
+  <si>
+    <t>Deeksha Darpan</t>
+  </si>
+  <si>
+    <t>2024PGP149</t>
+  </si>
+  <si>
+    <t>Dyvan Te Dylan K A</t>
+  </si>
+  <si>
+    <t>2024PGP151</t>
+  </si>
+  <si>
+    <t>Ekta Singh</t>
+  </si>
+  <si>
+    <t>2024PGP537</t>
+  </si>
+  <si>
+    <t>Gayathri H</t>
+  </si>
+  <si>
+    <t>2021IPM050</t>
+  </si>
+  <si>
+    <t>Harsh Raj</t>
+  </si>
+  <si>
+    <t>2021IPM053</t>
+  </si>
+  <si>
+    <t>Heeral Chauhan</t>
+  </si>
+  <si>
+    <t>2024PGP512</t>
+  </si>
+  <si>
+    <t>Koshi Agrawal</t>
+  </si>
+  <si>
+    <t>2024PGP220</t>
+  </si>
+  <si>
+    <t>Lakshita Bhatia</t>
+  </si>
+  <si>
+    <t>2024PGP509</t>
+  </si>
+  <si>
+    <t>M.Rithik</t>
+  </si>
+  <si>
+    <t>2024PGP227</t>
+  </si>
+  <si>
+    <t>Madhan Raj S</t>
+  </si>
+  <si>
+    <t>2024PGP234</t>
+  </si>
+  <si>
+    <t>Manohar</t>
+  </si>
+  <si>
+    <t>2024PGP251</t>
+  </si>
+  <si>
+    <t>Muhammed Ajmal</t>
+  </si>
+  <si>
+    <t>2024PGP277</t>
+  </si>
+  <si>
+    <t>Palak</t>
+  </si>
+  <si>
+    <t>2021IPM104</t>
+  </si>
+  <si>
+    <t>Preyansh Panchal</t>
+  </si>
+  <si>
+    <t>2024PGP300</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>2024PGP323</t>
+  </si>
+  <si>
+    <t>Rishav Tewari</t>
+  </si>
+  <si>
+    <t>2024PGP326</t>
+  </si>
+  <si>
+    <t>Ritesh Yadav</t>
+  </si>
+  <si>
+    <t>2020IPM106</t>
+  </si>
+  <si>
+    <t>Ritika Singh</t>
+  </si>
+  <si>
+    <t>2020IPM111</t>
+  </si>
+  <si>
+    <t>Rohan Singh</t>
+  </si>
+  <si>
+    <t>2021IPM113</t>
+  </si>
+  <si>
+    <t>Saagarika V</t>
+  </si>
+  <si>
+    <t>2024PGP562</t>
+  </si>
+  <si>
+    <t>Sachin Yadav</t>
+  </si>
+  <si>
+    <t>2024PGP571</t>
+  </si>
+  <si>
+    <t>Samyak Jain</t>
+  </si>
+  <si>
+    <t>2023PGP334</t>
+  </si>
+  <si>
+    <t>Shreeya Dhongade</t>
+  </si>
+  <si>
+    <t>2021IPM131</t>
+  </si>
+  <si>
+    <t>Shubhayu Sadhukhan</t>
+  </si>
+  <si>
+    <t>2024PGP409</t>
+  </si>
+  <si>
+    <t>Sparsh</t>
+  </si>
+  <si>
+    <t>2024PGP539</t>
+  </si>
+  <si>
+    <t>Srijan Upadhyay</t>
+  </si>
+  <si>
+    <t>2021IPM149</t>
+  </si>
+  <si>
+    <t>Swastik Jaiswal</t>
+  </si>
+  <si>
+    <t>2021IPM150</t>
+  </si>
+  <si>
+    <t>Tanya Tibrewal</t>
+  </si>
+  <si>
+    <t>2024PGP435</t>
+  </si>
+  <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
+    <t>2024PGP021</t>
+  </si>
+  <si>
+    <t>Abhishek Kumar</t>
+  </si>
+  <si>
+    <t>2024PGP133</t>
+  </si>
+  <si>
+    <t>Deepika Jain</t>
+  </si>
+  <si>
+    <t>2024PGP136</t>
+  </si>
+  <si>
+    <t>Devanshu Ragi</t>
+  </si>
+  <si>
+    <t>2024PGP185</t>
+  </si>
+  <si>
+    <t>Ishika Jain</t>
+  </si>
+  <si>
+    <t>2021IPM094</t>
+  </si>
+  <si>
+    <t>Parth Khakholia</t>
+  </si>
+  <si>
+    <t>2021IPM103</t>
+  </si>
+  <si>
+    <t>Prerna Bharti</t>
+  </si>
+  <si>
+    <t>2024PGP295</t>
+  </si>
+  <si>
+    <t>Prithvi Singh</t>
+  </si>
+  <si>
+    <t>2024PGP372</t>
+  </si>
+  <si>
+    <t>Shashwat Varma</t>
+  </si>
+  <si>
+    <t>2024PGP399</t>
+  </si>
+  <si>
+    <t>Shwet Sharma</t>
+  </si>
+  <si>
+    <t>2021IPM140</t>
+  </si>
+  <si>
+    <t>Srishti Kumari</t>
+  </si>
+  <si>
+    <t>2024PGP440</t>
+  </si>
+  <si>
+    <t>Vaishnavi Ashok Mane</t>
+  </si>
+  <si>
+    <t>2024PGP011</t>
+  </si>
+  <si>
+    <t>Abhay Kumar</t>
+  </si>
+  <si>
+    <t>2024PGP049</t>
+  </si>
+  <si>
+    <t>Aman Agrawal</t>
+  </si>
+  <si>
+    <t>2024PGP064</t>
+  </si>
+  <si>
+    <t>Ankit Choudhary</t>
+  </si>
+  <si>
+    <t>2024PGP489</t>
+  </si>
+  <si>
+    <t>Chitrika Saini</t>
+  </si>
+  <si>
+    <t>2024PGP361</t>
+  </si>
+  <si>
+    <t>Sarthak Sanwal</t>
+  </si>
+  <si>
+    <t>2024PGP396</t>
+  </si>
+  <si>
+    <t>Shubhendu Das</t>
+  </si>
+  <si>
+    <t>2024PGP046</t>
+  </si>
+  <si>
+    <t>Akshita</t>
+  </si>
+  <si>
+    <t>2024PGP331</t>
+  </si>
+  <si>
+    <t>Rohan Malik</t>
+  </si>
+  <si>
+    <t>2024PGP353</t>
+  </si>
+  <si>
+    <t>Samyadeep Sarangi</t>
+  </si>
+  <si>
+    <t>2024PGP429</t>
+  </si>
+  <si>
+    <t>Tejasvi Gupta</t>
+  </si>
+  <si>
+    <t>2024PGP460</t>
+  </si>
+  <si>
+    <t>Yash Tripathy</t>
+  </si>
+  <si>
+    <t>2024PGP177</t>
+  </si>
+  <si>
+    <t>Harshita Patodia</t>
+  </si>
+  <si>
+    <t>2021IPM075</t>
+  </si>
+  <si>
+    <t>Lewil S</t>
+  </si>
+  <si>
+    <t>2024PGP499</t>
+  </si>
+  <si>
+    <t>Pullabhotla Abhijith</t>
+  </si>
+  <si>
+    <t>2023PGP506</t>
+  </si>
+  <si>
+    <t>Muskan</t>
+  </si>
+  <si>
+    <t>2024PGP318</t>
+  </si>
+  <si>
+    <t>Reyazuddin</t>
+  </si>
+  <si>
+    <t>2024PGP094</t>
+  </si>
+  <si>
+    <t>Ashutosh Arya</t>
+  </si>
+  <si>
     <t>2024PGP124</t>
   </si>
   <si>
     <t>Chinthala Jimitesh</t>
   </si>
   <si>
-    <t>2024PGP489</t>
-  </si>
-  <si>
-    <t>Chitrika Saini</t>
-  </si>
-  <si>
-    <t>2024PGP126</t>
-  </si>
-  <si>
-    <t>Daksh Shah</t>
-  </si>
-  <si>
-    <t>2024PGP132</t>
-  </si>
-  <si>
-    <t>Deeksha Darpan</t>
-  </si>
-  <si>
-    <t>2024PGP133</t>
-  </si>
-  <si>
-    <t>Deepika Jain</t>
-  </si>
-  <si>
-    <t>2024PGP136</t>
-  </si>
-  <si>
-    <t>Devanshu Ragi</t>
-  </si>
-  <si>
-    <t>2024PGP149</t>
-  </si>
-  <si>
-    <t>Dyvan Te Dylan K A</t>
-  </si>
-  <si>
-    <t>2024PGP151</t>
-  </si>
-  <si>
-    <t>Ekta Singh</t>
-  </si>
-  <si>
-    <t>2024PGP537</t>
-  </si>
-  <si>
-    <t>Gayathri H</t>
-  </si>
-  <si>
-    <t>2021IPM050</t>
-  </si>
-  <si>
-    <t>Harsh Raj</t>
-  </si>
-  <si>
-    <t>2024PGP177</t>
-  </si>
-  <si>
-    <t>Harshita Patodia</t>
-  </si>
-  <si>
-    <t>2021IPM053</t>
-  </si>
-  <si>
-    <t>Heeral Chauhan</t>
-  </si>
-  <si>
-    <t>2024PGP185</t>
-  </si>
-  <si>
-    <t>Ishika Jain</t>
-  </si>
-  <si>
-    <t>2024PGP512</t>
-  </si>
-  <si>
-    <t>Koshi Agrawal</t>
-  </si>
-  <si>
-    <t>2024PGP220</t>
-  </si>
-  <si>
-    <t>Lakshita Bhatia</t>
-  </si>
-  <si>
-    <t>2021IPM075</t>
-  </si>
-  <si>
-    <t>Lewil S</t>
-  </si>
-  <si>
-    <t>2024PGP509</t>
-  </si>
-  <si>
-    <t>M.Rithik</t>
-  </si>
-  <si>
-    <t>2024PGP227</t>
-  </si>
-  <si>
-    <t>Madhan Raj S</t>
-  </si>
-  <si>
-    <t>2024PGP234</t>
-  </si>
-  <si>
-    <t>Manohar</t>
-  </si>
-  <si>
-    <t>2024PGP251</t>
-  </si>
-  <si>
-    <t>Muhammed Ajmal</t>
-  </si>
-  <si>
-    <t>2023PGP506</t>
-  </si>
-  <si>
-    <t>Muskan</t>
-  </si>
-  <si>
-    <t>2024PGP277</t>
-  </si>
-  <si>
-    <t>Palak</t>
-  </si>
-  <si>
-    <t>2021IPM094</t>
-  </si>
-  <si>
-    <t>Parth Khakholia</t>
-  </si>
-  <si>
     <t>2024PGP467</t>
   </si>
   <si>
     <t>Pratik Kumar Rout</t>
   </si>
   <si>
-    <t>2021IPM103</t>
-  </si>
-  <si>
-    <t>Prerna Bharti</t>
-  </si>
-  <si>
-    <t>2021IPM104</t>
-  </si>
-  <si>
-    <t>Preyansh Panchal</t>
-  </si>
-  <si>
-    <t>2024PGP295</t>
-  </si>
-  <si>
-    <t>Prithvi Singh</t>
-  </si>
-  <si>
-    <t>2024PGP499</t>
-  </si>
-  <si>
-    <t>Pullabhotla Abhijith</t>
-  </si>
-  <si>
     <t>2024PGP299</t>
   </si>
   <si>
     <t>Raghav Loya</t>
   </si>
   <si>
-    <t>2024PGP300</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>2024PGP318</t>
-  </si>
-  <si>
-    <t>Reyazuddin</t>
-  </si>
-  <si>
-    <t>2024PGP323</t>
-  </si>
-  <si>
-    <t>Rishav Tewari</t>
-  </si>
-  <si>
-    <t>2024PGP326</t>
-  </si>
-  <si>
-    <t>Ritesh Yadav</t>
-  </si>
-  <si>
-    <t>2020IPM106</t>
-  </si>
-  <si>
-    <t>Ritika Singh</t>
-  </si>
-  <si>
-    <t>2024PGP331</t>
-  </si>
-  <si>
-    <t>Rohan Malik</t>
-  </si>
-  <si>
-    <t>2020IPM111</t>
-  </si>
-  <si>
-    <t>Rohan Singh</t>
-  </si>
-  <si>
-    <t>2021IPM113</t>
-  </si>
-  <si>
-    <t>Saagarika V</t>
-  </si>
-  <si>
-    <t>2024PGP562</t>
-  </si>
-  <si>
-    <t>Sachin Yadav</t>
-  </si>
-  <si>
-    <t>2024PGP353</t>
-  </si>
-  <si>
-    <t>Samyadeep Sarangi</t>
-  </si>
-  <si>
-    <t>2024PGP571</t>
-  </si>
-  <si>
-    <t>Samyak Jain</t>
-  </si>
-  <si>
-    <t>2024PGP361</t>
-  </si>
-  <si>
-    <t>Sarthak Sanwal</t>
-  </si>
-  <si>
-    <t>2024PGP372</t>
-  </si>
-  <si>
-    <t>Shashwat Varma</t>
-  </si>
-  <si>
-    <t>2023PGP334</t>
-  </si>
-  <si>
-    <t>Shreeya Dhongade</t>
-  </si>
-  <si>
-    <t>2021IPM131</t>
-  </si>
-  <si>
-    <t>Shubhayu Sadhukhan</t>
-  </si>
-  <si>
-    <t>2024PGP396</t>
-  </si>
-  <si>
-    <t>Shubhendu Das</t>
-  </si>
-  <si>
-    <t>2024PGP399</t>
-  </si>
-  <si>
-    <t>Shwet Sharma</t>
-  </si>
-  <si>
-    <t>2024PGP409</t>
-  </si>
-  <si>
-    <t>Sparsh</t>
-  </si>
-  <si>
-    <t>2024PGP539</t>
-  </si>
-  <si>
-    <t>Srijan Upadhyay</t>
-  </si>
-  <si>
-    <t>2021IPM140</t>
-  </si>
-  <si>
-    <t>Srishti Kumari</t>
-  </si>
-  <si>
-    <t>2021IPM149</t>
-  </si>
-  <si>
-    <t>Swastik Jaiswal</t>
-  </si>
-  <si>
-    <t>2021IPM150</t>
-  </si>
-  <si>
-    <t>Tanya Tibrewal</t>
-  </si>
-  <si>
-    <t>2024PGP429</t>
-  </si>
-  <si>
-    <t>Tejasvi Gupta</t>
-  </si>
-  <si>
-    <t>2024PGP435</t>
-  </si>
-  <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
-    <t>2024PGP440</t>
-  </si>
-  <si>
-    <t>Vaishnavi Ashok Mane</t>
-  </si>
-  <si>
-    <t>2024PGP460</t>
-  </si>
-  <si>
-    <t>Yash Tripathy</t>
-  </si>
-  <si>
     <t>2024PGP548</t>
   </si>
   <si>
     <t>Abdus Samad Khan</t>
   </si>
   <si>
-    <t>2024PGP011</t>
-  </si>
-  <si>
-    <t>Abhay Kumar</t>
-  </si>
-  <si>
-    <t>2024PGP021</t>
-  </si>
-  <si>
-    <t>Abhishek Kumar</t>
-  </si>
-  <si>
     <t>2024PGP027</t>
   </si>
   <si>
@@ -446,30 +470,12 @@
     <t>Akshanth R</t>
   </si>
   <si>
-    <t>2024PGP046</t>
-  </si>
-  <si>
-    <t>Akshita</t>
-  </si>
-  <si>
     <t>2024PGP048</t>
   </si>
   <si>
     <t>Alok Narayan</t>
   </si>
   <si>
-    <t>2024PGP049</t>
-  </si>
-  <si>
-    <t>Aman Agrawal</t>
-  </si>
-  <si>
-    <t>2024PGP064</t>
-  </si>
-  <si>
-    <t>Ankit Choudhary</t>
-  </si>
-  <si>
     <t>2024PGP482</t>
   </si>
   <si>
@@ -480,12 +486,6 @@
   </si>
   <si>
     <t>Arushi Kashyap</t>
-  </si>
-  <si>
-    <t>2024PGP094</t>
-  </si>
-  <si>
-    <t>Ashutosh Arya</t>
   </si>
 </sst>
 </file>
@@ -919,13 +919,13 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="11" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="12" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="13" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -1223,12 +1223,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.5"/>
-    <col customWidth="1" min="2" max="2" width="11.75"/>
+    <col customWidth="1" min="1" max="1" width="7.13"/>
+    <col customWidth="1" min="2" max="2" width="19.63"/>
     <col customWidth="1" min="3" max="3" width="19.38"/>
     <col customWidth="1" min="4" max="4" width="12.88"/>
-    <col customWidth="1" min="5" max="5" width="9.75"/>
-    <col customWidth="1" min="6" max="6" width="9.63"/>
+    <col customWidth="1" min="5" max="5" width="14.0"/>
+    <col customWidth="1" min="6" max="6" width="12.75"/>
     <col customWidth="1" min="7" max="15" width="4.38"/>
     <col customWidth="1" min="16" max="26" width="5.38"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="AA5" s="17"/>
     </row>
-    <row r="6" ht="33.0" customHeight="1">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>11</v>
       </c>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1684,9 +1684,7 @@
       <c r="Y7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Z7" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z7" s="33"/>
       <c r="AA7" s="33"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -1705,7 +1703,7 @@
       </c>
       <c r="E8" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
@@ -1723,14 +1721,14 @@
       <c r="J8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>20</v>
+      <c r="K8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N8" s="31" t="s">
         <v>20</v>
@@ -1738,8 +1736,8 @@
       <c r="O8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>21</v>
+      <c r="P8" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="Q8" s="31" t="s">
         <v>20</v>
@@ -1747,14 +1745,14 @@
       <c r="R8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="T8" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="U8" s="31" t="s">
-        <v>20</v>
+      <c r="S8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V8" s="31" t="s">
         <v>20</v>
@@ -1768,9 +1766,7 @@
       <c r="Y8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z8" s="39"/>
       <c r="AA8" s="39"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -1789,14 +1785,14 @@
       </c>
       <c r="E9" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="H9" s="38" t="s">
         <v>20</v>
@@ -1807,8 +1803,8 @@
       <c r="J9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="32" t="s">
-        <v>21</v>
+      <c r="K9" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="L9" s="31" t="s">
         <v>20</v>
@@ -1819,14 +1815,14 @@
       <c r="N9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="31" t="s">
-        <v>20</v>
+      <c r="O9" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="31" t="s">
-        <v>20</v>
+      <c r="Q9" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R9" s="31" t="s">
         <v>20</v>
@@ -1834,8 +1830,8 @@
       <c r="S9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="31" t="s">
-        <v>20</v>
+      <c r="T9" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="U9" s="31" t="s">
         <v>20</v>
@@ -1849,12 +1845,10 @@
       <c r="X9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="39"/>
       <c r="AA9" s="39"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1877,13 +1871,13 @@
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>20</v>
@@ -1909,8 +1903,8 @@
       <c r="P10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="31" t="s">
-        <v>20</v>
+      <c r="Q10" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R10" s="31" t="s">
         <v>20</v>
@@ -1918,11 +1912,11 @@
       <c r="S10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="U10" s="32" t="s">
-        <v>21</v>
+      <c r="T10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="V10" s="31" t="s">
         <v>20</v>
@@ -1933,12 +1927,10 @@
       <c r="X10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y10" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z10" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="39"/>
       <c r="AA10" s="39"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1961,10 +1953,10 @@
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="H11" s="38" t="s">
         <v>20</v>
@@ -1981,20 +1973,20 @@
       <c r="L11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="31" t="s">
-        <v>20</v>
+      <c r="M11" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="32" t="s">
-        <v>21</v>
+      <c r="O11" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="P11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="32" t="s">
-        <v>21</v>
+      <c r="Q11" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R11" s="31" t="s">
         <v>20</v>
@@ -2005,8 +1997,8 @@
       <c r="T11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="U11" s="31" t="s">
-        <v>20</v>
+      <c r="U11" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V11" s="31" t="s">
         <v>20</v>
@@ -2017,12 +2009,10 @@
       <c r="X11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y11" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z11" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y11" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z11" s="39"/>
       <c r="AA11" s="39"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -2041,11 +2031,11 @@
       </c>
       <c r="E12" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>20</v>
@@ -2068,17 +2058,17 @@
       <c r="M12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="31" t="s">
-        <v>20</v>
+      <c r="N12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R12" s="31" t="s">
         <v>20</v>
@@ -2092,8 +2082,8 @@
       <c r="U12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V12" s="32" t="s">
-        <v>21</v>
+      <c r="V12" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="W12" s="32" t="s">
         <v>21</v>
@@ -2104,9 +2094,7 @@
       <c r="Y12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z12" s="39"/>
       <c r="AA12" s="39"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -2129,10 +2117,10 @@
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="H13" s="41" t="s">
         <v>21</v>
@@ -2143,8 +2131,8 @@
       <c r="J13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="32" t="s">
-        <v>21</v>
+      <c r="K13" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="L13" s="31" t="s">
         <v>20</v>
@@ -2155,8 +2143,8 @@
       <c r="N13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="31" t="s">
-        <v>20</v>
+      <c r="O13" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P13" s="31" t="s">
         <v>20</v>
@@ -2170,8 +2158,8 @@
       <c r="S13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="32" t="s">
-        <v>21</v>
+      <c r="T13" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="U13" s="31" t="s">
         <v>20</v>
@@ -2185,12 +2173,10 @@
       <c r="X13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y13" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z13" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z13" s="39"/>
       <c r="AA13" s="39"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -2213,13 +2199,13 @@
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>20</v>
@@ -2233,11 +2219,11 @@
       <c r="L14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="31" t="s">
-        <v>20</v>
+      <c r="M14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O14" s="31" t="s">
         <v>20</v>
@@ -2245,14 +2231,14 @@
       <c r="P14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="32" t="s">
-        <v>21</v>
+      <c r="Q14" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="31" t="s">
-        <v>20</v>
+      <c r="S14" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="T14" s="31" t="s">
         <v>20</v>
@@ -2260,21 +2246,19 @@
       <c r="U14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V14" s="31" t="s">
-        <v>20</v>
+      <c r="V14" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="W14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="X14" s="31" t="s">
-        <v>20</v>
+      <c r="X14" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="Y14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Z14" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z14" s="39"/>
       <c r="AA14" s="39"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -2297,7 +2281,7 @@
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>20</v>
@@ -2317,8 +2301,8 @@
       <c r="L15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="32" t="s">
-        <v>21</v>
+      <c r="M15" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="N15" s="31" t="s">
         <v>20</v>
@@ -2332,8 +2316,8 @@
       <c r="Q15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R15" s="31" t="s">
-        <v>20</v>
+      <c r="R15" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S15" s="31" t="s">
         <v>20</v>
@@ -2356,9 +2340,7 @@
       <c r="Y15" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z15" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z15" s="39"/>
       <c r="AA15" s="39"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -2381,13 +2363,13 @@
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="38" t="s">
-        <v>20</v>
+      <c r="H16" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>20</v>
@@ -2401,20 +2383,20 @@
       <c r="L16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="31" t="s">
-        <v>20</v>
+      <c r="M16" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16" s="32" t="s">
-        <v>21</v>
+      <c r="O16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R16" s="31" t="s">
         <v>20</v>
@@ -2431,18 +2413,16 @@
       <c r="V16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W16" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="X16" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y16" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z16" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="W16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z16" s="39"/>
       <c r="AA16" s="39"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -2465,10 +2445,10 @@
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="H17" s="41" t="s">
         <v>21</v>
@@ -2491,11 +2471,11 @@
       <c r="N17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="31" t="s">
-        <v>20</v>
+      <c r="O17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="Q17" s="31" t="s">
         <v>20</v>
@@ -2509,11 +2489,11 @@
       <c r="T17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="V17" s="31" t="s">
-        <v>20</v>
+      <c r="U17" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="V17" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="W17" s="31" t="s">
         <v>20</v>
@@ -2521,12 +2501,10 @@
       <c r="X17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z17" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z17" s="39"/>
       <c r="AA17" s="39"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -2545,11 +2523,11 @@
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>20</v>
@@ -2572,8 +2550,8 @@
       <c r="M18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="31" t="s">
-        <v>20</v>
+      <c r="N18" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>20</v>
@@ -2599,18 +2577,16 @@
       <c r="V18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W18" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="X18" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y18" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z18" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="W18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="X18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z18" s="39"/>
       <c r="AA18" s="39"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -2633,13 +2609,13 @@
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="38" t="s">
-        <v>20</v>
+      <c r="H19" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>20</v>
@@ -2656,11 +2632,11 @@
       <c r="M19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>20</v>
+      <c r="N19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P19" s="31" t="s">
         <v>20</v>
@@ -2680,21 +2656,19 @@
       <c r="U19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V19" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="W19" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="X19" s="32" t="s">
-        <v>21</v>
+      <c r="V19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="X19" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="Y19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Z19" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z19" s="39"/>
       <c r="AA19" s="39"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -2717,13 +2691,13 @@
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="41" t="s">
-        <v>21</v>
+      <c r="H20" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>20</v>
@@ -2746,11 +2720,11 @@
       <c r="O20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P20" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="31" t="s">
-        <v>20</v>
+      <c r="P20" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R20" s="31" t="s">
         <v>20</v>
@@ -2767,18 +2741,16 @@
       <c r="V20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W20" s="31" t="s">
-        <v>20</v>
+      <c r="W20" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="X20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y20" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z20" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y20" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z20" s="39"/>
       <c r="AA20" s="39"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2801,7 +2773,7 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>20</v>
@@ -2833,11 +2805,11 @@
       <c r="P21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="32" t="s">
-        <v>21</v>
+      <c r="Q21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="S21" s="31" t="s">
         <v>20</v>
@@ -2860,9 +2832,7 @@
       <c r="Y21" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z21" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z21" s="39"/>
       <c r="AA21" s="39"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2885,13 +2855,13 @@
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>20</v>
@@ -2902,14 +2872,14 @@
       <c r="K22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="31" t="s">
-        <v>20</v>
+      <c r="L22" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O22" s="31" t="s">
         <v>20</v>
@@ -2938,15 +2908,13 @@
       <c r="W22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="X22" s="32" t="s">
-        <v>21</v>
+      <c r="X22" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="Y22" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z22" s="39"/>
       <c r="AA22" s="39"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2965,17 +2933,17 @@
       </c>
       <c r="E23" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="38" t="s">
-        <v>20</v>
+      <c r="H23" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>20</v>
@@ -2995,8 +2963,8 @@
       <c r="N23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="31" t="s">
-        <v>20</v>
+      <c r="O23" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P23" s="31" t="s">
         <v>20</v>
@@ -3016,8 +2984,8 @@
       <c r="U23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V23" s="31" t="s">
-        <v>20</v>
+      <c r="V23" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="W23" s="31" t="s">
         <v>20</v>
@@ -3025,12 +2993,10 @@
       <c r="X23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y23" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z23" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y23" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z23" s="39"/>
       <c r="AA23" s="39"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -3053,13 +3019,13 @@
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="41" t="s">
-        <v>21</v>
+      <c r="H24" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>20</v>
@@ -3076,8 +3042,8 @@
       <c r="M24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="31" t="s">
-        <v>20</v>
+      <c r="N24" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O24" s="31" t="s">
         <v>20</v>
@@ -3097,8 +3063,8 @@
       <c r="T24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="U24" s="32" t="s">
-        <v>21</v>
+      <c r="U24" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="V24" s="32" t="s">
         <v>21</v>
@@ -3109,12 +3075,10 @@
       <c r="X24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y24" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z24" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z24" s="39"/>
       <c r="AA24" s="39"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -3137,7 +3101,7 @@
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>20</v>
@@ -3160,17 +3124,17 @@
       <c r="M25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="32" t="s">
-        <v>21</v>
+      <c r="N25" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="O25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P25" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="31" t="s">
-        <v>20</v>
+      <c r="P25" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R25" s="31" t="s">
         <v>20</v>
@@ -3181,24 +3145,22 @@
       <c r="T25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="U25" s="31" t="s">
-        <v>20</v>
+      <c r="U25" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W25" s="32" t="s">
-        <v>21</v>
+      <c r="W25" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="X25" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Y25" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z25" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z25" s="39"/>
       <c r="AA25" s="39"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -3221,16 +3183,16 @@
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>20</v>
+      <c r="H26" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="J26" s="31" t="s">
         <v>20</v>
@@ -3247,23 +3209,23 @@
       <c r="N26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O26" s="32" t="s">
-        <v>21</v>
+      <c r="O26" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="P26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="31" t="s">
-        <v>20</v>
+      <c r="Q26" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="T26" s="31" t="s">
-        <v>20</v>
+      <c r="S26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="U26" s="31" t="s">
         <v>20</v>
@@ -3271,18 +3233,16 @@
       <c r="V26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W26" s="32" t="s">
-        <v>21</v>
+      <c r="W26" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="X26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y26" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z26" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y26" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z26" s="39"/>
       <c r="AA26" s="39"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -3305,7 +3265,7 @@
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>20</v>
@@ -3319,26 +3279,26 @@
       <c r="J27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="31" t="s">
-        <v>20</v>
+      <c r="K27" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q27" s="32" t="s">
-        <v>21</v>
+      <c r="M27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R27" s="31" t="s">
         <v>20</v>
@@ -3355,18 +3315,16 @@
       <c r="V27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W27" s="32" t="s">
-        <v>21</v>
+      <c r="W27" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="X27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y27" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z27" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z27" s="39"/>
       <c r="AA27" s="39"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3385,20 +3343,20 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="H28" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="32" t="s">
-        <v>21</v>
+      <c r="I28" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="J28" s="31" t="s">
         <v>20</v>
@@ -3406,8 +3364,8 @@
       <c r="K28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="32" t="s">
-        <v>21</v>
+      <c r="L28" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="M28" s="31" t="s">
         <v>20</v>
@@ -3415,8 +3373,8 @@
       <c r="N28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O28" s="31" t="s">
-        <v>20</v>
+      <c r="O28" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P28" s="31" t="s">
         <v>20</v>
@@ -3427,8 +3385,8 @@
       <c r="R28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="32" t="s">
-        <v>21</v>
+      <c r="S28" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="T28" s="31" t="s">
         <v>20</v>
@@ -3436,8 +3394,8 @@
       <c r="U28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V28" s="32" t="s">
-        <v>21</v>
+      <c r="V28" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="W28" s="32" t="s">
         <v>21</v>
@@ -3448,9 +3406,7 @@
       <c r="Y28" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z28" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z28" s="39"/>
       <c r="AA28" s="39"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3473,13 +3429,13 @@
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="30" t="s">
-        <v>20</v>
+      <c r="H29" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="I29" s="31" t="s">
         <v>20</v>
@@ -3493,8 +3449,8 @@
       <c r="L29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M29" s="31" t="s">
-        <v>20</v>
+      <c r="M29" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N29" s="31" t="s">
         <v>20</v>
@@ -3514,14 +3470,14 @@
       <c r="S29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T29" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="U29" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="V29" s="31" t="s">
-        <v>20</v>
+      <c r="T29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="V29" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="W29" s="31" t="s">
         <v>20</v>
@@ -3529,12 +3485,10 @@
       <c r="X29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y29" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z29" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z29" s="39"/>
       <c r="AA29" s="39"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -3553,17 +3507,17 @@
       </c>
       <c r="E30" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="38" t="s">
-        <v>20</v>
+      <c r="H30" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="I30" s="31" t="s">
         <v>20</v>
@@ -3580,14 +3534,14 @@
       <c r="M30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="31" t="s">
-        <v>20</v>
+      <c r="N30" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P30" s="31" t="s">
-        <v>20</v>
+      <c r="P30" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="Q30" s="32" t="s">
         <v>21</v>
@@ -3610,15 +3564,13 @@
       <c r="W30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="X30" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y30" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z30" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="X30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z30" s="39"/>
       <c r="AA30" s="39"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -3637,7 +3589,7 @@
       </c>
       <c r="E31" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
@@ -3655,14 +3607,14 @@
       <c r="J31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="31" t="s">
-        <v>20</v>
+      <c r="K31" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M31" s="32" t="s">
-        <v>21</v>
+      <c r="M31" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="N31" s="31" t="s">
         <v>20</v>
@@ -3673,17 +3625,17 @@
       <c r="P31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="31" t="s">
-        <v>20</v>
+      <c r="Q31" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R31" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="S31" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="T31" s="32" t="s">
-        <v>21</v>
+      <c r="S31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T31" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="U31" s="31" t="s">
         <v>20</v>
@@ -3700,9 +3652,7 @@
       <c r="Y31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Z31" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z31" s="39"/>
       <c r="AA31" s="39"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -3721,11 +3671,11 @@
       </c>
       <c r="E32" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>20</v>
@@ -3739,14 +3689,14 @@
       <c r="J32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="31" t="s">
-        <v>20</v>
+      <c r="K32" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M32" s="31" t="s">
-        <v>20</v>
+      <c r="M32" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N32" s="31" t="s">
         <v>20</v>
@@ -3754,14 +3704,14 @@
       <c r="O32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P32" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R32" s="32" t="s">
-        <v>21</v>
+      <c r="P32" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="S32" s="31" t="s">
         <v>20</v>
@@ -3769,8 +3719,8 @@
       <c r="T32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="U32" s="32" t="s">
-        <v>21</v>
+      <c r="U32" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="V32" s="31" t="s">
         <v>20</v>
@@ -3781,12 +3731,10 @@
       <c r="X32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y32" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z32" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y32" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z32" s="39"/>
       <c r="AA32" s="39"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -3809,10 +3757,10 @@
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>20</v>
@@ -3826,14 +3774,14 @@
       <c r="K33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33" s="32" t="s">
-        <v>21</v>
+      <c r="L33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="O33" s="31" t="s">
         <v>20</v>
@@ -3847,8 +3795,8 @@
       <c r="R33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S33" s="31" t="s">
-        <v>20</v>
+      <c r="S33" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="T33" s="31" t="s">
         <v>20</v>
@@ -3859,8 +3807,8 @@
       <c r="V33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W33" s="31" t="s">
-        <v>20</v>
+      <c r="W33" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="X33" s="31" t="s">
         <v>20</v>
@@ -3868,9 +3816,7 @@
       <c r="Y33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z33" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z33" s="39"/>
       <c r="AA33" s="39"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -3893,13 +3839,13 @@
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="42" t="s">
-        <v>21</v>
+      <c r="H34" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="I34" s="31" t="s">
         <v>20</v>
@@ -3910,8 +3856,8 @@
       <c r="K34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="32" t="s">
-        <v>21</v>
+      <c r="L34" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="M34" s="31" t="s">
         <v>20</v>
@@ -3925,8 +3871,8 @@
       <c r="P34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="31" t="s">
-        <v>20</v>
+      <c r="Q34" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R34" s="31" t="s">
         <v>20</v>
@@ -3934,27 +3880,25 @@
       <c r="S34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T34" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="U34" s="31" t="s">
-        <v>20</v>
+      <c r="T34" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U34" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W34" s="32" t="s">
-        <v>21</v>
+      <c r="W34" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="X34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y34" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z34" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y34" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z34" s="39"/>
       <c r="AA34" s="39"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -3973,11 +3917,11 @@
       </c>
       <c r="E35" s="27">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>20</v>
@@ -3991,54 +3935,52 @@
       <c r="J35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="32" t="s">
-        <v>21</v>
+      <c r="K35" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="L35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M35" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="O35" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" s="32" t="s">
-        <v>21</v>
+      <c r="M35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="Q35" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="R35" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="S35" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="T35" s="32" t="s">
-        <v>21</v>
+      <c r="R35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T35" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="U35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V35" s="31" t="s">
-        <v>20</v>
+      <c r="V35" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="W35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="X35" s="32" t="s">
-        <v>21</v>
+      <c r="X35" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="Y35" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z35" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="Z35" s="39"/>
       <c r="AA35" s="39"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -4057,7 +3999,7 @@
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
@@ -4066,11 +4008,11 @@
       <c r="G36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="31" t="s">
-        <v>20</v>
+      <c r="H36" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="J36" s="31" t="s">
         <v>20</v>
@@ -4081,20 +4023,20 @@
       <c r="L36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M36" s="32" t="s">
-        <v>21</v>
+      <c r="M36" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="N36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O36" s="31" t="s">
-        <v>20</v>
+      <c r="O36" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Q36" s="32" t="s">
-        <v>21</v>
+      <c r="Q36" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R36" s="31" t="s">
         <v>20</v>
@@ -4111,18 +4053,16 @@
       <c r="V36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W36" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="X36" s="32" t="s">
-        <v>21</v>
+      <c r="W36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X36" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="Y36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Z36" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z36" s="39"/>
       <c r="AA36" s="39"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -4145,13 +4085,13 @@
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="41" t="s">
-        <v>21</v>
+      <c r="H37" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="I37" s="31" t="s">
         <v>20</v>
@@ -4165,14 +4105,14 @@
       <c r="L37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M37" s="31" t="s">
-        <v>20</v>
+      <c r="M37" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O37" s="32" t="s">
-        <v>21</v>
+      <c r="O37" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="P37" s="31" t="s">
         <v>20</v>
@@ -4186,11 +4126,11 @@
       <c r="S37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T37" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="U37" s="31" t="s">
-        <v>20</v>
+      <c r="T37" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V37" s="32" t="s">
         <v>21</v>
@@ -4201,12 +4141,10 @@
       <c r="X37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y37" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z37" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z37" s="39"/>
       <c r="AA37" s="39"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -4225,17 +4163,17 @@
       </c>
       <c r="E38" s="27">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="42" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="I38" s="31" t="s">
         <v>20</v>
@@ -4255,8 +4193,8 @@
       <c r="N38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O38" s="32" t="s">
-        <v>21</v>
+      <c r="O38" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="P38" s="31" t="s">
         <v>20</v>
@@ -4264,8 +4202,8 @@
       <c r="Q38" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="R38" s="32" t="s">
-        <v>21</v>
+      <c r="R38" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="S38" s="31" t="s">
         <v>20</v>
@@ -4285,12 +4223,10 @@
       <c r="X38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y38" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z38" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y38" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z38" s="39"/>
       <c r="AA38" s="39"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -4309,7 +4245,7 @@
       </c>
       <c r="E39" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
@@ -4342,8 +4278,8 @@
       <c r="O39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="32" t="s">
-        <v>21</v>
+      <c r="P39" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="Q39" s="31" t="s">
         <v>20</v>
@@ -4363,18 +4299,16 @@
       <c r="V39" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="W39" s="31" t="s">
-        <v>20</v>
+      <c r="W39" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="X39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y39" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z39" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z39" s="39"/>
       <c r="AA39" s="39"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -4393,7 +4327,7 @@
       </c>
       <c r="E40" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
@@ -4402,8 +4336,8 @@
       <c r="G40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="30" t="s">
-        <v>20</v>
+      <c r="H40" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="I40" s="30" t="s">
         <v>20</v>
@@ -4411,8 +4345,8 @@
       <c r="J40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="31" t="s">
-        <v>20</v>
+      <c r="K40" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L40" s="31" t="s">
         <v>20</v>
@@ -4426,11 +4360,11 @@
       <c r="O40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P40" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q40" s="32" t="s">
-        <v>21</v>
+      <c r="P40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R40" s="31" t="s">
         <v>20</v>
@@ -4438,11 +4372,11 @@
       <c r="S40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T40" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="U40" s="32" t="s">
-        <v>21</v>
+      <c r="T40" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U40" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="V40" s="31" t="s">
         <v>20</v>
@@ -4450,15 +4384,13 @@
       <c r="W40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="X40" s="32" t="s">
-        <v>21</v>
+      <c r="X40" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="Y40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Z40" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z40" s="39"/>
       <c r="AA40" s="39"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -4477,7 +4409,7 @@
       </c>
       <c r="E41" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
@@ -4486,11 +4418,11 @@
       <c r="G41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="32" t="s">
-        <v>21</v>
+      <c r="H41" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="J41" s="31" t="s">
         <v>20</v>
@@ -4507,14 +4439,14 @@
       <c r="N41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O41" s="31" t="s">
-        <v>20</v>
+      <c r="O41" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="32" t="s">
-        <v>21</v>
+      <c r="Q41" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R41" s="31" t="s">
         <v>20</v>
@@ -4522,8 +4454,8 @@
       <c r="S41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T41" s="32" t="s">
-        <v>21</v>
+      <c r="T41" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="U41" s="31" t="s">
         <v>20</v>
@@ -4540,9 +4472,7 @@
       <c r="Y41" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z41" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z41" s="39"/>
       <c r="AA41" s="39"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -4561,11 +4491,11 @@
       </c>
       <c r="E42" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>20</v>
@@ -4597,8 +4527,8 @@
       <c r="P42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="31" t="s">
-        <v>20</v>
+      <c r="Q42" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R42" s="31" t="s">
         <v>20</v>
@@ -4618,15 +4548,13 @@
       <c r="W42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="X42" s="31" t="s">
-        <v>20</v>
+      <c r="X42" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="Y42" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z42" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z42" s="39"/>
       <c r="AA42" s="39"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -4645,7 +4573,7 @@
       </c>
       <c r="E43" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
@@ -4663,17 +4591,17 @@
       <c r="J43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="32" t="s">
-        <v>21</v>
+      <c r="K43" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="L43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="N43" s="32" t="s">
-        <v>21</v>
+      <c r="M43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="O43" s="31" t="s">
         <v>20</v>
@@ -4684,8 +4612,8 @@
       <c r="Q43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R43" s="31" t="s">
-        <v>20</v>
+      <c r="R43" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S43" s="31" t="s">
         <v>20</v>
@@ -4693,8 +4621,8 @@
       <c r="T43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="U43" s="31" t="s">
-        <v>20</v>
+      <c r="U43" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V43" s="31" t="s">
         <v>20</v>
@@ -4708,9 +4636,7 @@
       <c r="Y43" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z43" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z43" s="39"/>
       <c r="AA43" s="39"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -4729,7 +4655,7 @@
       </c>
       <c r="E44" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
@@ -4750,8 +4676,8 @@
       <c r="K44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L44" s="31" t="s">
-        <v>20</v>
+      <c r="L44" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M44" s="31" t="s">
         <v>20</v>
@@ -4759,8 +4685,8 @@
       <c r="N44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O44" s="32" t="s">
-        <v>21</v>
+      <c r="O44" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="P44" s="31" t="s">
         <v>20</v>
@@ -4789,12 +4715,10 @@
       <c r="X44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y44" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z44" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z44" s="39"/>
       <c r="AA44" s="39"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -4813,7 +4737,7 @@
       </c>
       <c r="E45" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
@@ -4822,8 +4746,8 @@
       <c r="G45" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="41" t="s">
-        <v>21</v>
+      <c r="H45" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="I45" s="31" t="s">
         <v>20</v>
@@ -4834,11 +4758,11 @@
       <c r="K45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L45" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45" s="32" t="s">
-        <v>21</v>
+      <c r="L45" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="N45" s="31" t="s">
         <v>20</v>
@@ -4849,14 +4773,14 @@
       <c r="P45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q45" s="32" t="s">
-        <v>21</v>
+      <c r="Q45" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="31" t="s">
-        <v>20</v>
+      <c r="S45" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="T45" s="31" t="s">
         <v>20</v>
@@ -4864,8 +4788,8 @@
       <c r="U45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V45" s="32" t="s">
-        <v>21</v>
+      <c r="V45" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="W45" s="31" t="s">
         <v>20</v>
@@ -4873,12 +4797,10 @@
       <c r="X45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y45" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z45" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y45" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z45" s="39"/>
       <c r="AA45" s="39"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -4897,11 +4819,11 @@
       </c>
       <c r="E46" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>20</v>
@@ -4924,8 +4846,8 @@
       <c r="M46" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="32" t="s">
-        <v>21</v>
+      <c r="N46" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="O46" s="31" t="s">
         <v>20</v>
@@ -4942,11 +4864,11 @@
       <c r="S46" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T46" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="U46" s="31" t="s">
-        <v>20</v>
+      <c r="T46" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U46" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V46" s="31" t="s">
         <v>20</v>
@@ -4957,12 +4879,10 @@
       <c r="X46" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y46" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z46" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y46" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z46" s="39"/>
       <c r="AA46" s="39"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -4981,7 +4901,7 @@
       </c>
       <c r="E47" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
@@ -4990,8 +4910,8 @@
       <c r="G47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="42" t="s">
-        <v>21</v>
+      <c r="H47" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="I47" s="31" t="s">
         <v>20</v>
@@ -5008,17 +4928,17 @@
       <c r="M47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="O47" s="31" t="s">
-        <v>20</v>
+      <c r="N47" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P47" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Q47" s="32" t="s">
-        <v>21</v>
+      <c r="Q47" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R47" s="31" t="s">
         <v>20</v>
@@ -5032,8 +4952,8 @@
       <c r="U47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V47" s="31" t="s">
-        <v>20</v>
+      <c r="V47" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="W47" s="31" t="s">
         <v>20</v>
@@ -5044,9 +4964,7 @@
       <c r="Y47" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Z47" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z47" s="39"/>
       <c r="AA47" s="39"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -5065,11 +4983,11 @@
       </c>
       <c r="E48" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>20</v>
@@ -5083,14 +5001,14 @@
       <c r="J48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="31" t="s">
-        <v>20</v>
+      <c r="K48" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M48" s="32" t="s">
-        <v>21</v>
+      <c r="M48" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="N48" s="31" t="s">
         <v>20</v>
@@ -5104,8 +5022,8 @@
       <c r="Q48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R48" s="32" t="s">
-        <v>21</v>
+      <c r="R48" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="S48" s="31" t="s">
         <v>20</v>
@@ -5116,8 +5034,8 @@
       <c r="U48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V48" s="31" t="s">
-        <v>20</v>
+      <c r="V48" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="W48" s="31" t="s">
         <v>20</v>
@@ -5125,12 +5043,10 @@
       <c r="X48" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y48" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z48" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y48" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z48" s="39"/>
       <c r="AA48" s="39"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -5149,11 +5065,11 @@
       </c>
       <c r="E49" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G49" s="29" t="s">
         <v>20</v>
@@ -5170,8 +5086,8 @@
       <c r="K49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="32" t="s">
-        <v>21</v>
+      <c r="L49" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="M49" s="31" t="s">
         <v>20</v>
@@ -5185,14 +5101,14 @@
       <c r="P49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q49" s="31" t="s">
-        <v>20</v>
+      <c r="Q49" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S49" s="32" t="s">
-        <v>21</v>
+      <c r="S49" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="T49" s="31" t="s">
         <v>20</v>
@@ -5212,9 +5128,7 @@
       <c r="Y49" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z49" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="Z49" s="39"/>
       <c r="AA49" s="39"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -5233,17 +5147,17 @@
       </c>
       <c r="E50" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="42" t="s">
-        <v>21</v>
+      <c r="H50" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="I50" s="31" t="s">
         <v>20</v>
@@ -5251,8 +5165,8 @@
       <c r="J50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="32" t="s">
-        <v>21</v>
+      <c r="K50" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="L50" s="31" t="s">
         <v>20</v>
@@ -5260,20 +5174,20 @@
       <c r="M50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O50" s="31" t="s">
-        <v>20</v>
+      <c r="N50" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q50" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R50" s="32" t="s">
-        <v>21</v>
+      <c r="Q50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="S50" s="31" t="s">
         <v>20</v>
@@ -5296,9 +5210,7 @@
       <c r="Y50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Z50" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z50" s="39"/>
       <c r="AA50" s="39"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -5317,11 +5229,11 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>20</v>
@@ -5335,8 +5247,8 @@
       <c r="J51" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K51" s="32" t="s">
-        <v>21</v>
+      <c r="K51" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="L51" s="31" t="s">
         <v>20</v>
@@ -5350,8 +5262,8 @@
       <c r="O51" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="32" t="s">
-        <v>21</v>
+      <c r="P51" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="Q51" s="32" t="s">
         <v>21</v>
@@ -5380,9 +5292,7 @@
       <c r="Y51" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Z51" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z51" s="39"/>
       <c r="AA51" s="39"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -5405,7 +5315,7 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>20</v>
@@ -5419,8 +5329,8 @@
       <c r="J52" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K52" s="31" t="s">
-        <v>20</v>
+      <c r="K52" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L52" s="31" t="s">
         <v>20</v>
@@ -5449,8 +5359,8 @@
       <c r="T52" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="U52" s="32" t="s">
-        <v>21</v>
+      <c r="U52" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="V52" s="31" t="s">
         <v>20</v>
@@ -5464,9 +5374,7 @@
       <c r="Y52" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z52" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z52" s="39"/>
       <c r="AA52" s="39"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -5485,11 +5393,11 @@
       </c>
       <c r="E53" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>20</v>
@@ -5509,8 +5417,8 @@
       <c r="L53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M53" s="31" t="s">
-        <v>20</v>
+      <c r="M53" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N53" s="31" t="s">
         <v>20</v>
@@ -5524,17 +5432,17 @@
       <c r="Q53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="31" t="s">
-        <v>20</v>
+      <c r="R53" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T53" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="U53" s="32" t="s">
-        <v>21</v>
+      <c r="T53" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U53" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="V53" s="31" t="s">
         <v>20</v>
@@ -5545,12 +5453,10 @@
       <c r="X53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y53" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z53" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y53" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z53" s="39"/>
       <c r="AA53" s="39"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -5569,11 +5475,11 @@
       </c>
       <c r="E54" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>20</v>
@@ -5593,8 +5499,8 @@
       <c r="L54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M54" s="32" t="s">
-        <v>21</v>
+      <c r="M54" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="N54" s="31" t="s">
         <v>20</v>
@@ -5611,20 +5517,20 @@
       <c r="R54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S54" s="32" t="s">
-        <v>21</v>
+      <c r="S54" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="T54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="U54" s="31" t="s">
-        <v>20</v>
+      <c r="U54" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W54" s="32" t="s">
-        <v>21</v>
+      <c r="W54" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="X54" s="31" t="s">
         <v>20</v>
@@ -5632,9 +5538,7 @@
       <c r="Y54" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z54" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z54" s="39"/>
       <c r="AA54" s="39"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -5653,11 +5557,11 @@
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>20</v>
@@ -5689,8 +5593,8 @@
       <c r="P55" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q55" s="32" t="s">
-        <v>21</v>
+      <c r="Q55" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R55" s="31" t="s">
         <v>20</v>
@@ -5701,8 +5605,8 @@
       <c r="T55" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="U55" s="32" t="s">
-        <v>21</v>
+      <c r="U55" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="V55" s="31" t="s">
         <v>20</v>
@@ -5713,12 +5617,10 @@
       <c r="X55" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y55" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z55" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y55" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z55" s="39"/>
       <c r="AA55" s="39"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -5737,11 +5639,11 @@
       </c>
       <c r="E56" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>20</v>
@@ -5767,11 +5669,11 @@
       <c r="N56" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O56" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P56" s="32" t="s">
-        <v>21</v>
+      <c r="O56" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="Q56" s="31" t="s">
         <v>20</v>
@@ -5788,8 +5690,8 @@
       <c r="U56" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V56" s="32" t="s">
-        <v>21</v>
+      <c r="V56" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="W56" s="31" t="s">
         <v>20</v>
@@ -5797,12 +5699,10 @@
       <c r="X56" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y56" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z56" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y56" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z56" s="39"/>
       <c r="AA56" s="39"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5821,17 +5721,17 @@
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="42" t="s">
-        <v>21</v>
+      <c r="H57" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="I57" s="31" t="s">
         <v>20</v>
@@ -5848,8 +5748,8 @@
       <c r="M57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="31" t="s">
-        <v>20</v>
+      <c r="N57" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="O57" s="31" t="s">
         <v>20</v>
@@ -5857,8 +5757,8 @@
       <c r="P57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q57" s="32" t="s">
-        <v>21</v>
+      <c r="Q57" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R57" s="31" t="s">
         <v>20</v>
@@ -5872,8 +5772,8 @@
       <c r="U57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V57" s="32" t="s">
-        <v>21</v>
+      <c r="V57" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="W57" s="31" t="s">
         <v>20</v>
@@ -5881,12 +5781,10 @@
       <c r="X57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y57" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z57" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z57" s="39"/>
       <c r="AA57" s="39"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5905,20 +5803,20 @@
       </c>
       <c r="E58" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" s="32" t="s">
-        <v>21</v>
+      <c r="H58" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="J58" s="31" t="s">
         <v>20</v>
@@ -5935,11 +5833,11 @@
       <c r="N58" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O58" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P58" s="32" t="s">
-        <v>21</v>
+      <c r="O58" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="Q58" s="31" t="s">
         <v>20</v>
@@ -5953,8 +5851,8 @@
       <c r="T58" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="U58" s="31" t="s">
-        <v>20</v>
+      <c r="U58" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V58" s="31" t="s">
         <v>20</v>
@@ -5968,9 +5866,7 @@
       <c r="Y58" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Z58" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z58" s="39"/>
       <c r="AA58" s="39"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -5993,7 +5889,7 @@
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>20</v>
@@ -6052,9 +5948,7 @@
       <c r="Y59" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Z59" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z59" s="39"/>
       <c r="AA59" s="39"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -6073,11 +5967,11 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>20</v>
@@ -6097,8 +5991,8 @@
       <c r="L60" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M60" s="32" t="s">
-        <v>21</v>
+      <c r="M60" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="N60" s="31" t="s">
         <v>20</v>
@@ -6118,14 +6012,14 @@
       <c r="S60" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T60" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="U60" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="V60" s="32" t="s">
-        <v>21</v>
+      <c r="T60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="V60" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="W60" s="31" t="s">
         <v>20</v>
@@ -6136,9 +6030,7 @@
       <c r="Y60" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Z60" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z60" s="39"/>
       <c r="AA60" s="39"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -6157,11 +6049,11 @@
       </c>
       <c r="E61" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>20</v>
@@ -6175,8 +6067,8 @@
       <c r="J61" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K61" s="32" t="s">
-        <v>21</v>
+      <c r="K61" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="L61" s="31" t="s">
         <v>20</v>
@@ -6208,8 +6100,8 @@
       <c r="U61" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V61" s="32" t="s">
-        <v>21</v>
+      <c r="V61" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="W61" s="31" t="s">
         <v>20</v>
@@ -6217,12 +6109,10 @@
       <c r="X61" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y61" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z61" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y61" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z61" s="39"/>
       <c r="AA61" s="39"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -6241,17 +6131,17 @@
       </c>
       <c r="E62" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="30" t="s">
-        <v>20</v>
+      <c r="H62" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="I62" s="31" t="s">
         <v>20</v>
@@ -6259,38 +6149,38 @@
       <c r="J62" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K62" s="38" t="s">
-        <v>20</v>
+      <c r="K62" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="L62" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="N62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="P62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="T62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="U62" s="32" t="s">
-        <v>21</v>
+      <c r="M62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="S62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U62" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="V62" s="31" t="s">
         <v>20</v>
@@ -6298,15 +6188,13 @@
       <c r="W62" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="X62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z62" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="X62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z62" s="39"/>
       <c r="AA62" s="39"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -6325,20 +6213,20 @@
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G63" s="29" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="H63" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I63" s="31" t="s">
-        <v>20</v>
+      <c r="I63" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="J63" s="31" t="s">
         <v>20</v>
@@ -6346,8 +6234,8 @@
       <c r="K63" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L63" s="31" t="s">
-        <v>20</v>
+      <c r="L63" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M63" s="31" t="s">
         <v>20</v>
@@ -6355,8 +6243,8 @@
       <c r="N63" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O63" s="32" t="s">
-        <v>21</v>
+      <c r="O63" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="P63" s="31" t="s">
         <v>20</v>
@@ -6367,8 +6255,8 @@
       <c r="R63" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S63" s="31" t="s">
-        <v>20</v>
+      <c r="S63" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="T63" s="31" t="s">
         <v>20</v>
@@ -6379,8 +6267,8 @@
       <c r="V63" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="W63" s="31" t="s">
-        <v>20</v>
+      <c r="W63" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="X63" s="31" t="s">
         <v>20</v>
@@ -6388,9 +6276,7 @@
       <c r="Y63" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z63" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z63" s="39"/>
       <c r="AA63" s="39"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -6409,17 +6295,17 @@
       </c>
       <c r="E64" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="G64" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="38" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="I64" s="31" t="s">
         <v>20</v>
@@ -6430,8 +6316,8 @@
       <c r="K64" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L64" s="31" t="s">
-        <v>20</v>
+      <c r="L64" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M64" s="31" t="s">
         <v>20</v>
@@ -6439,8 +6325,8 @@
       <c r="N64" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O64" s="31" t="s">
-        <v>20</v>
+      <c r="O64" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P64" s="31" t="s">
         <v>20</v>
@@ -6448,8 +6334,8 @@
       <c r="Q64" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="R64" s="31" t="s">
-        <v>20</v>
+      <c r="R64" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S64" s="31" t="s">
         <v>20</v>
@@ -6469,12 +6355,10 @@
       <c r="X64" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y64" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z64" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z64" s="39"/>
       <c r="AA64" s="39"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -6493,17 +6377,17 @@
       </c>
       <c r="E65" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="38" t="s">
-        <v>20</v>
+      <c r="H65" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="I65" s="31" t="s">
         <v>20</v>
@@ -6529,11 +6413,11 @@
       <c r="P65" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q65" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R65" s="31" t="s">
-        <v>20</v>
+      <c r="Q65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S65" s="31" t="s">
         <v>20</v>
@@ -6544,8 +6428,8 @@
       <c r="U65" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V65" s="31" t="s">
-        <v>20</v>
+      <c r="V65" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="W65" s="31" t="s">
         <v>20</v>
@@ -6556,9 +6440,7 @@
       <c r="Y65" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z65" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z65" s="39"/>
       <c r="AA65" s="39"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -6577,11 +6459,11 @@
       </c>
       <c r="E66" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>20</v>
@@ -6595,8 +6477,8 @@
       <c r="J66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="31" t="s">
-        <v>20</v>
+      <c r="K66" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="L66" s="32" t="s">
         <v>21</v>
@@ -6610,8 +6492,8 @@
       <c r="O66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P66" s="31" t="s">
-        <v>20</v>
+      <c r="P66" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="Q66" s="31" t="s">
         <v>20</v>
@@ -6619,14 +6501,14 @@
       <c r="R66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S66" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="T66" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="U66" s="32" t="s">
-        <v>21</v>
+      <c r="S66" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T66" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U66" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="V66" s="31" t="s">
         <v>20</v>
@@ -6640,9 +6522,7 @@
       <c r="Y66" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Z66" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z66" s="39"/>
       <c r="AA66" s="39"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -6661,17 +6541,17 @@
       </c>
       <c r="E67" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H67" s="38" t="s">
-        <v>20</v>
+      <c r="H67" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="I67" s="31" t="s">
         <v>20</v>
@@ -6685,29 +6565,29 @@
       <c r="L67" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M67" s="31" t="s">
-        <v>20</v>
+      <c r="M67" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N67" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O67" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P67" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q67" s="32" t="s">
-        <v>21</v>
+      <c r="O67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="R67" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="S67" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="T67" s="31" t="s">
-        <v>20</v>
+      <c r="S67" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T67" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="U67" s="31" t="s">
         <v>20</v>
@@ -6724,9 +6604,7 @@
       <c r="Y67" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Z67" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z67" s="39"/>
       <c r="AA67" s="39"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -6745,11 +6623,11 @@
       </c>
       <c r="E68" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>20</v>
@@ -6769,8 +6647,8 @@
       <c r="L68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M68" s="31" t="s">
-        <v>20</v>
+      <c r="M68" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="N68" s="31" t="s">
         <v>20</v>
@@ -6778,11 +6656,11 @@
       <c r="O68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P68" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q68" s="31" t="s">
-        <v>20</v>
+      <c r="P68" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q68" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R68" s="31" t="s">
         <v>20</v>
@@ -6790,8 +6668,8 @@
       <c r="S68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T68" s="32" t="s">
-        <v>21</v>
+      <c r="T68" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="U68" s="31" t="s">
         <v>20</v>
@@ -6799,18 +6677,16 @@
       <c r="V68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W68" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="X68" s="31" t="s">
-        <v>20</v>
+      <c r="W68" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="X68" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="Y68" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Z68" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z68" s="39"/>
       <c r="AA68" s="39"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
@@ -6833,13 +6709,13 @@
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="30" t="s">
-        <v>20</v>
+      <c r="H69" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="I69" s="31" t="s">
         <v>20</v>
@@ -6850,8 +6726,8 @@
       <c r="K69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L69" s="32" t="s">
-        <v>21</v>
+      <c r="L69" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="M69" s="31" t="s">
         <v>20</v>
@@ -6859,8 +6735,8 @@
       <c r="N69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O69" s="31" t="s">
-        <v>20</v>
+      <c r="O69" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="P69" s="31" t="s">
         <v>20</v>
@@ -6868,11 +6744,11 @@
       <c r="Q69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R69" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="S69" s="32" t="s">
-        <v>21</v>
+      <c r="R69" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S69" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="T69" s="31" t="s">
         <v>20</v>
@@ -6889,12 +6765,10 @@
       <c r="X69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y69" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z69" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y69" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z69" s="39"/>
       <c r="AA69" s="39"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -6913,11 +6787,11 @@
       </c>
       <c r="E70" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>20</v>
@@ -6934,17 +6808,17 @@
       <c r="K70" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L70" s="31" t="s">
-        <v>20</v>
+      <c r="L70" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M70" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N70" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="O70" s="32" t="s">
-        <v>21</v>
+      <c r="N70" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="P70" s="31" t="s">
         <v>20</v>
@@ -6958,11 +6832,11 @@
       <c r="S70" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T70" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="U70" s="31" t="s">
-        <v>20</v>
+      <c r="T70" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U70" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="V70" s="31" t="s">
         <v>20</v>
@@ -6973,12 +6847,10 @@
       <c r="X70" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y70" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z70" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y70" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z70" s="39"/>
       <c r="AA70" s="39"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -6997,11 +6869,11 @@
       </c>
       <c r="E71" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>20</v>
@@ -7021,23 +6893,23 @@
       <c r="L71" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M71" s="32" t="s">
-        <v>21</v>
+      <c r="M71" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="N71" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O71" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="P71" s="31" t="s">
-        <v>20</v>
+      <c r="O71" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P71" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="Q71" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="R71" s="31" t="s">
-        <v>20</v>
+      <c r="R71" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="S71" s="31" t="s">
         <v>20</v>
@@ -7060,9 +6932,7 @@
       <c r="Y71" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Z71" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z71" s="39"/>
       <c r="AA71" s="39"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -7085,7 +6955,7 @@
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G72" s="29" t="s">
         <v>20</v>
@@ -7099,11 +6969,11 @@
       <c r="J72" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K72" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L72" s="31" t="s">
-        <v>20</v>
+      <c r="K72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="M72" s="31" t="s">
         <v>20</v>
@@ -7117,14 +6987,14 @@
       <c r="P72" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q72" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R72" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S72" s="31" t="s">
-        <v>20</v>
+      <c r="Q72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R72" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="S72" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="T72" s="31" t="s">
         <v>20</v>
@@ -7141,12 +7011,10 @@
       <c r="X72" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Y72" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z72" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z72" s="39"/>
       <c r="AA72" s="39"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -7169,7 +7037,7 @@
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G73" s="29" t="s">
         <v>20</v>
@@ -7177,14 +7045,14 @@
       <c r="H73" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I73" s="32" t="s">
-        <v>21</v>
+      <c r="I73" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="J73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K73" s="38" t="s">
-        <v>20</v>
+      <c r="K73" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="L73" s="31" t="s">
         <v>20</v>
@@ -7201,14 +7069,14 @@
       <c r="P73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q73" s="31" t="s">
-        <v>20</v>
+      <c r="Q73" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="R73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S73" s="32" t="s">
-        <v>21</v>
+      <c r="S73" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="T73" s="31" t="s">
         <v>20</v>
@@ -7216,21 +7084,19 @@
       <c r="U73" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V73" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="W73" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="X73" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y73" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z73" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="V73" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="W73" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X73" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y73" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z73" s="39"/>
       <c r="AA73" s="39"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -7249,7 +7115,7 @@
       </c>
       <c r="E74" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
@@ -7258,11 +7124,11 @@
       <c r="G74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="31" t="s">
-        <v>20</v>
+      <c r="H74" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="J74" s="31" t="s">
         <v>20</v>
@@ -7270,8 +7136,8 @@
       <c r="K74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L74" s="32" t="s">
-        <v>21</v>
+      <c r="L74" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="M74" s="31" t="s">
         <v>20</v>
@@ -7288,11 +7154,11 @@
       <c r="Q74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R74" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="S74" s="31" t="s">
-        <v>20</v>
+      <c r="R74" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S74" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="T74" s="31" t="s">
         <v>20</v>
@@ -7300,21 +7166,19 @@
       <c r="U74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V74" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="W74" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="X74" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y74" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z74" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="V74" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="W74" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="X74" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y74" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z74" s="39"/>
       <c r="AA74" s="39"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -12644,8 +12508,8 @@
   <autoFilter ref="$A$6:$AA$74">
     <sortState ref="A6:AA74">
       <sortCondition ref="A6:A74"/>
+      <sortCondition descending="1" ref="E6:E74"/>
       <sortCondition ref="C6:C74"/>
-      <sortCondition descending="1" ref="E6:E74"/>
     </sortState>
   </autoFilter>
   <mergeCells count="7">
